--- a/data/input_operation/OperationScenario_Component_Building.xlsx
+++ b/data/input_operation/OperationScenario_Component_Building.xlsx
@@ -72,9 +72,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
@@ -92,30 +92,76 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -131,6 +177,36 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -138,22 +214,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,71 +228,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -244,55 +244,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -304,127 +424,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,6 +435,78 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -455,45 +527,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -502,181 +535,148 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1032,7 +1032,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14" outlineLevelRow="1"/>

--- a/data/input_operation/OperationScenario_Component_Building.xlsx
+++ b/data/input_operation/OperationScenario_Component_Building.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="14660"/>
+    <workbookView windowWidth="27860" windowHeight="14260"/>
   </bookViews>
   <sheets>
     <sheet name="OperationScenario_Building" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
   <si>
     <t>ID_Building</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>grid_power_max</t>
+  </si>
+  <si>
+    <t>SFH</t>
   </si>
   <si>
     <t>MFH</t>
@@ -72,10 +75,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -85,47 +88,47 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -139,97 +142,97 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,13 +247,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -262,85 +295,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -352,79 +427,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,6 +438,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -447,11 +474,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -474,7 +507,18 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -494,192 +538,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -747,8 +750,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:P2" totalsRowShown="0">
-  <autoFilter ref="A1:P2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:P3" totalsRowShown="0">
+  <autoFilter ref="A1:P3"/>
   <tableColumns count="16">
     <tableColumn id="1" name="ID_Building"/>
     <tableColumn id="2" name="type"/>
@@ -1029,13 +1032,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="5" width="13.2890625" customWidth="1"/>
     <col min="10" max="10" width="12.140625" customWidth="1"/>
@@ -1111,7 +1114,7 @@
         <v>1960</v>
       </c>
       <c r="E2">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>185</v>
@@ -1144,6 +1147,56 @@
         <v>1.541</v>
       </c>
       <c r="P2">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3">
+        <v>1950</v>
+      </c>
+      <c r="D3">
+        <v>1960</v>
+      </c>
+      <c r="E3">
+        <v>50</v>
+      </c>
+      <c r="F3">
+        <v>185</v>
+      </c>
+      <c r="G3">
+        <v>234.797</v>
+      </c>
+      <c r="H3">
+        <v>160.789</v>
+      </c>
+      <c r="I3">
+        <v>52.371</v>
+      </c>
+      <c r="J3">
+        <v>213505.516</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>3.4</v>
+      </c>
+      <c r="M3">
+        <v>8.323</v>
+      </c>
+      <c r="N3">
+        <v>5.549</v>
+      </c>
+      <c r="O3">
+        <v>1.541</v>
+      </c>
+      <c r="P3">
         <v>21000</v>
       </c>
     </row>

--- a/data/input_operation/OperationScenario_Component_Building.xlsx
+++ b/data/input_operation/OperationScenario_Component_Building.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27860" windowHeight="14260"/>
+    <workbookView windowWidth="30240" windowHeight="14800"/>
   </bookViews>
   <sheets>
     <sheet name="OperationScenario_Building" sheetId="1" r:id="rId1"/>
@@ -22,10 +22,10 @@
     <t>type</t>
   </si>
   <si>
-    <t>year_start</t>
-  </si>
-  <si>
-    <t>year_end</t>
+    <t>construction_period_start</t>
+  </si>
+  <si>
+    <t>construction_period_end</t>
   </si>
   <si>
     <t>person_num</t>
@@ -75,12 +75,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -88,17 +88,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -110,6 +109,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -119,6 +126,112 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -131,112 +244,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -247,187 +254,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,6 +445,50 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -456,35 +507,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -512,182 +545,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -755,8 +763,8 @@
   <tableColumns count="16">
     <tableColumn id="1" name="ID_Building"/>
     <tableColumn id="2" name="type"/>
-    <tableColumn id="3" name="year_start"/>
-    <tableColumn id="4" name="year_end"/>
+    <tableColumn id="3" name="construction_period_start"/>
+    <tableColumn id="4" name="construction_period_end"/>
     <tableColumn id="5" name="person_num"/>
     <tableColumn id="6" name="Af"/>
     <tableColumn id="7" name="Hop"/>
@@ -1034,13 +1042,17 @@
   <sheetPr/>
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="5" width="13.2890625" customWidth="1"/>
+    <col min="1" max="2" width="13.2890625" customWidth="1"/>
+    <col min="3" max="3" width="24.4375" customWidth="1"/>
+    <col min="4" max="4" width="23.625" customWidth="1"/>
+    <col min="5" max="5" width="13.2890625" customWidth="1"/>
+    <col min="6" max="6" width="8.5" customWidth="1"/>
     <col min="10" max="10" width="12.140625" customWidth="1"/>
     <col min="11" max="11" width="12.2890625" customWidth="1"/>
     <col min="12" max="12" width="15.7109375" customWidth="1"/>
@@ -1108,25 +1120,25 @@
         <v>16</v>
       </c>
       <c r="C2">
-        <v>1950</v>
+        <v>2002</v>
       </c>
       <c r="D2">
-        <v>1960</v>
+        <v>2008</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2">
-        <v>185</v>
+        <v>168.32</v>
       </c>
       <c r="G2">
-        <v>234.797</v>
+        <v>226.236</v>
       </c>
       <c r="H2">
-        <v>160.789</v>
+        <v>156.036</v>
       </c>
       <c r="I2">
-        <v>52.371</v>
+        <v>47.614</v>
       </c>
       <c r="J2">
         <v>213505.516</v>
@@ -1135,16 +1147,16 @@
         <v>3</v>
       </c>
       <c r="L2">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M2">
-        <v>8.323</v>
+        <v>10.483</v>
       </c>
       <c r="N2">
-        <v>5.549</v>
+        <v>4.368</v>
       </c>
       <c r="O2">
-        <v>1.541</v>
+        <v>2.621</v>
       </c>
       <c r="P2">
         <v>21000</v>
@@ -1157,26 +1169,26 @@
       <c r="B3" t="s">
         <v>17</v>
       </c>
-      <c r="C3">
-        <v>1950</v>
-      </c>
-      <c r="D3">
-        <v>1960</v>
+      <c r="C3" s="1">
+        <v>2002</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2008</v>
       </c>
       <c r="E3">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F3">
-        <v>185</v>
+        <v>894.928</v>
       </c>
       <c r="G3">
-        <v>234.797</v>
+        <v>684.21</v>
       </c>
       <c r="H3">
-        <v>160.789</v>
+        <v>462.035</v>
       </c>
       <c r="I3">
-        <v>52.371</v>
+        <v>253.157</v>
       </c>
       <c r="J3">
         <v>213505.516</v>
@@ -1185,19 +1197,19 @@
         <v>3</v>
       </c>
       <c r="L3">
-        <v>3.4</v>
-      </c>
-      <c r="M3">
-        <v>8.323</v>
-      </c>
-      <c r="N3">
-        <v>5.549</v>
-      </c>
-      <c r="O3">
-        <v>1.541</v>
+        <v>3</v>
+      </c>
+      <c r="M3" s="1">
+        <v>30.929</v>
+      </c>
+      <c r="N3" s="1">
+        <v>12.887</v>
+      </c>
+      <c r="O3" s="1">
+        <v>7.732</v>
       </c>
       <c r="P3">
-        <v>21000</v>
+        <v>2100000</v>
       </c>
     </row>
   </sheetData>

--- a/data/input_operation/OperationScenario_Component_Building.xlsx
+++ b/data/input_operation/OperationScenario_Component_Building.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mascherbauer\PycharmProjects\NewTrends\Prosumager\data\input_operation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE5793DD-17A9-4EC6-A98C-FC9C1C5909AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B399C453-D5ED-4EBC-8C86-BAA1DCAB64F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OperationScenario_Component_Bui" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>ID_Building</t>
   </si>
@@ -71,15 +71,12 @@
   </si>
   <si>
     <t>SFH</t>
-  </si>
-  <si>
-    <t>MFH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -913,10 +910,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7:E8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -984,37 +983,38 @@
         <v>2008</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <f>F2/42.5</f>
+        <v>5.2148552541176469</v>
       </c>
       <c r="F2">
-        <v>168.32</v>
+        <v>221.63134830000001</v>
       </c>
       <c r="G2">
-        <v>226.23599999999999</v>
+        <v>254.9631438247857</v>
       </c>
       <c r="H2">
-        <v>156.036</v>
+        <v>46.820417700438369</v>
       </c>
       <c r="I2">
-        <v>47.613999999999997</v>
+        <v>57.518954565333338</v>
       </c>
       <c r="J2">
-        <v>213505.516</v>
+        <v>367866.34275237168</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2.665698135886752</v>
       </c>
       <c r="L2">
-        <v>3</v>
+        <v>4.09</v>
       </c>
       <c r="M2">
-        <v>10.483000000000001</v>
+        <v>12.20767531625359</v>
       </c>
       <c r="N2">
-        <v>4.3680000000000003</v>
+        <v>6.6159403693858696</v>
       </c>
       <c r="O2">
-        <v>2.621</v>
+        <v>6.5185032509771581</v>
       </c>
       <c r="P2">
         <v>21000</v>
@@ -1025,7 +1025,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3">
         <v>2002</v>
@@ -1034,40 +1034,194 @@
         <v>2008</v>
       </c>
       <c r="E3">
-        <v>20</v>
+        <f t="shared" ref="E3:E6" si="0">F3/42.5</f>
+        <v>5.2148552541176469</v>
       </c>
       <c r="F3">
-        <v>894.928</v>
+        <v>221.63134830000001</v>
       </c>
       <c r="G3">
-        <v>684.21</v>
+        <v>133.87886573742469</v>
       </c>
       <c r="H3">
-        <v>462.03500000000003</v>
+        <v>24.481528607224831</v>
       </c>
       <c r="I3">
-        <v>253.15700000000001</v>
+        <v>58.725545181333331</v>
       </c>
       <c r="J3">
-        <v>213505.516</v>
+        <v>367866.34275237168</v>
       </c>
       <c r="K3">
+        <v>2.665698135886752</v>
+      </c>
+      <c r="L3">
+        <v>4.09</v>
+      </c>
+      <c r="M3">
+        <v>12.812474551737489</v>
+      </c>
+      <c r="N3">
+        <v>6.9437108558833476</v>
+      </c>
+      <c r="O3">
+        <v>6.8414464551956851</v>
+      </c>
+      <c r="P3">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="L3">
-        <v>3</v>
-      </c>
-      <c r="M3">
-        <v>30.928999999999998</v>
-      </c>
-      <c r="N3">
-        <v>12.887</v>
-      </c>
-      <c r="O3">
-        <v>7.7320000000000002</v>
-      </c>
-      <c r="P3">
-        <v>2100000</v>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>2002</v>
+      </c>
+      <c r="D4">
+        <v>2008</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>4.439821668235294</v>
+      </c>
+      <c r="F4">
+        <v>188.6924209</v>
+      </c>
+      <c r="G4">
+        <v>56.927703629411752</v>
+      </c>
+      <c r="H4">
+        <v>21.10418537697889</v>
+      </c>
+      <c r="I4">
+        <v>49.14840339733334</v>
+      </c>
+      <c r="J4">
+        <v>375022.16953272658</v>
+      </c>
+      <c r="K4">
+        <v>2.7175519531357</v>
+      </c>
+      <c r="L4">
+        <v>4.09</v>
+      </c>
+      <c r="M4">
+        <v>13.1968810121787</v>
+      </c>
+      <c r="N4">
+        <v>6.768491029998664</v>
+      </c>
+      <c r="O4">
+        <v>6.9498475094373449</v>
+      </c>
+      <c r="P4">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>2002</v>
+      </c>
+      <c r="D5">
+        <v>2008</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>5.2088561576470589</v>
+      </c>
+      <c r="F5">
+        <v>221.37638670000001</v>
+      </c>
+      <c r="G5">
+        <v>395.80034904895592</v>
+      </c>
+      <c r="H5">
+        <v>37.768852849836541</v>
+      </c>
+      <c r="I5">
+        <v>58.15579926800001</v>
+      </c>
+      <c r="J5">
+        <v>346857.72354845091</v>
+      </c>
+      <c r="K5">
+        <v>2.513461764843846</v>
+      </c>
+      <c r="L5">
+        <v>4.09</v>
+      </c>
+      <c r="M5">
+        <v>9.3590813453010995</v>
+      </c>
+      <c r="N5">
+        <v>4.7060855846568694</v>
+      </c>
+      <c r="O5">
+        <v>4.6303943178563047</v>
+      </c>
+      <c r="P5">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>2002</v>
+      </c>
+      <c r="D6">
+        <v>2008</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>5.2088561576470589</v>
+      </c>
+      <c r="F6">
+        <v>221.37638670000001</v>
+      </c>
+      <c r="G6">
+        <v>161.5984281825618</v>
+      </c>
+      <c r="H6">
+        <v>21.961324361322241</v>
+      </c>
+      <c r="I6">
+        <v>58.233763111999998</v>
+      </c>
+      <c r="J6">
+        <v>346857.72354845091</v>
+      </c>
+      <c r="K6">
+        <v>2.513461764843846</v>
+      </c>
+      <c r="L6">
+        <v>4.09</v>
+      </c>
+      <c r="M6">
+        <v>10.10567817180852</v>
+      </c>
+      <c r="N6">
+        <v>5.0815015505135159</v>
+      </c>
+      <c r="O6">
+        <v>4.9997722060958587</v>
+      </c>
+      <c r="P6">
+        <v>21000</v>
       </c>
     </row>
   </sheetData>

--- a/data/input_operation/OperationScenario_Component_Building.xlsx
+++ b/data/input_operation/OperationScenario_Component_Building.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20389"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mascherbauer\PycharmProjects\NewTrends\Prosumager\data\input_operation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE5793DD-17A9-4EC6-A98C-FC9C1C5909AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A36235-1F08-4B2B-9C0E-EB496BF2CF0F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OperationScenario_Component_Bui" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">OperationScenario_Component_Bui!$A$1:$P$17</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
   <si>
     <t>ID_Building</t>
   </si>
@@ -72,14 +75,11 @@
   <si>
     <t>SFH</t>
   </si>
-  <si>
-    <t>MFH</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -216,7 +216,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -394,6 +394,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -557,8 +563,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -913,12 +921,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="13" max="13" width="29.90625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.26953125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.1796875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -970,107 +985,808 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>29</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
+        <v>1880</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1918</v>
+      </c>
+      <c r="E2" s="2">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2">
+        <v>183.79400000000001</v>
+      </c>
+      <c r="G2" s="2">
+        <v>270.53500000000003</v>
+      </c>
+      <c r="H2" s="2">
+        <v>102.03</v>
+      </c>
+      <c r="I2" s="2">
+        <v>51.991999999999997</v>
+      </c>
+      <c r="J2" s="2">
+        <v>398415.375</v>
+      </c>
+      <c r="K2" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="L2" s="2">
+        <v>3</v>
+      </c>
+      <c r="M2" s="2">
+        <v>7.4429999999999996</v>
+      </c>
+      <c r="N2" s="2">
+        <v>4.8940000000000001</v>
+      </c>
+      <c r="O2" s="2">
+        <v>1.371</v>
+      </c>
+      <c r="P2" s="1">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>34</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1979</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1983</v>
+      </c>
+      <c r="E3" s="2">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2">
+        <v>185.137</v>
+      </c>
+      <c r="G3" s="2">
+        <v>214.91200000000001</v>
+      </c>
+      <c r="H3" s="2">
+        <v>90.760999999999996</v>
+      </c>
+      <c r="I3" s="2">
+        <v>52.371000000000002</v>
+      </c>
+      <c r="J3" s="2">
+        <v>213505.516</v>
+      </c>
+      <c r="K3" s="2">
+        <v>3</v>
+      </c>
+      <c r="L3" s="2">
+        <v>3</v>
+      </c>
+      <c r="M3" s="2">
+        <v>8.3230000000000004</v>
+      </c>
+      <c r="N3" s="2">
+        <v>5.5490000000000004</v>
+      </c>
+      <c r="O3" s="2">
+        <v>1.5409999999999999</v>
+      </c>
+      <c r="P3" s="1">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>36</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1995</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2001</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2">
+        <v>177.626</v>
+      </c>
+      <c r="G4" s="2">
+        <v>98.600999999999999</v>
+      </c>
+      <c r="H4" s="2">
+        <v>104.66800000000001</v>
+      </c>
+      <c r="I4" s="2">
+        <v>50.247</v>
+      </c>
+      <c r="J4" s="2">
+        <v>213505.516</v>
+      </c>
+      <c r="K4" s="2">
+        <v>3</v>
+      </c>
+      <c r="L4" s="2">
+        <v>3</v>
+      </c>
+      <c r="M4" s="2">
+        <v>15.365</v>
+      </c>
+      <c r="N4" s="2">
+        <v>5.5869999999999997</v>
+      </c>
+      <c r="O4" s="2">
+        <v>2.3279999999999998</v>
+      </c>
+      <c r="P4" s="1">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>37</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2">
         <v>2002</v>
       </c>
-      <c r="D2">
-        <v>2008</v>
-      </c>
-      <c r="E2">
-        <v>4</v>
-      </c>
-      <c r="F2">
-        <v>168.32</v>
-      </c>
-      <c r="G2">
-        <v>226.23599999999999</v>
-      </c>
-      <c r="H2">
-        <v>156.036</v>
-      </c>
-      <c r="I2">
-        <v>47.613999999999997</v>
-      </c>
-      <c r="J2">
+      <c r="D5" s="2">
+        <v>2004</v>
+      </c>
+      <c r="E5" s="2">
+        <v>3</v>
+      </c>
+      <c r="F5" s="2">
+        <v>176.86099999999999</v>
+      </c>
+      <c r="G5" s="2">
+        <v>95.753</v>
+      </c>
+      <c r="H5" s="2">
+        <v>64.212000000000003</v>
+      </c>
+      <c r="I5" s="2">
+        <v>50.030999999999999</v>
+      </c>
+      <c r="J5" s="2">
+        <v>148226.875</v>
+      </c>
+      <c r="K5" s="2">
+        <v>2.6669999999999998</v>
+      </c>
+      <c r="L5" s="2">
+        <v>3</v>
+      </c>
+      <c r="M5" s="2">
+        <v>8.452</v>
+      </c>
+      <c r="N5" s="2">
+        <v>3.6219999999999999</v>
+      </c>
+      <c r="O5" s="2">
+        <v>1.3420000000000001</v>
+      </c>
+      <c r="P5" s="1">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>38</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2005</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2005</v>
+      </c>
+      <c r="E6" s="2">
+        <v>3</v>
+      </c>
+      <c r="F6" s="2">
+        <v>177.167</v>
+      </c>
+      <c r="G6" s="2">
+        <v>100.527</v>
+      </c>
+      <c r="H6" s="2">
+        <v>61.503999999999998</v>
+      </c>
+      <c r="I6" s="2">
+        <v>55.128999999999998</v>
+      </c>
+      <c r="J6" s="2">
+        <v>148226.875</v>
+      </c>
+      <c r="K6" s="2">
+        <v>2.6669999999999998</v>
+      </c>
+      <c r="L6" s="2">
+        <v>3</v>
+      </c>
+      <c r="M6" s="2">
+        <v>7.9589999999999996</v>
+      </c>
+      <c r="N6" s="2">
+        <v>3.411</v>
+      </c>
+      <c r="O6" s="2">
+        <v>1.2629999999999999</v>
+      </c>
+      <c r="P6" s="1">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>40</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2007</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2007</v>
+      </c>
+      <c r="E7" s="2">
+        <v>3</v>
+      </c>
+      <c r="F7" s="2">
+        <v>169.459</v>
+      </c>
+      <c r="G7" s="2">
+        <v>94.391999999999996</v>
+      </c>
+      <c r="H7" s="2">
+        <v>62.491</v>
+      </c>
+      <c r="I7" s="2">
+        <v>52.73</v>
+      </c>
+      <c r="J7" s="2">
+        <v>148226.875</v>
+      </c>
+      <c r="K7" s="2">
+        <v>2.6669999999999998</v>
+      </c>
+      <c r="L7" s="2">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2">
+        <v>8.2070000000000007</v>
+      </c>
+      <c r="N7" s="2">
+        <v>3.5169999999999999</v>
+      </c>
+      <c r="O7" s="2">
+        <v>1.3029999999999999</v>
+      </c>
+      <c r="P7" s="1">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>44</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1919</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1948</v>
+      </c>
+      <c r="E8" s="2">
+        <v>3</v>
+      </c>
+      <c r="F8" s="2">
+        <v>166.934</v>
+      </c>
+      <c r="G8" s="2">
+        <v>223.42500000000001</v>
+      </c>
+      <c r="H8" s="2">
+        <v>130.68299999999999</v>
+      </c>
+      <c r="I8" s="2">
+        <v>47.222000000000001</v>
+      </c>
+      <c r="J8" s="2">
+        <v>338121.65600000002</v>
+      </c>
+      <c r="K8" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="L8" s="2">
+        <v>3</v>
+      </c>
+      <c r="M8" s="2">
+        <v>12.082000000000001</v>
+      </c>
+      <c r="N8" s="2">
+        <v>5.7439999999999998</v>
+      </c>
+      <c r="O8" s="2">
+        <v>1.9810000000000001</v>
+      </c>
+      <c r="P8" s="1">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>45</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1949</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1957</v>
+      </c>
+      <c r="E9" s="2">
+        <v>3</v>
+      </c>
+      <c r="F9" s="2">
+        <v>174.14</v>
+      </c>
+      <c r="G9" s="2">
+        <v>273.15499999999997</v>
+      </c>
+      <c r="H9" s="2">
+        <v>114.283</v>
+      </c>
+      <c r="I9" s="2">
+        <v>49.261000000000003</v>
+      </c>
+      <c r="J9" s="2">
         <v>213505.516</v>
       </c>
-      <c r="K2">
-        <v>3</v>
-      </c>
-      <c r="L2">
-        <v>3</v>
-      </c>
-      <c r="M2">
-        <v>10.483000000000001</v>
-      </c>
-      <c r="N2">
-        <v>4.3680000000000003</v>
-      </c>
-      <c r="O2">
-        <v>2.621</v>
-      </c>
-      <c r="P2">
+      <c r="K9" s="2">
+        <v>3</v>
+      </c>
+      <c r="L9" s="2">
+        <v>3</v>
+      </c>
+      <c r="M9" s="2">
+        <v>10.037000000000001</v>
+      </c>
+      <c r="N9" s="2">
+        <v>4.5330000000000004</v>
+      </c>
+      <c r="O9" s="2">
+        <v>1.619</v>
+      </c>
+      <c r="P9" s="1">
         <v>21000</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3">
-        <v>2002</v>
-      </c>
-      <c r="D3">
-        <v>2008</v>
-      </c>
-      <c r="E3">
-        <v>20</v>
-      </c>
-      <c r="F3">
-        <v>894.928</v>
-      </c>
-      <c r="G3">
-        <v>684.21</v>
-      </c>
-      <c r="H3">
-        <v>462.03500000000003</v>
-      </c>
-      <c r="I3">
-        <v>253.15700000000001</v>
-      </c>
-      <c r="J3">
+    <row r="10" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>46</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1958</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1968</v>
+      </c>
+      <c r="E10" s="2">
+        <v>3</v>
+      </c>
+      <c r="F10" s="2">
+        <v>175.60900000000001</v>
+      </c>
+      <c r="G10" s="2">
+        <v>302.37900000000002</v>
+      </c>
+      <c r="H10" s="2">
+        <v>155.72800000000001</v>
+      </c>
+      <c r="I10" s="2">
+        <v>49.676000000000002</v>
+      </c>
+      <c r="J10" s="2">
         <v>213505.516</v>
       </c>
-      <c r="K3">
-        <v>3</v>
-      </c>
-      <c r="L3">
-        <v>3</v>
-      </c>
-      <c r="M3">
-        <v>30.928999999999998</v>
-      </c>
-      <c r="N3">
-        <v>12.887</v>
-      </c>
-      <c r="O3">
-        <v>7.7320000000000002</v>
-      </c>
-      <c r="P3">
-        <v>2100000</v>
+      <c r="K10" s="2">
+        <v>3</v>
+      </c>
+      <c r="L10" s="2">
+        <v>3</v>
+      </c>
+      <c r="M10" s="2">
+        <v>13.315</v>
+      </c>
+      <c r="N10" s="2">
+        <v>7.7089999999999996</v>
+      </c>
+      <c r="O10" s="2">
+        <v>2.3359999999999999</v>
+      </c>
+      <c r="P10" s="1">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>47</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1969</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1978</v>
+      </c>
+      <c r="E11" s="2">
+        <v>3</v>
+      </c>
+      <c r="F11" s="2">
+        <v>184.14500000000001</v>
+      </c>
+      <c r="G11" s="2">
+        <v>270.49700000000001</v>
+      </c>
+      <c r="H11" s="2">
+        <v>150.87700000000001</v>
+      </c>
+      <c r="I11" s="2">
+        <v>52.091000000000001</v>
+      </c>
+      <c r="J11" s="2">
+        <v>213505.516</v>
+      </c>
+      <c r="K11" s="2">
+        <v>3</v>
+      </c>
+      <c r="L11" s="2">
+        <v>3</v>
+      </c>
+      <c r="M11" s="2">
+        <v>14.753</v>
+      </c>
+      <c r="N11" s="2">
+        <v>5.9930000000000003</v>
+      </c>
+      <c r="O11" s="2">
+        <v>2.3050000000000002</v>
+      </c>
+      <c r="P11" s="1">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>49</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1984</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1994</v>
+      </c>
+      <c r="E12" s="2">
+        <v>3</v>
+      </c>
+      <c r="F12" s="2">
+        <v>182.928</v>
+      </c>
+      <c r="G12" s="2">
+        <v>145.40700000000001</v>
+      </c>
+      <c r="H12" s="2">
+        <v>123.01900000000001</v>
+      </c>
+      <c r="I12" s="2">
+        <v>51.747</v>
+      </c>
+      <c r="J12" s="2">
+        <v>213505.516</v>
+      </c>
+      <c r="K12" s="2">
+        <v>3</v>
+      </c>
+      <c r="L12" s="2">
+        <v>3</v>
+      </c>
+      <c r="M12" s="2">
+        <v>13.516999999999999</v>
+      </c>
+      <c r="N12" s="2">
+        <v>8.2070000000000007</v>
+      </c>
+      <c r="O12" s="2">
+        <v>2.4140000000000001</v>
+      </c>
+      <c r="P12" s="1">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>53</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2006</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2006</v>
+      </c>
+      <c r="E13" s="2">
+        <v>3</v>
+      </c>
+      <c r="F13" s="2">
+        <v>186.50299999999999</v>
+      </c>
+      <c r="G13" s="2">
+        <v>99.061000000000007</v>
+      </c>
+      <c r="H13" s="2">
+        <v>62.307000000000002</v>
+      </c>
+      <c r="I13" s="2">
+        <v>58.033999999999999</v>
+      </c>
+      <c r="J13" s="2">
+        <v>148226.875</v>
+      </c>
+      <c r="K13" s="2">
+        <v>2.6669999999999998</v>
+      </c>
+      <c r="L13" s="2">
+        <v>3</v>
+      </c>
+      <c r="M13" s="2">
+        <v>8.7889999999999997</v>
+      </c>
+      <c r="N13" s="2">
+        <v>3.7669999999999999</v>
+      </c>
+      <c r="O13" s="2">
+        <v>1.395</v>
+      </c>
+      <c r="P13" s="1">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>55</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2009</v>
+      </c>
+      <c r="D14" s="2">
+        <v>2012</v>
+      </c>
+      <c r="E14" s="2">
+        <v>3</v>
+      </c>
+      <c r="F14" s="2">
+        <v>214.02799999999999</v>
+      </c>
+      <c r="G14" s="2">
+        <v>110.389</v>
+      </c>
+      <c r="H14" s="2">
+        <v>64.798000000000002</v>
+      </c>
+      <c r="I14" s="2">
+        <v>66.599000000000004</v>
+      </c>
+      <c r="J14" s="2">
+        <v>148226.875</v>
+      </c>
+      <c r="K14" s="2">
+        <v>2.6669999999999998</v>
+      </c>
+      <c r="L14" s="2">
+        <v>3</v>
+      </c>
+      <c r="M14" s="2">
+        <v>9.5169999999999995</v>
+      </c>
+      <c r="N14" s="2">
+        <v>4.0789999999999997</v>
+      </c>
+      <c r="O14" s="2">
+        <v>1.5109999999999999</v>
+      </c>
+      <c r="P14" s="1">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>56</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2009</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2012</v>
+      </c>
+      <c r="E15" s="2">
+        <v>3</v>
+      </c>
+      <c r="F15" s="2">
+        <v>155.95400000000001</v>
+      </c>
+      <c r="G15" s="2">
+        <v>87.111000000000004</v>
+      </c>
+      <c r="H15" s="2">
+        <v>49.99</v>
+      </c>
+      <c r="I15" s="2">
+        <v>48.527999999999999</v>
+      </c>
+      <c r="J15" s="2">
+        <v>148226.875</v>
+      </c>
+      <c r="K15" s="2">
+        <v>2.6669999999999998</v>
+      </c>
+      <c r="L15" s="2">
+        <v>3</v>
+      </c>
+      <c r="M15" s="2">
+        <v>7.86</v>
+      </c>
+      <c r="N15" s="2">
+        <v>3.3679999999999999</v>
+      </c>
+      <c r="O15" s="2">
+        <v>1.248</v>
+      </c>
+      <c r="P15" s="1">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>77</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="2">
+        <v>2013</v>
+      </c>
+      <c r="D16" s="2">
+        <v>2019</v>
+      </c>
+      <c r="E16" s="2">
+        <v>3</v>
+      </c>
+      <c r="F16" s="2">
+        <v>214.02799999999999</v>
+      </c>
+      <c r="G16" s="2">
+        <v>96.319000000000003</v>
+      </c>
+      <c r="H16" s="2">
+        <v>59.613</v>
+      </c>
+      <c r="I16" s="2">
+        <v>66.599000000000004</v>
+      </c>
+      <c r="J16" s="2">
+        <v>148226.875</v>
+      </c>
+      <c r="K16" s="2">
+        <v>2.6669999999999998</v>
+      </c>
+      <c r="L16" s="2">
+        <v>3</v>
+      </c>
+      <c r="M16" s="2">
+        <v>9.5169999999999995</v>
+      </c>
+      <c r="N16" s="2">
+        <v>4.0789999999999997</v>
+      </c>
+      <c r="O16" s="2">
+        <v>1.5109999999999999</v>
+      </c>
+      <c r="P16" s="1">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>78</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="2">
+        <v>2013</v>
+      </c>
+      <c r="D17" s="2">
+        <v>2019</v>
+      </c>
+      <c r="E17" s="2">
+        <v>3</v>
+      </c>
+      <c r="F17" s="2">
+        <v>155.95400000000001</v>
+      </c>
+      <c r="G17" s="2">
+        <v>75.715000000000003</v>
+      </c>
+      <c r="H17" s="2">
+        <v>48.85</v>
+      </c>
+      <c r="I17" s="2">
+        <v>48.527999999999999</v>
+      </c>
+      <c r="J17" s="2">
+        <v>148226.875</v>
+      </c>
+      <c r="K17" s="2">
+        <v>2.6669999999999998</v>
+      </c>
+      <c r="L17" s="2">
+        <v>3</v>
+      </c>
+      <c r="M17" s="2">
+        <v>7.86</v>
+      </c>
+      <c r="N17" s="2">
+        <v>3.3679999999999999</v>
+      </c>
+      <c r="O17" s="2">
+        <v>1.248</v>
+      </c>
+      <c r="P17" s="1">
+        <v>21000</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:P17" xr:uid="{1B48CFBC-E64D-4A13-BAE3-02D6E7AC7F10}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/input_operation/OperationScenario_Component_Building.xlsx
+++ b/data/input_operation/OperationScenario_Component_Building.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20389"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mascherbauer\PycharmProjects\NewTrends\Prosumager\data\input_operation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/Flex/data/input_operation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A36235-1F08-4B2B-9C0E-EB496BF2CF0F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE701FE4-E370-FD42-ABBD-ED00616B0811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2120" yWindow="-18060" windowWidth="25880" windowHeight="16660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OperationScenario_Component_Bui" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">OperationScenario_Component_Bui!$A$1:$P$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">OperationScenario_Component_Bui!$A$1:$P$6</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>ID_Building</t>
   </si>
@@ -216,7 +216,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -394,12 +394,6 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -563,54 +557,53 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -626,7 +619,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -922,20 +915,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="13" max="13" width="29.90625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.26953125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -985,808 +978,259 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="2">
-        <v>1880</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1918</v>
-      </c>
-      <c r="E2" s="2">
-        <v>3</v>
-      </c>
-      <c r="F2" s="2">
-        <v>183.79400000000001</v>
-      </c>
-      <c r="G2" s="2">
-        <v>270.53500000000003</v>
-      </c>
-      <c r="H2" s="2">
-        <v>102.03</v>
-      </c>
-      <c r="I2" s="2">
-        <v>51.991999999999997</v>
-      </c>
-      <c r="J2" s="2">
-        <v>398415.375</v>
-      </c>
-      <c r="K2" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="L2" s="2">
-        <v>3</v>
-      </c>
-      <c r="M2" s="2">
-        <v>7.4429999999999996</v>
-      </c>
-      <c r="N2" s="2">
-        <v>4.8940000000000001</v>
-      </c>
-      <c r="O2" s="2">
-        <v>1.371</v>
+      <c r="C2" s="1">
+        <v>1949</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1957</v>
+      </c>
+      <c r="E2" s="1">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1">
+        <v>174.14</v>
+      </c>
+      <c r="G2" s="1">
+        <v>303.87599999999998</v>
+      </c>
+      <c r="H2" s="1">
+        <v>117.355</v>
+      </c>
+      <c r="I2" s="1">
+        <v>49.261000000000003</v>
+      </c>
+      <c r="J2" s="1">
+        <v>213505.516</v>
+      </c>
+      <c r="K2" s="1">
+        <v>3</v>
+      </c>
+      <c r="L2" s="1">
+        <v>3</v>
+      </c>
+      <c r="M2" s="1">
+        <v>10.037000000000001</v>
+      </c>
+      <c r="N2" s="1">
+        <v>4.5330000000000004</v>
+      </c>
+      <c r="O2" s="1">
+        <v>1.619</v>
       </c>
       <c r="P2" s="1">
         <v>21000</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="2">
-        <v>1979</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1983</v>
-      </c>
-      <c r="E3" s="2">
-        <v>3</v>
-      </c>
-      <c r="F3" s="2">
-        <v>185.137</v>
-      </c>
-      <c r="G3" s="2">
-        <v>214.91200000000001</v>
-      </c>
-      <c r="H3" s="2">
-        <v>90.760999999999996</v>
-      </c>
-      <c r="I3" s="2">
-        <v>52.371000000000002</v>
-      </c>
-      <c r="J3" s="2">
+      <c r="C3" s="1">
+        <v>1949</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1957</v>
+      </c>
+      <c r="E3" s="1">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1">
+        <v>174.14</v>
+      </c>
+      <c r="G3" s="1">
+        <v>286.52800000000002</v>
+      </c>
+      <c r="H3" s="1">
+        <v>115.621</v>
+      </c>
+      <c r="I3" s="1">
+        <v>49.261000000000003</v>
+      </c>
+      <c r="J3" s="1">
         <v>213505.516</v>
       </c>
-      <c r="K3" s="2">
-        <v>3</v>
-      </c>
-      <c r="L3" s="2">
-        <v>3</v>
-      </c>
-      <c r="M3" s="2">
-        <v>8.3230000000000004</v>
-      </c>
-      <c r="N3" s="2">
-        <v>5.5490000000000004</v>
-      </c>
-      <c r="O3" s="2">
-        <v>1.5409999999999999</v>
+      <c r="K3" s="1">
+        <v>3</v>
+      </c>
+      <c r="L3" s="1">
+        <v>3</v>
+      </c>
+      <c r="M3" s="1">
+        <v>10.037000000000001</v>
+      </c>
+      <c r="N3" s="1">
+        <v>4.5330000000000004</v>
+      </c>
+      <c r="O3" s="1">
+        <v>1.619</v>
       </c>
       <c r="P3" s="1">
         <v>21000</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="2">
-        <v>1995</v>
-      </c>
-      <c r="D4" s="2">
-        <v>2001</v>
-      </c>
-      <c r="E4" s="2">
-        <v>3</v>
-      </c>
-      <c r="F4" s="2">
-        <v>177.626</v>
-      </c>
-      <c r="G4" s="2">
-        <v>98.600999999999999</v>
-      </c>
-      <c r="H4" s="2">
-        <v>104.66800000000001</v>
-      </c>
-      <c r="I4" s="2">
-        <v>50.247</v>
-      </c>
-      <c r="J4" s="2">
+      <c r="C4" s="1">
+        <v>1949</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1957</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1">
+        <v>174.14</v>
+      </c>
+      <c r="G4" s="1">
+        <v>274.81700000000001</v>
+      </c>
+      <c r="H4" s="1">
+        <v>114.45</v>
+      </c>
+      <c r="I4" s="1">
+        <v>49.261000000000003</v>
+      </c>
+      <c r="J4" s="1">
         <v>213505.516</v>
       </c>
-      <c r="K4" s="2">
-        <v>3</v>
-      </c>
-      <c r="L4" s="2">
-        <v>3</v>
-      </c>
-      <c r="M4" s="2">
-        <v>15.365</v>
-      </c>
-      <c r="N4" s="2">
-        <v>5.5869999999999997</v>
-      </c>
-      <c r="O4" s="2">
-        <v>2.3279999999999998</v>
+      <c r="K4" s="1">
+        <v>3</v>
+      </c>
+      <c r="L4" s="1">
+        <v>3</v>
+      </c>
+      <c r="M4" s="1">
+        <v>10.037000000000001</v>
+      </c>
+      <c r="N4" s="1">
+        <v>4.5330000000000004</v>
+      </c>
+      <c r="O4" s="1">
+        <v>1.619</v>
       </c>
       <c r="P4" s="1">
         <v>21000</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="2">
-        <v>2002</v>
-      </c>
-      <c r="D5" s="2">
-        <v>2004</v>
-      </c>
-      <c r="E5" s="2">
-        <v>3</v>
-      </c>
-      <c r="F5" s="2">
-        <v>176.86099999999999</v>
-      </c>
-      <c r="G5" s="2">
-        <v>95.753</v>
-      </c>
-      <c r="H5" s="2">
-        <v>64.212000000000003</v>
-      </c>
-      <c r="I5" s="2">
-        <v>50.030999999999999</v>
-      </c>
-      <c r="J5" s="2">
-        <v>148226.875</v>
-      </c>
-      <c r="K5" s="2">
-        <v>2.6669999999999998</v>
-      </c>
-      <c r="L5" s="2">
-        <v>3</v>
-      </c>
-      <c r="M5" s="2">
-        <v>8.452</v>
-      </c>
-      <c r="N5" s="2">
-        <v>3.6219999999999999</v>
-      </c>
-      <c r="O5" s="2">
-        <v>1.3420000000000001</v>
+      <c r="C5" s="1">
+        <v>1949</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1957</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1">
+        <v>174.14</v>
+      </c>
+      <c r="G5" s="1">
+        <v>273.15499999999997</v>
+      </c>
+      <c r="H5" s="1">
+        <v>114.283</v>
+      </c>
+      <c r="I5" s="1">
+        <v>49.261000000000003</v>
+      </c>
+      <c r="J5" s="1">
+        <v>213505.516</v>
+      </c>
+      <c r="K5" s="1">
+        <v>3</v>
+      </c>
+      <c r="L5" s="1">
+        <v>3</v>
+      </c>
+      <c r="M5" s="1">
+        <v>10.037000000000001</v>
+      </c>
+      <c r="N5" s="1">
+        <v>4.5330000000000004</v>
+      </c>
+      <c r="O5" s="1">
+        <v>1.619</v>
       </c>
       <c r="P5" s="1">
         <v>21000</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="2">
-        <v>2005</v>
-      </c>
-      <c r="D6" s="2">
-        <v>2005</v>
-      </c>
-      <c r="E6" s="2">
-        <v>3</v>
-      </c>
-      <c r="F6" s="2">
-        <v>177.167</v>
-      </c>
-      <c r="G6" s="2">
-        <v>100.527</v>
-      </c>
-      <c r="H6" s="2">
-        <v>61.503999999999998</v>
-      </c>
-      <c r="I6" s="2">
-        <v>55.128999999999998</v>
-      </c>
-      <c r="J6" s="2">
-        <v>148226.875</v>
-      </c>
-      <c r="K6" s="2">
-        <v>2.6669999999999998</v>
-      </c>
-      <c r="L6" s="2">
-        <v>3</v>
-      </c>
-      <c r="M6" s="2">
-        <v>7.9589999999999996</v>
-      </c>
-      <c r="N6" s="2">
-        <v>3.411</v>
-      </c>
-      <c r="O6" s="2">
-        <v>1.2629999999999999</v>
+      <c r="C6" s="1">
+        <v>1949</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1957</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1">
+        <v>174.14</v>
+      </c>
+      <c r="G6" s="1">
+        <v>303.87599999999998</v>
+      </c>
+      <c r="H6" s="1">
+        <v>136.28700000000001</v>
+      </c>
+      <c r="I6" s="1">
+        <v>49.261000000000003</v>
+      </c>
+      <c r="J6" s="1">
+        <v>213505.516</v>
+      </c>
+      <c r="K6" s="1">
+        <v>3</v>
+      </c>
+      <c r="L6" s="1">
+        <v>3</v>
+      </c>
+      <c r="M6" s="1">
+        <v>10.037000000000001</v>
+      </c>
+      <c r="N6" s="1">
+        <v>4.5330000000000004</v>
+      </c>
+      <c r="O6" s="1">
+        <v>1.619</v>
       </c>
       <c r="P6" s="1">
         <v>21000</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>40</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="2">
-        <v>2007</v>
-      </c>
-      <c r="D7" s="2">
-        <v>2007</v>
-      </c>
-      <c r="E7" s="2">
-        <v>3</v>
-      </c>
-      <c r="F7" s="2">
-        <v>169.459</v>
-      </c>
-      <c r="G7" s="2">
-        <v>94.391999999999996</v>
-      </c>
-      <c r="H7" s="2">
-        <v>62.491</v>
-      </c>
-      <c r="I7" s="2">
-        <v>52.73</v>
-      </c>
-      <c r="J7" s="2">
-        <v>148226.875</v>
-      </c>
-      <c r="K7" s="2">
-        <v>2.6669999999999998</v>
-      </c>
-      <c r="L7" s="2">
-        <v>3</v>
-      </c>
-      <c r="M7" s="2">
-        <v>8.2070000000000007</v>
-      </c>
-      <c r="N7" s="2">
-        <v>3.5169999999999999</v>
-      </c>
-      <c r="O7" s="2">
-        <v>1.3029999999999999</v>
-      </c>
-      <c r="P7" s="1">
-        <v>21000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
-        <v>44</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1919</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1948</v>
-      </c>
-      <c r="E8" s="2">
-        <v>3</v>
-      </c>
-      <c r="F8" s="2">
-        <v>166.934</v>
-      </c>
-      <c r="G8" s="2">
-        <v>223.42500000000001</v>
-      </c>
-      <c r="H8" s="2">
-        <v>130.68299999999999</v>
-      </c>
-      <c r="I8" s="2">
-        <v>47.222000000000001</v>
-      </c>
-      <c r="J8" s="2">
-        <v>338121.65600000002</v>
-      </c>
-      <c r="K8" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="L8" s="2">
-        <v>3</v>
-      </c>
-      <c r="M8" s="2">
-        <v>12.082000000000001</v>
-      </c>
-      <c r="N8" s="2">
-        <v>5.7439999999999998</v>
-      </c>
-      <c r="O8" s="2">
-        <v>1.9810000000000001</v>
-      </c>
-      <c r="P8" s="1">
-        <v>21000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
-        <v>45</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1949</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1957</v>
-      </c>
-      <c r="E9" s="2">
-        <v>3</v>
-      </c>
-      <c r="F9" s="2">
-        <v>174.14</v>
-      </c>
-      <c r="G9" s="2">
-        <v>273.15499999999997</v>
-      </c>
-      <c r="H9" s="2">
-        <v>114.283</v>
-      </c>
-      <c r="I9" s="2">
-        <v>49.261000000000003</v>
-      </c>
-      <c r="J9" s="2">
-        <v>213505.516</v>
-      </c>
-      <c r="K9" s="2">
-        <v>3</v>
-      </c>
-      <c r="L9" s="2">
-        <v>3</v>
-      </c>
-      <c r="M9" s="2">
-        <v>10.037000000000001</v>
-      </c>
-      <c r="N9" s="2">
-        <v>4.5330000000000004</v>
-      </c>
-      <c r="O9" s="2">
-        <v>1.619</v>
-      </c>
-      <c r="P9" s="1">
-        <v>21000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
-        <v>46</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1958</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1968</v>
-      </c>
-      <c r="E10" s="2">
-        <v>3</v>
-      </c>
-      <c r="F10" s="2">
-        <v>175.60900000000001</v>
-      </c>
-      <c r="G10" s="2">
-        <v>302.37900000000002</v>
-      </c>
-      <c r="H10" s="2">
-        <v>155.72800000000001</v>
-      </c>
-      <c r="I10" s="2">
-        <v>49.676000000000002</v>
-      </c>
-      <c r="J10" s="2">
-        <v>213505.516</v>
-      </c>
-      <c r="K10" s="2">
-        <v>3</v>
-      </c>
-      <c r="L10" s="2">
-        <v>3</v>
-      </c>
-      <c r="M10" s="2">
-        <v>13.315</v>
-      </c>
-      <c r="N10" s="2">
-        <v>7.7089999999999996</v>
-      </c>
-      <c r="O10" s="2">
-        <v>2.3359999999999999</v>
-      </c>
-      <c r="P10" s="1">
-        <v>21000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
-        <v>47</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1969</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1978</v>
-      </c>
-      <c r="E11" s="2">
-        <v>3</v>
-      </c>
-      <c r="F11" s="2">
-        <v>184.14500000000001</v>
-      </c>
-      <c r="G11" s="2">
-        <v>270.49700000000001</v>
-      </c>
-      <c r="H11" s="2">
-        <v>150.87700000000001</v>
-      </c>
-      <c r="I11" s="2">
-        <v>52.091000000000001</v>
-      </c>
-      <c r="J11" s="2">
-        <v>213505.516</v>
-      </c>
-      <c r="K11" s="2">
-        <v>3</v>
-      </c>
-      <c r="L11" s="2">
-        <v>3</v>
-      </c>
-      <c r="M11" s="2">
-        <v>14.753</v>
-      </c>
-      <c r="N11" s="2">
-        <v>5.9930000000000003</v>
-      </c>
-      <c r="O11" s="2">
-        <v>2.3050000000000002</v>
-      </c>
-      <c r="P11" s="1">
-        <v>21000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
-        <v>49</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1984</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1994</v>
-      </c>
-      <c r="E12" s="2">
-        <v>3</v>
-      </c>
-      <c r="F12" s="2">
-        <v>182.928</v>
-      </c>
-      <c r="G12" s="2">
-        <v>145.40700000000001</v>
-      </c>
-      <c r="H12" s="2">
-        <v>123.01900000000001</v>
-      </c>
-      <c r="I12" s="2">
-        <v>51.747</v>
-      </c>
-      <c r="J12" s="2">
-        <v>213505.516</v>
-      </c>
-      <c r="K12" s="2">
-        <v>3</v>
-      </c>
-      <c r="L12" s="2">
-        <v>3</v>
-      </c>
-      <c r="M12" s="2">
-        <v>13.516999999999999</v>
-      </c>
-      <c r="N12" s="2">
-        <v>8.2070000000000007</v>
-      </c>
-      <c r="O12" s="2">
-        <v>2.4140000000000001</v>
-      </c>
-      <c r="P12" s="1">
-        <v>21000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
-        <v>53</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="2">
-        <v>2006</v>
-      </c>
-      <c r="D13" s="2">
-        <v>2006</v>
-      </c>
-      <c r="E13" s="2">
-        <v>3</v>
-      </c>
-      <c r="F13" s="2">
-        <v>186.50299999999999</v>
-      </c>
-      <c r="G13" s="2">
-        <v>99.061000000000007</v>
-      </c>
-      <c r="H13" s="2">
-        <v>62.307000000000002</v>
-      </c>
-      <c r="I13" s="2">
-        <v>58.033999999999999</v>
-      </c>
-      <c r="J13" s="2">
-        <v>148226.875</v>
-      </c>
-      <c r="K13" s="2">
-        <v>2.6669999999999998</v>
-      </c>
-      <c r="L13" s="2">
-        <v>3</v>
-      </c>
-      <c r="M13" s="2">
-        <v>8.7889999999999997</v>
-      </c>
-      <c r="N13" s="2">
-        <v>3.7669999999999999</v>
-      </c>
-      <c r="O13" s="2">
-        <v>1.395</v>
-      </c>
-      <c r="P13" s="1">
-        <v>21000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
-        <v>55</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="2">
-        <v>2009</v>
-      </c>
-      <c r="D14" s="2">
-        <v>2012</v>
-      </c>
-      <c r="E14" s="2">
-        <v>3</v>
-      </c>
-      <c r="F14" s="2">
-        <v>214.02799999999999</v>
-      </c>
-      <c r="G14" s="2">
-        <v>110.389</v>
-      </c>
-      <c r="H14" s="2">
-        <v>64.798000000000002</v>
-      </c>
-      <c r="I14" s="2">
-        <v>66.599000000000004</v>
-      </c>
-      <c r="J14" s="2">
-        <v>148226.875</v>
-      </c>
-      <c r="K14" s="2">
-        <v>2.6669999999999998</v>
-      </c>
-      <c r="L14" s="2">
-        <v>3</v>
-      </c>
-      <c r="M14" s="2">
-        <v>9.5169999999999995</v>
-      </c>
-      <c r="N14" s="2">
-        <v>4.0789999999999997</v>
-      </c>
-      <c r="O14" s="2">
-        <v>1.5109999999999999</v>
-      </c>
-      <c r="P14" s="1">
-        <v>21000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
-        <v>56</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="2">
-        <v>2009</v>
-      </c>
-      <c r="D15" s="2">
-        <v>2012</v>
-      </c>
-      <c r="E15" s="2">
-        <v>3</v>
-      </c>
-      <c r="F15" s="2">
-        <v>155.95400000000001</v>
-      </c>
-      <c r="G15" s="2">
-        <v>87.111000000000004</v>
-      </c>
-      <c r="H15" s="2">
-        <v>49.99</v>
-      </c>
-      <c r="I15" s="2">
-        <v>48.527999999999999</v>
-      </c>
-      <c r="J15" s="2">
-        <v>148226.875</v>
-      </c>
-      <c r="K15" s="2">
-        <v>2.6669999999999998</v>
-      </c>
-      <c r="L15" s="2">
-        <v>3</v>
-      </c>
-      <c r="M15" s="2">
-        <v>7.86</v>
-      </c>
-      <c r="N15" s="2">
-        <v>3.3679999999999999</v>
-      </c>
-      <c r="O15" s="2">
-        <v>1.248</v>
-      </c>
-      <c r="P15" s="1">
-        <v>21000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
-        <v>77</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="2">
-        <v>2013</v>
-      </c>
-      <c r="D16" s="2">
-        <v>2019</v>
-      </c>
-      <c r="E16" s="2">
-        <v>3</v>
-      </c>
-      <c r="F16" s="2">
-        <v>214.02799999999999</v>
-      </c>
-      <c r="G16" s="2">
-        <v>96.319000000000003</v>
-      </c>
-      <c r="H16" s="2">
-        <v>59.613</v>
-      </c>
-      <c r="I16" s="2">
-        <v>66.599000000000004</v>
-      </c>
-      <c r="J16" s="2">
-        <v>148226.875</v>
-      </c>
-      <c r="K16" s="2">
-        <v>2.6669999999999998</v>
-      </c>
-      <c r="L16" s="2">
-        <v>3</v>
-      </c>
-      <c r="M16" s="2">
-        <v>9.5169999999999995</v>
-      </c>
-      <c r="N16" s="2">
-        <v>4.0789999999999997</v>
-      </c>
-      <c r="O16" s="2">
-        <v>1.5109999999999999</v>
-      </c>
-      <c r="P16" s="1">
-        <v>21000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
-        <v>78</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="2">
-        <v>2013</v>
-      </c>
-      <c r="D17" s="2">
-        <v>2019</v>
-      </c>
-      <c r="E17" s="2">
-        <v>3</v>
-      </c>
-      <c r="F17" s="2">
-        <v>155.95400000000001</v>
-      </c>
-      <c r="G17" s="2">
-        <v>75.715000000000003</v>
-      </c>
-      <c r="H17" s="2">
-        <v>48.85</v>
-      </c>
-      <c r="I17" s="2">
-        <v>48.527999999999999</v>
-      </c>
-      <c r="J17" s="2">
-        <v>148226.875</v>
-      </c>
-      <c r="K17" s="2">
-        <v>2.6669999999999998</v>
-      </c>
-      <c r="L17" s="2">
-        <v>3</v>
-      </c>
-      <c r="M17" s="2">
-        <v>7.86</v>
-      </c>
-      <c r="N17" s="2">
-        <v>3.3679999999999999</v>
-      </c>
-      <c r="O17" s="2">
-        <v>1.248</v>
-      </c>
-      <c r="P17" s="1">
-        <v>21000</v>
-      </c>
-    </row>
+    <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <autoFilter ref="A1:P17" xr:uid="{1B48CFBC-E64D-4A13-BAE3-02D6E7AC7F10}"/>
+  <autoFilter ref="A1:P6" xr:uid="{1B48CFBC-E64D-4A13-BAE3-02D6E7AC7F10}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/input_operation/OperationScenario_Component_Building.xlsx
+++ b/data/input_operation/OperationScenario_Component_Building.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/Flex/data/input_operation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE701FE4-E370-FD42-ABBD-ED00616B0811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85998DD4-A045-DA44-BBC4-71B1DCA3CB88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2120" yWindow="-18060" windowWidth="25880" windowHeight="16660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="OperationScenario_Component_Bui" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">OperationScenario_Component_Bui!$A$1:$P$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">OperationScenario_Component_Bui!$A$1:$P$4</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>ID_Building</t>
   </si>
@@ -915,10 +915,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -980,7 +980,7 @@
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>16</v>
@@ -998,10 +998,10 @@
         <v>174.14</v>
       </c>
       <c r="G2" s="1">
-        <v>303.87599999999998</v>
+        <v>286.52800000000002</v>
       </c>
       <c r="H2" s="1">
-        <v>117.355</v>
+        <v>115.621</v>
       </c>
       <c r="I2" s="1">
         <v>49.261000000000003</v>
@@ -1030,7 +1030,7 @@
     </row>
     <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>16</v>
@@ -1048,10 +1048,10 @@
         <v>174.14</v>
       </c>
       <c r="G3" s="1">
-        <v>286.52800000000002</v>
+        <v>273.15499999999997</v>
       </c>
       <c r="H3" s="1">
-        <v>115.621</v>
+        <v>114.283</v>
       </c>
       <c r="I3" s="1">
         <v>49.261000000000003</v>
@@ -1080,7 +1080,7 @@
     </row>
     <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>16</v>
@@ -1098,10 +1098,10 @@
         <v>174.14</v>
       </c>
       <c r="G4" s="1">
-        <v>274.81700000000001</v>
+        <v>303.87599999999998</v>
       </c>
       <c r="H4" s="1">
-        <v>114.45</v>
+        <v>136.28700000000001</v>
       </c>
       <c r="I4" s="1">
         <v>49.261000000000003</v>
@@ -1128,109 +1128,9 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1949</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1957</v>
-      </c>
-      <c r="E5" s="1">
-        <v>3</v>
-      </c>
-      <c r="F5" s="1">
-        <v>174.14</v>
-      </c>
-      <c r="G5" s="1">
-        <v>273.15499999999997</v>
-      </c>
-      <c r="H5" s="1">
-        <v>114.283</v>
-      </c>
-      <c r="I5" s="1">
-        <v>49.261000000000003</v>
-      </c>
-      <c r="J5" s="1">
-        <v>213505.516</v>
-      </c>
-      <c r="K5" s="1">
-        <v>3</v>
-      </c>
-      <c r="L5" s="1">
-        <v>3</v>
-      </c>
-      <c r="M5" s="1">
-        <v>10.037000000000001</v>
-      </c>
-      <c r="N5" s="1">
-        <v>4.5330000000000004</v>
-      </c>
-      <c r="O5" s="1">
-        <v>1.619</v>
-      </c>
-      <c r="P5" s="1">
-        <v>21000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1949</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1957</v>
-      </c>
-      <c r="E6" s="1">
-        <v>3</v>
-      </c>
-      <c r="F6" s="1">
-        <v>174.14</v>
-      </c>
-      <c r="G6" s="1">
-        <v>303.87599999999998</v>
-      </c>
-      <c r="H6" s="1">
-        <v>136.28700000000001</v>
-      </c>
-      <c r="I6" s="1">
-        <v>49.261000000000003</v>
-      </c>
-      <c r="J6" s="1">
-        <v>213505.516</v>
-      </c>
-      <c r="K6" s="1">
-        <v>3</v>
-      </c>
-      <c r="L6" s="1">
-        <v>3</v>
-      </c>
-      <c r="M6" s="1">
-        <v>10.037000000000001</v>
-      </c>
-      <c r="N6" s="1">
-        <v>4.5330000000000004</v>
-      </c>
-      <c r="O6" s="1">
-        <v>1.619</v>
-      </c>
-      <c r="P6" s="1">
-        <v>21000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <autoFilter ref="A1:P6" xr:uid="{1B48CFBC-E64D-4A13-BAE3-02D6E7AC7F10}"/>
+  <autoFilter ref="A1:P4" xr:uid="{1B48CFBC-E64D-4A13-BAE3-02D6E7AC7F10}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/input_operation/OperationScenario_Component_Building.xlsx
+++ b/data/input_operation/OperationScenario_Component_Building.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/Flex/data/input_operation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85998DD4-A045-DA44-BBC4-71B1DCA3CB88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE701FE4-E370-FD42-ABBD-ED00616B0811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2120" yWindow="-18060" windowWidth="25880" windowHeight="16660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="OperationScenario_Component_Bui" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">OperationScenario_Component_Bui!$A$1:$P$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">OperationScenario_Component_Bui!$A$1:$P$6</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>ID_Building</t>
   </si>
@@ -915,10 +915,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -980,7 +980,7 @@
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>16</v>
@@ -998,10 +998,10 @@
         <v>174.14</v>
       </c>
       <c r="G2" s="1">
-        <v>286.52800000000002</v>
+        <v>303.87599999999998</v>
       </c>
       <c r="H2" s="1">
-        <v>115.621</v>
+        <v>117.355</v>
       </c>
       <c r="I2" s="1">
         <v>49.261000000000003</v>
@@ -1030,7 +1030,7 @@
     </row>
     <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>16</v>
@@ -1048,10 +1048,10 @@
         <v>174.14</v>
       </c>
       <c r="G3" s="1">
-        <v>273.15499999999997</v>
+        <v>286.52800000000002</v>
       </c>
       <c r="H3" s="1">
-        <v>114.283</v>
+        <v>115.621</v>
       </c>
       <c r="I3" s="1">
         <v>49.261000000000003</v>
@@ -1080,7 +1080,7 @@
     </row>
     <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>16</v>
@@ -1098,10 +1098,10 @@
         <v>174.14</v>
       </c>
       <c r="G4" s="1">
-        <v>303.87599999999998</v>
+        <v>274.81700000000001</v>
       </c>
       <c r="H4" s="1">
-        <v>136.28700000000001</v>
+        <v>114.45</v>
       </c>
       <c r="I4" s="1">
         <v>49.261000000000003</v>
@@ -1128,9 +1128,109 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1949</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1957</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1">
+        <v>174.14</v>
+      </c>
+      <c r="G5" s="1">
+        <v>273.15499999999997</v>
+      </c>
+      <c r="H5" s="1">
+        <v>114.283</v>
+      </c>
+      <c r="I5" s="1">
+        <v>49.261000000000003</v>
+      </c>
+      <c r="J5" s="1">
+        <v>213505.516</v>
+      </c>
+      <c r="K5" s="1">
+        <v>3</v>
+      </c>
+      <c r="L5" s="1">
+        <v>3</v>
+      </c>
+      <c r="M5" s="1">
+        <v>10.037000000000001</v>
+      </c>
+      <c r="N5" s="1">
+        <v>4.5330000000000004</v>
+      </c>
+      <c r="O5" s="1">
+        <v>1.619</v>
+      </c>
+      <c r="P5" s="1">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1949</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1957</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1">
+        <v>174.14</v>
+      </c>
+      <c r="G6" s="1">
+        <v>303.87599999999998</v>
+      </c>
+      <c r="H6" s="1">
+        <v>136.28700000000001</v>
+      </c>
+      <c r="I6" s="1">
+        <v>49.261000000000003</v>
+      </c>
+      <c r="J6" s="1">
+        <v>213505.516</v>
+      </c>
+      <c r="K6" s="1">
+        <v>3</v>
+      </c>
+      <c r="L6" s="1">
+        <v>3</v>
+      </c>
+      <c r="M6" s="1">
+        <v>10.037000000000001</v>
+      </c>
+      <c r="N6" s="1">
+        <v>4.5330000000000004</v>
+      </c>
+      <c r="O6" s="1">
+        <v>1.619</v>
+      </c>
+      <c r="P6" s="1">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <autoFilter ref="A1:P4" xr:uid="{1B48CFBC-E64D-4A13-BAE3-02D6E7AC7F10}"/>
+  <autoFilter ref="A1:P6" xr:uid="{1B48CFBC-E64D-4A13-BAE3-02D6E7AC7F10}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/input_operation/OperationScenario_Component_Building.xlsx
+++ b/data/input_operation/OperationScenario_Component_Building.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mascherbauer\PycharmProjects\NewTrends\Prosumager\data\input_operation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/Flex/data/input_operation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE5793DD-17A9-4EC6-A98C-FC9C1C5909AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85998DD4-A045-DA44-BBC4-71B1DCA3CB88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350"/>
+    <workbookView xWindow="2120" yWindow="-18060" windowWidth="25880" windowHeight="16660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OperationScenario_Component_Bui" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">OperationScenario_Component_Bui!$A$1:$P$4</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>ID_Building</t>
   </si>
@@ -71,15 +74,12 @@
   </si>
   <si>
     <t>SFH</t>
-  </si>
-  <si>
-    <t>MFH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -557,52 +557,53 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -618,7 +619,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -913,14 +914,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="13" max="13" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -970,107 +978,159 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C2">
-        <v>2002</v>
-      </c>
-      <c r="D2">
-        <v>2008</v>
-      </c>
-      <c r="E2">
+      <c r="C2" s="1">
+        <v>1949</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1957</v>
+      </c>
+      <c r="E2" s="1">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1">
+        <v>174.14</v>
+      </c>
+      <c r="G2" s="1">
+        <v>286.52800000000002</v>
+      </c>
+      <c r="H2" s="1">
+        <v>115.621</v>
+      </c>
+      <c r="I2" s="1">
+        <v>49.261000000000003</v>
+      </c>
+      <c r="J2" s="1">
+        <v>213505.516</v>
+      </c>
+      <c r="K2" s="1">
+        <v>3</v>
+      </c>
+      <c r="L2" s="1">
+        <v>3</v>
+      </c>
+      <c r="M2" s="1">
+        <v>10.037000000000001</v>
+      </c>
+      <c r="N2" s="1">
+        <v>4.5330000000000004</v>
+      </c>
+      <c r="O2" s="1">
+        <v>1.619</v>
+      </c>
+      <c r="P2" s="1">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <v>4</v>
       </c>
-      <c r="F2">
-        <v>168.32</v>
-      </c>
-      <c r="G2">
-        <v>226.23599999999999</v>
-      </c>
-      <c r="H2">
-        <v>156.036</v>
-      </c>
-      <c r="I2">
-        <v>47.613999999999997</v>
-      </c>
-      <c r="J2">
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1949</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1957</v>
+      </c>
+      <c r="E3" s="1">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1">
+        <v>174.14</v>
+      </c>
+      <c r="G3" s="1">
+        <v>273.15499999999997</v>
+      </c>
+      <c r="H3" s="1">
+        <v>114.283</v>
+      </c>
+      <c r="I3" s="1">
+        <v>49.261000000000003</v>
+      </c>
+      <c r="J3" s="1">
         <v>213505.516</v>
       </c>
-      <c r="K2">
+      <c r="K3" s="1">
         <v>3</v>
       </c>
-      <c r="L2">
+      <c r="L3" s="1">
         <v>3</v>
       </c>
-      <c r="M2">
-        <v>10.483000000000001</v>
-      </c>
-      <c r="N2">
-        <v>4.3680000000000003</v>
-      </c>
-      <c r="O2">
-        <v>2.621</v>
-      </c>
-      <c r="P2">
+      <c r="M3" s="1">
+        <v>10.037000000000001</v>
+      </c>
+      <c r="N3" s="1">
+        <v>4.5330000000000004</v>
+      </c>
+      <c r="O3" s="1">
+        <v>1.619</v>
+      </c>
+      <c r="P3" s="1">
         <v>21000</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3">
-        <v>2002</v>
-      </c>
-      <c r="D3">
-        <v>2008</v>
-      </c>
-      <c r="E3">
-        <v>20</v>
-      </c>
-      <c r="F3">
-        <v>894.928</v>
-      </c>
-      <c r="G3">
-        <v>684.21</v>
-      </c>
-      <c r="H3">
-        <v>462.03500000000003</v>
-      </c>
-      <c r="I3">
-        <v>253.15700000000001</v>
-      </c>
-      <c r="J3">
+    <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1949</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1957</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1">
+        <v>174.14</v>
+      </c>
+      <c r="G4" s="1">
+        <v>303.87599999999998</v>
+      </c>
+      <c r="H4" s="1">
+        <v>136.28700000000001</v>
+      </c>
+      <c r="I4" s="1">
+        <v>49.261000000000003</v>
+      </c>
+      <c r="J4" s="1">
         <v>213505.516</v>
       </c>
-      <c r="K3">
+      <c r="K4" s="1">
         <v>3</v>
       </c>
-      <c r="L3">
+      <c r="L4" s="1">
         <v>3</v>
       </c>
-      <c r="M3">
-        <v>30.928999999999998</v>
-      </c>
-      <c r="N3">
-        <v>12.887</v>
-      </c>
-      <c r="O3">
-        <v>7.7320000000000002</v>
-      </c>
-      <c r="P3">
-        <v>2100000</v>
+      <c r="M4" s="1">
+        <v>10.037000000000001</v>
+      </c>
+      <c r="N4" s="1">
+        <v>4.5330000000000004</v>
+      </c>
+      <c r="O4" s="1">
+        <v>1.619</v>
+      </c>
+      <c r="P4" s="1">
+        <v>21000</v>
       </c>
     </row>
+    <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <autoFilter ref="A1:P4" xr:uid="{1B48CFBC-E64D-4A13-BAE3-02D6E7AC7F10}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/input_operation/OperationScenario_Component_Building.xlsx
+++ b/data/input_operation/OperationScenario_Component_Building.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/Flex/data/input_operation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85998DD4-A045-DA44-BBC4-71B1DCA3CB88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2151E15-2CDE-824A-8B50-9B1519B8135C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2120" yWindow="-18060" windowWidth="25880" windowHeight="16660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -918,7 +918,7 @@
   <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -978,9 +978,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>16</v>
@@ -998,10 +998,10 @@
         <v>174.14</v>
       </c>
       <c r="G2" s="1">
-        <v>286.52800000000002</v>
+        <v>273.15499999999997</v>
       </c>
       <c r="H2" s="1">
-        <v>115.621</v>
+        <v>114.283</v>
       </c>
       <c r="I2" s="1">
         <v>49.261000000000003</v>
@@ -1030,7 +1030,7 @@
     </row>
     <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>16</v>
@@ -1048,10 +1048,10 @@
         <v>174.14</v>
       </c>
       <c r="G3" s="1">
-        <v>273.15499999999997</v>
+        <v>286.52800000000002</v>
       </c>
       <c r="H3" s="1">
-        <v>114.283</v>
+        <v>115.621</v>
       </c>
       <c r="I3" s="1">
         <v>49.261000000000003</v>
@@ -1080,7 +1080,7 @@
     </row>
     <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>16</v>

--- a/data/input_operation/OperationScenario_Component_Building.xlsx
+++ b/data/input_operation/OperationScenario_Component_Building.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mascherbauer\PycharmProjects\NewTrends\Prosumager\data\input_operation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B399C453-D5ED-4EBC-8C86-BAA1DCAB64F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D07AA7E2-EBAA-4B3D-B34F-E63FC3DE0724}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OperationScenario_Component_Bui" sheetId="1" r:id="rId1"/>
@@ -913,13 +913,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:E8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="32.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -969,7 +973,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -990,37 +994,37 @@
         <v>221.63134830000001</v>
       </c>
       <c r="G2">
-        <v>254.9631438247857</v>
+        <v>315.08063095923598</v>
       </c>
       <c r="H2">
-        <v>46.820417700438369</v>
+        <v>46.820285138385813</v>
       </c>
       <c r="I2">
         <v>57.518954565333338</v>
       </c>
       <c r="J2">
-        <v>367866.34275237168</v>
+        <v>3301822.987646373</v>
       </c>
       <c r="K2">
-        <v>2.665698135886752</v>
+        <v>1.535039676655537</v>
       </c>
       <c r="L2">
         <v>4.09</v>
       </c>
       <c r="M2">
-        <v>12.20767531625359</v>
+        <v>7.9827448635263396</v>
       </c>
       <c r="N2">
-        <v>6.6159403693858696</v>
+        <v>3.9913724317631698</v>
       </c>
       <c r="O2">
-        <v>6.5185032509771581</v>
+        <v>3.9913724317631698</v>
       </c>
       <c r="P2">
         <v>21000</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1041,37 +1045,37 @@
         <v>221.63134830000001</v>
       </c>
       <c r="G3">
-        <v>133.87886573742469</v>
+        <v>165.08949134968611</v>
       </c>
       <c r="H3">
-        <v>24.481528607224831</v>
+        <v>24.481459292984571</v>
       </c>
       <c r="I3">
         <v>58.725545181333331</v>
       </c>
       <c r="J3">
-        <v>367866.34275237168</v>
+        <v>1020318.740713089</v>
       </c>
       <c r="K3">
-        <v>2.665698135886752</v>
+        <v>2.1205248132518739</v>
       </c>
       <c r="L3">
         <v>4.09</v>
       </c>
       <c r="M3">
-        <v>12.812474551737489</v>
+        <v>6.891712402163348</v>
       </c>
       <c r="N3">
-        <v>6.9437108558833476</v>
+        <v>3.445856201081674</v>
       </c>
       <c r="O3">
-        <v>6.8414464551956851</v>
+        <v>3.445856201081674</v>
       </c>
       <c r="P3">
         <v>21000</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1092,37 +1096,37 @@
         <v>188.6924209</v>
       </c>
       <c r="G4">
-        <v>56.927703629411752</v>
+        <v>79.628167947411754</v>
       </c>
       <c r="H4">
-        <v>21.10418537697889</v>
+        <v>21.10430366673528</v>
       </c>
       <c r="I4">
         <v>49.14840339733334</v>
       </c>
       <c r="J4">
-        <v>375022.16953272658</v>
+        <v>772431.54974010936</v>
       </c>
       <c r="K4">
-        <v>2.7175519531357</v>
+        <v>2.3307207238846548</v>
       </c>
       <c r="L4">
         <v>4.09</v>
       </c>
       <c r="M4">
-        <v>13.1968810121787</v>
+        <v>6.7524043452837192</v>
       </c>
       <c r="N4">
-        <v>6.768491029998664</v>
+        <v>3.3762021726418601</v>
       </c>
       <c r="O4">
-        <v>6.9498475094373449</v>
+        <v>3.3762021726418601</v>
       </c>
       <c r="P4">
         <v>21000</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1143,37 +1147,37 @@
         <v>221.37638670000001</v>
       </c>
       <c r="G5">
-        <v>395.80034904895592</v>
+        <v>469.30572379273701</v>
       </c>
       <c r="H5">
-        <v>37.768852849836541</v>
+        <v>37.769176061172537</v>
       </c>
       <c r="I5">
         <v>58.15579926800001</v>
       </c>
       <c r="J5">
-        <v>346857.72354845091</v>
+        <v>2410581.2112796581</v>
       </c>
       <c r="K5">
-        <v>2.513461764843846</v>
+        <v>1.773353404882656</v>
       </c>
       <c r="L5">
         <v>4.09</v>
       </c>
       <c r="M5">
-        <v>9.3590813453010995</v>
+        <v>5.9847229219082543</v>
       </c>
       <c r="N5">
-        <v>4.7060855846568694</v>
+        <v>2.9923614609541271</v>
       </c>
       <c r="O5">
-        <v>4.6303943178563047</v>
+        <v>2.9923614609541271</v>
       </c>
       <c r="P5">
         <v>21000</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1194,31 +1198,31 @@
         <v>221.37638670000001</v>
       </c>
       <c r="G6">
-        <v>161.5984281825618</v>
+        <v>191.6333078768775</v>
       </c>
       <c r="H6">
-        <v>21.961324361322241</v>
+        <v>21.96151229790096</v>
       </c>
       <c r="I6">
         <v>58.233763111999998</v>
       </c>
       <c r="J6">
-        <v>346857.72354845091</v>
+        <v>1650933.307061696</v>
       </c>
       <c r="K6">
-        <v>2.513461764843846</v>
+        <v>1.8449969481345549</v>
       </c>
       <c r="L6">
         <v>4.09</v>
       </c>
       <c r="M6">
-        <v>10.10567817180852</v>
+        <v>5.4191897336977091</v>
       </c>
       <c r="N6">
-        <v>5.0815015505135159</v>
+        <v>2.709594866848855</v>
       </c>
       <c r="O6">
-        <v>4.9997722060958587</v>
+        <v>2.709594866848855</v>
       </c>
       <c r="P6">
         <v>21000</v>

--- a/data/input_operation/OperationScenario_Component_Building.xlsx
+++ b/data/input_operation/OperationScenario_Component_Building.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20391"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mascherbauer\PycharmProjects\NewTrends\Prosumager\data\input_operation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D07AA7E2-EBAA-4B3D-B34F-E63FC3DE0724}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC3CD551-A72A-402B-995A-39C8E0B390E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OperationScenario_Component_Bui" sheetId="1" r:id="rId1"/>
@@ -913,17 +913,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="32.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.26953125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -973,7 +975,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1000,13 +1002,13 @@
         <v>46.820285138385813</v>
       </c>
       <c r="I2">
-        <v>57.518954565333338</v>
+        <v>59.742655765333339</v>
       </c>
       <c r="J2">
-        <v>3301822.987646373</v>
+        <v>2198880.057077196</v>
       </c>
       <c r="K2">
-        <v>1.535039676655537</v>
+        <v>4.0623860448150264</v>
       </c>
       <c r="L2">
         <v>4.09</v>
@@ -1024,7 +1026,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1051,13 +1053,13 @@
         <v>24.481459292984571</v>
       </c>
       <c r="I3">
-        <v>58.725545181333331</v>
+        <v>60.949246372000012</v>
       </c>
       <c r="J3">
-        <v>1020318.740713089</v>
+        <v>1647301.3903511949</v>
       </c>
       <c r="K3">
-        <v>2.1205248132518739</v>
+        <v>3.8194442353077571</v>
       </c>
       <c r="L3">
         <v>4.09</v>
@@ -1075,7 +1077,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1102,13 +1104,13 @@
         <v>21.10430366673528</v>
       </c>
       <c r="I4">
-        <v>49.14840339733334</v>
+        <v>51.041617349333343</v>
       </c>
       <c r="J4">
-        <v>772431.54974010936</v>
+        <v>1369607.7493062681</v>
       </c>
       <c r="K4">
-        <v>2.3307207238846548</v>
+        <v>4.2169880423676682</v>
       </c>
       <c r="L4">
         <v>4.09</v>
@@ -1126,7 +1128,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1153,13 +1155,13 @@
         <v>37.769176061172537</v>
       </c>
       <c r="I5">
-        <v>58.15579926800001</v>
+        <v>63.527866257333329</v>
       </c>
       <c r="J5">
-        <v>2410581.2112796581</v>
+        <v>3934822.366038735</v>
       </c>
       <c r="K5">
-        <v>1.773353404882656</v>
+        <v>3.9965733530002998</v>
       </c>
       <c r="L5">
         <v>4.09</v>
@@ -1177,7 +1179,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1204,13 +1206,13 @@
         <v>21.96151229790096</v>
       </c>
       <c r="I6">
-        <v>58.233763111999998</v>
+        <v>63.605830101333339</v>
       </c>
       <c r="J6">
-        <v>1650933.307061696</v>
+        <v>3415853.5604104698</v>
       </c>
       <c r="K6">
-        <v>1.8449969481345549</v>
+        <v>4.1611748771487864</v>
       </c>
       <c r="L6">
         <v>4.09</v>

--- a/data/input_operation/OperationScenario_Component_Building.xlsx
+++ b/data/input_operation/OperationScenario_Component_Building.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20391"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mascherbauer\PycharmProjects\NewTrends\Prosumager\data\input_operation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC3CD551-A72A-402B-995A-39C8E0B390E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38703ED2-E76A-4E06-AA9E-94CDF6DB14BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>ID_Building</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>SFH</t>
+  </si>
+  <si>
+    <t>MFH</t>
   </si>
 </sst>
 </file>
@@ -911,10 +914,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1193,7 +1196,7 @@
         <v>2008</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
+        <f>F6/42.5</f>
         <v>5.2088561576470589</v>
       </c>
       <c r="F6">
@@ -1227,6 +1230,210 @@
         <v>2.709594866848855</v>
       </c>
       <c r="P6">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>2002</v>
+      </c>
+      <c r="D7">
+        <v>2008</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ref="E7:E10" si="1">F7/42.5</f>
+        <v>12.389220717647058</v>
+      </c>
+      <c r="F7">
+        <v>526.54188049999993</v>
+      </c>
+      <c r="G7">
+        <v>545.92182505920346</v>
+      </c>
+      <c r="H7">
+        <v>110.37063172236979</v>
+      </c>
+      <c r="I7">
+        <v>195.04737837333329</v>
+      </c>
+      <c r="J7">
+        <v>1976692.2205915591</v>
+      </c>
+      <c r="K7">
+        <v>3.1881206593694991</v>
+      </c>
+      <c r="L7">
+        <v>4.09</v>
+      </c>
+      <c r="M7">
+        <v>19.985595685714241</v>
+      </c>
+      <c r="N7">
+        <v>9.9927978428571205</v>
+      </c>
+      <c r="O7">
+        <v>9.9927978428571205</v>
+      </c>
+      <c r="P7">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8">
+        <v>2002</v>
+      </c>
+      <c r="D8">
+        <v>2008</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>12.389220717647058</v>
+      </c>
+      <c r="F8">
+        <v>526.54188049999993</v>
+      </c>
+      <c r="G8">
+        <v>311.63072655812732</v>
+      </c>
+      <c r="H8">
+        <v>73.936508821704834</v>
+      </c>
+      <c r="I8">
+        <v>192.79152078666669</v>
+      </c>
+      <c r="J8">
+        <v>1825798.5110075211</v>
+      </c>
+      <c r="K8">
+        <v>3.3021848795015778</v>
+      </c>
+      <c r="L8">
+        <v>4.09</v>
+      </c>
+      <c r="M8">
+        <v>18.174420757741562</v>
+      </c>
+      <c r="N8">
+        <v>9.087210378870779</v>
+      </c>
+      <c r="O8">
+        <v>9.087210378870779</v>
+      </c>
+      <c r="P8">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <v>2002</v>
+      </c>
+      <c r="D9">
+        <v>2008</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>9.1962475294117656</v>
+      </c>
+      <c r="F9">
+        <v>390.84052000000003</v>
+      </c>
+      <c r="G9">
+        <v>715.49033468132347</v>
+      </c>
+      <c r="H9">
+        <v>77.448621722548552</v>
+      </c>
+      <c r="I9">
+        <v>177.82566969333331</v>
+      </c>
+      <c r="J9">
+        <v>3482782.0897382898</v>
+      </c>
+      <c r="K9">
+        <v>3.5556844994939119</v>
+      </c>
+      <c r="L9">
+        <v>4.09</v>
+      </c>
+      <c r="M9">
+        <v>12.228544698146701</v>
+      </c>
+      <c r="N9">
+        <v>6.1142723490733522</v>
+      </c>
+      <c r="O9">
+        <v>6.1142723490733522</v>
+      </c>
+      <c r="P9">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10">
+        <v>2002</v>
+      </c>
+      <c r="D10">
+        <v>2008</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>9.1962475294117656</v>
+      </c>
+      <c r="F10">
+        <v>390.84052000000003</v>
+      </c>
+      <c r="G10">
+        <v>363.4430590073618</v>
+      </c>
+      <c r="H10">
+        <v>50.280800635531001</v>
+      </c>
+      <c r="I10">
+        <v>177.96626804666661</v>
+      </c>
+      <c r="J10">
+        <v>3020247.2967746542</v>
+      </c>
+      <c r="K10">
+        <v>3.6954541563476719</v>
+      </c>
+      <c r="L10">
+        <v>4.09</v>
+      </c>
+      <c r="M10">
+        <v>11.250767088751211</v>
+      </c>
+      <c r="N10">
+        <v>5.6253835443756044</v>
+      </c>
+      <c r="O10">
+        <v>5.6253835443756044</v>
+      </c>
+      <c r="P10">
         <v>21000</v>
       </c>
     </row>

--- a/data/input_operation/OperationScenario_Component_Building.xlsx
+++ b/data/input_operation/OperationScenario_Component_Building.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20393"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/Flex/data/input_operation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mascherbauer\PycharmProjects\NewTrends\Prosumager\data\input_operation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2151E15-2CDE-824A-8B50-9B1519B8135C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF46EF5-58AC-4E79-9AAA-B8E75EC77664}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2120" yWindow="-18060" windowWidth="25880" windowHeight="16660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2115" yWindow="-18060" windowWidth="25875" windowHeight="16665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OperationScenario_Component_Bui" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>ID_Building</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>SFH</t>
+  </si>
+  <si>
+    <t>supply_temperature</t>
   </si>
 </sst>
 </file>
@@ -562,48 +565,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -619,7 +622,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -915,20 +918,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="13" max="13" width="29.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -977,8 +980,11 @@
       <c r="P1" t="s">
         <v>15</v>
       </c>
+      <c r="Q1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1027,8 +1033,11 @@
       <c r="P2" s="1">
         <v>21000</v>
       </c>
+      <c r="Q2" s="1">
+        <v>53</v>
+      </c>
     </row>
-    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1077,8 +1086,11 @@
       <c r="P3" s="1">
         <v>21000</v>
       </c>
+      <c r="Q3" s="1">
+        <v>65</v>
+      </c>
     </row>
-    <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1127,8 +1139,11 @@
       <c r="P4" s="1">
         <v>21000</v>
       </c>
+      <c r="Q4" s="1">
+        <v>35</v>
+      </c>
     </row>
-    <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A1:P4" xr:uid="{1B48CFBC-E64D-4A13-BAE3-02D6E7AC7F10}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/data/input_operation/OperationScenario_Component_Building.xlsx
+++ b/data/input_operation/OperationScenario_Component_Building.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20393"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mascherbauer\PycharmProjects\NewTrends\Prosumager\data\input_operation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/FLEX/data/input_operation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF46EF5-58AC-4E79-9AAA-B8E75EC77664}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2309F49E-2846-6F42-AB12-F8CFEAA353BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2115" yWindow="-18060" windowWidth="25875" windowHeight="16665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2120" yWindow="-18060" windowWidth="25880" windowHeight="16660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OperationScenario_Component_Bui" sheetId="1" r:id="rId1"/>
@@ -560,53 +560,52 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -622,7 +621,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -918,20 +917,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="13" max="13" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -984,166 +983,165 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <v>1949</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2">
         <v>1957</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2">
         <v>3</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2">
         <v>174.14</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2">
         <v>273.15499999999997</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2">
         <v>114.283</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2">
         <v>49.261000000000003</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2">
         <v>213505.516</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2">
         <v>3</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2">
         <v>3</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2">
         <v>10.037000000000001</v>
       </c>
-      <c r="N2" s="1">
+      <c r="N2">
         <v>4.5330000000000004</v>
       </c>
-      <c r="O2" s="1">
+      <c r="O2">
         <v>1.619</v>
       </c>
-      <c r="P2" s="1">
+      <c r="P2">
         <v>21000</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="Q2">
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
         <v>1949</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
         <v>1957</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3">
         <v>3</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3">
         <v>174.14</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3">
         <v>286.52800000000002</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3">
         <v>115.621</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3">
         <v>49.261000000000003</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3">
         <v>213505.516</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3">
         <v>3</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3">
         <v>3</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3">
         <v>10.037000000000001</v>
       </c>
-      <c r="N3" s="1">
+      <c r="N3">
         <v>4.5330000000000004</v>
       </c>
-      <c r="O3" s="1">
+      <c r="O3">
         <v>1.619</v>
       </c>
-      <c r="P3" s="1">
+      <c r="P3">
         <v>21000</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="Q3">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
         <v>1949</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4">
         <v>1957</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4">
         <v>3</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4">
         <v>174.14</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4">
         <v>303.87599999999998</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4">
         <v>136.28700000000001</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4">
         <v>49.261000000000003</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4">
         <v>213505.516</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4">
         <v>3</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4">
         <v>3</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4">
         <v>10.037000000000001</v>
       </c>
-      <c r="N4" s="1">
+      <c r="N4">
         <v>4.5330000000000004</v>
       </c>
-      <c r="O4" s="1">
+      <c r="O4">
         <v>1.619</v>
       </c>
-      <c r="P4" s="1">
+      <c r="P4">
         <v>21000</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="Q4">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A1:P4" xr:uid="{1B48CFBC-E64D-4A13-BAE3-02D6E7AC7F10}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/data/input_operation/OperationScenario_Component_Building.xlsx
+++ b/data/input_operation/OperationScenario_Component_Building.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/Flex/data/input_operation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/FLEX/data/input_operation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2151E15-2CDE-824A-8B50-9B1519B8135C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F609A9D1-3A82-6C42-AFCF-440D5AD4A767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2120" yWindow="-18060" windowWidth="25880" windowHeight="16660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1820" yWindow="-17640" windowWidth="25880" windowHeight="16660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OperationScenario_Component_Bui" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">OperationScenario_Component_Bui!$A$1:$P$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">OperationScenario_Component_Bui!$A$1:$P$2</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -557,9 +557,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -915,10 +914,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -979,158 +978,157 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <v>1949</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2">
         <v>1957</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>174.14</v>
+      </c>
+      <c r="G2">
+        <v>286.52800000000002</v>
+      </c>
+      <c r="H2">
+        <v>115.621</v>
+      </c>
+      <c r="I2">
+        <v>49.261000000000003</v>
+      </c>
+      <c r="J2">
+        <v>213505.516</v>
+      </c>
+      <c r="K2">
         <v>3</v>
       </c>
-      <c r="F2" s="1">
+      <c r="L2">
+        <v>3</v>
+      </c>
+      <c r="M2">
+        <v>10.037000000000001</v>
+      </c>
+      <c r="N2">
+        <v>4.5330000000000004</v>
+      </c>
+      <c r="O2">
+        <v>1.619</v>
+      </c>
+      <c r="P2">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3">
+        <v>1949</v>
+      </c>
+      <c r="D3">
+        <v>1957</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
         <v>174.14</v>
       </c>
-      <c r="G2" s="1">
-        <v>273.15499999999997</v>
-      </c>
-      <c r="H2" s="1">
-        <v>114.283</v>
-      </c>
-      <c r="I2" s="1">
+      <c r="G3">
+        <v>286.52800000000002</v>
+      </c>
+      <c r="H3">
+        <v>115.621</v>
+      </c>
+      <c r="I3">
         <v>49.261000000000003</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J3">
         <v>213505.516</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K3">
         <v>3</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L3">
         <v>3</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M3">
         <v>10.037000000000001</v>
       </c>
-      <c r="N2" s="1">
+      <c r="N3">
         <v>4.5330000000000004</v>
       </c>
-      <c r="O2" s="1">
+      <c r="O3">
         <v>1.619</v>
       </c>
-      <c r="P2" s="1">
+      <c r="P3">
         <v>21000</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C4">
         <v>1949</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D4">
         <v>1957</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>174.14</v>
+      </c>
+      <c r="G4">
+        <v>286.52800000000002</v>
+      </c>
+      <c r="H4">
+        <v>115.621</v>
+      </c>
+      <c r="I4">
+        <v>49.261000000000003</v>
+      </c>
+      <c r="J4">
+        <v>213505.516</v>
+      </c>
+      <c r="K4">
         <v>3</v>
       </c>
-      <c r="F3" s="1">
-        <v>174.14</v>
-      </c>
-      <c r="G3" s="1">
-        <v>286.52800000000002</v>
-      </c>
-      <c r="H3" s="1">
-        <v>115.621</v>
-      </c>
-      <c r="I3" s="1">
-        <v>49.261000000000003</v>
-      </c>
-      <c r="J3" s="1">
-        <v>213505.516</v>
-      </c>
-      <c r="K3" s="1">
+      <c r="L4">
         <v>3</v>
       </c>
-      <c r="L3" s="1">
-        <v>3</v>
-      </c>
-      <c r="M3" s="1">
+      <c r="M4">
         <v>10.037000000000001</v>
       </c>
-      <c r="N3" s="1">
+      <c r="N4">
         <v>4.5330000000000004</v>
       </c>
-      <c r="O3" s="1">
+      <c r="O4">
         <v>1.619</v>
       </c>
-      <c r="P3" s="1">
+      <c r="P4">
         <v>21000</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1949</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1957</v>
-      </c>
-      <c r="E4" s="1">
-        <v>3</v>
-      </c>
-      <c r="F4" s="1">
-        <v>174.14</v>
-      </c>
-      <c r="G4" s="1">
-        <v>303.87599999999998</v>
-      </c>
-      <c r="H4" s="1">
-        <v>136.28700000000001</v>
-      </c>
-      <c r="I4" s="1">
-        <v>49.261000000000003</v>
-      </c>
-      <c r="J4" s="1">
-        <v>213505.516</v>
-      </c>
-      <c r="K4" s="1">
-        <v>3</v>
-      </c>
-      <c r="L4" s="1">
-        <v>3</v>
-      </c>
-      <c r="M4" s="1">
-        <v>10.037000000000001</v>
-      </c>
-      <c r="N4" s="1">
-        <v>4.5330000000000004</v>
-      </c>
-      <c r="O4" s="1">
-        <v>1.619</v>
-      </c>
-      <c r="P4" s="1">
-        <v>21000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <autoFilter ref="A1:P4" xr:uid="{1B48CFBC-E64D-4A13-BAE3-02D6E7AC7F10}"/>
+  <autoFilter ref="A1:P2" xr:uid="{1B48CFBC-E64D-4A13-BAE3-02D6E7AC7F10}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/input_operation/OperationScenario_Component_Building.xlsx
+++ b/data/input_operation/OperationScenario_Component_Building.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/FLEX/data/input_operation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevanskorna/PycharmProjects/FLEX/data/input_operation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F609A9D1-3A82-6C42-AFCF-440D5AD4A767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A0DC68-0746-C04D-BEA8-D96AEEC86525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1820" yWindow="-17640" windowWidth="25880" windowHeight="16660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OperationScenario_Component_Bui" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,25 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">OperationScenario_Component_Bui!$A$1:$P$2</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>ID_Building</t>
   </si>
@@ -74,6 +87,9 @@
   </si>
   <si>
     <t>SFH</t>
+  </si>
+  <si>
+    <t>Scaling factor</t>
   </si>
 </sst>
 </file>
@@ -557,8 +573,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -914,10 +931,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -927,7 +944,7 @@
     <col min="15" max="15" width="26.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -976,8 +993,11 @@
       <c r="P1" t="s">
         <v>15</v>
       </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -994,19 +1014,24 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>174.14</v>
+        <f>174.14*R2</f>
+        <v>66.504065999999995</v>
       </c>
       <c r="G2">
-        <v>286.52800000000002</v>
+        <f>286.528*R2</f>
+        <v>109.42504320000002</v>
       </c>
       <c r="H2">
-        <v>115.621</v>
+        <f>115.621*R2</f>
+        <v>44.155659900000003</v>
       </c>
       <c r="I2">
-        <v>49.261000000000003</v>
+        <f>49.261*R2</f>
+        <v>18.812775900000002</v>
       </c>
       <c r="J2">
-        <v>213505.516</v>
+        <f>213505.516*R2</f>
+        <v>81537.756560400012</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -1015,19 +1040,25 @@
         <v>3</v>
       </c>
       <c r="M2">
-        <v>10.037000000000001</v>
+        <f>10.037*R2</f>
+        <v>3.8331303000000005</v>
       </c>
       <c r="N2">
-        <v>4.5330000000000004</v>
+        <f>4.533*R2</f>
+        <v>1.7311527000000002</v>
       </c>
       <c r="O2">
-        <v>1.619</v>
+        <f>1.619*R2</f>
+        <v>0.61829610000000002</v>
       </c>
       <c r="P2">
         <v>21000</v>
       </c>
+      <c r="R2" s="1">
+        <v>0.38190000000000002</v>
+      </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1044,19 +1075,24 @@
         <v>2</v>
       </c>
       <c r="F3">
-        <v>174.14</v>
+        <f>174.14*R3</f>
+        <v>102.30725</v>
       </c>
       <c r="G3">
-        <v>286.52800000000002</v>
+        <f>286.528*R3</f>
+        <v>168.33520000000001</v>
       </c>
       <c r="H3">
-        <v>115.621</v>
+        <f>115.621*R3</f>
+        <v>67.927337499999993</v>
       </c>
       <c r="I3">
-        <v>49.261000000000003</v>
+        <f>49.261*R3</f>
+        <v>28.940837500000004</v>
       </c>
       <c r="J3">
-        <v>213505.516</v>
+        <f>213505.516*R3</f>
+        <v>125434.49065000001</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -1065,19 +1101,25 @@
         <v>3</v>
       </c>
       <c r="M3">
-        <v>10.037000000000001</v>
+        <f>10.037*R3</f>
+        <v>5.8967375000000004</v>
       </c>
       <c r="N3">
-        <v>4.5330000000000004</v>
+        <f>4.533*R3</f>
+        <v>2.6631375000000004</v>
       </c>
       <c r="O3">
-        <v>1.619</v>
+        <f>1.619*R3</f>
+        <v>0.95116250000000002</v>
       </c>
       <c r="P3">
         <v>21000</v>
       </c>
+      <c r="R3" s="1">
+        <v>0.58750000000000002</v>
+      </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1094,19 +1136,24 @@
         <v>4</v>
       </c>
       <c r="F4">
-        <v>174.14</v>
+        <f>174.14*R4</f>
+        <v>132.90364799999998</v>
       </c>
       <c r="G4">
-        <v>286.52800000000002</v>
+        <f>286.528*R4</f>
+        <v>218.67816960000002</v>
       </c>
       <c r="H4">
-        <v>115.621</v>
+        <f>115.621*R4</f>
+        <v>88.241947199999998</v>
       </c>
       <c r="I4">
-        <v>49.261000000000003</v>
+        <f>49.261*R4</f>
+        <v>37.595995200000004</v>
       </c>
       <c r="J4">
-        <v>213505.516</v>
+        <f>213505.516*R4</f>
+        <v>162947.40981119999</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -1115,16 +1162,22 @@
         <v>3</v>
       </c>
       <c r="M4">
-        <v>10.037000000000001</v>
+        <f>10.037*R4</f>
+        <v>7.6602384000000008</v>
       </c>
       <c r="N4">
-        <v>4.5330000000000004</v>
+        <f>4.533*R4</f>
+        <v>3.4595856</v>
       </c>
       <c r="O4">
-        <v>1.619</v>
+        <f>1.619*R4</f>
+        <v>1.2356208</v>
       </c>
       <c r="P4">
         <v>21000</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0.76319999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/data/input_operation/OperationScenario_Component_Building.xlsx
+++ b/data/input_operation/OperationScenario_Component_Building.xlsx
@@ -1,29 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20393"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mascherbauer\PycharmProjects\NewTrends\Prosumager\data\input_operation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/FLEX/data/input_operation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF46EF5-58AC-4E79-9AAA-B8E75EC77664}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5169384B-F019-884C-A094-8D0E45315C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2115" yWindow="-18060" windowWidth="25875" windowHeight="16665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2000" yWindow="-20460" windowWidth="30300" windowHeight="19780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OperationScenario_Component_Bui" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">OperationScenario_Component_Bui!$A$1:$P$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">OperationScenario_Component_Bui!$A$1:$P$22</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="41">
   <si>
     <t>ID_Building</t>
   </si>
@@ -77,6 +78,75 @@
   </si>
   <si>
     <t>supply_temperature</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>average_effective_area_wind_west_east_red_cool</t>
+  </si>
+  <si>
+    <t>average_effective_area_wind_south_red_cool</t>
+  </si>
+  <si>
+    <t>average_effective_area_wind_north_red_cool</t>
+  </si>
+  <si>
+    <t>spec_int_gains_cool_watt</t>
+  </si>
+  <si>
+    <t>hwb_norm</t>
+  </si>
+  <si>
+    <t>EFH_fdwk_bis 1918</t>
+  </si>
+  <si>
+    <t>EFH_fdwk_1919 - 1948</t>
+  </si>
+  <si>
+    <t>EFH_fdwk_1949 - 1957</t>
+  </si>
+  <si>
+    <t>EFH_fdwk_1958 - 1968</t>
+  </si>
+  <si>
+    <t>EFH_fdwk_1969 - 1978</t>
+  </si>
+  <si>
+    <t>EFH_dfwk_1979 - 1983</t>
+  </si>
+  <si>
+    <t>EFH_dfwk_1984 - 1994</t>
+  </si>
+  <si>
+    <t>EFH_dwkf_ab 2009</t>
+  </si>
+  <si>
+    <t>EFH_oooo_bis 1918</t>
+  </si>
+  <si>
+    <t>EFH_oooo_1919 - 1948</t>
+  </si>
+  <si>
+    <t>EFH_oooo_1949 - 1957</t>
+  </si>
+  <si>
+    <t>EFH_oooo_1958 - 1968</t>
+  </si>
+  <si>
+    <t>EFH_oooo_1969 - 1978</t>
+  </si>
+  <si>
+    <t>EFH_oooo_1979 - 1983</t>
+  </si>
+  <si>
+    <t>EFH_oooo_1984 - 1994</t>
+  </si>
+  <si>
+    <t>EFH_oooo_ab 2009</t>
+  </si>
+  <si>
+    <t>SFHdh_EFH_2009_2013</t>
   </si>
 </sst>
 </file>
@@ -219,7 +289,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -399,8 +469,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -515,6 +591,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -560,55 +649,382 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -621,8 +1037,31 @@
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F0CFB50E-BE35-904F-AD06-D2A214F40AFE}" name="Table1" displayName="Table1" ref="A1:N19" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="16" tableBorderDxfId="17">
+  <autoFilter ref="A1:N19" xr:uid="{F0CFB50E-BE35-904F-AD06-D2A214F40AFE}"/>
+  <tableColumns count="14">
+    <tableColumn id="1" xr3:uid="{B2D300F9-B2A5-EE4D-AB37-35092C5FF885}" name="name" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{6352F6EA-0AED-E145-A758-0EC4454968AE}" name="construction_period_start" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{00BD2ABF-54AC-C74F-B083-40A92FD7B294}" name="construction_period_end" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{85D2A3FD-1ACE-0848-949F-66D5E1AD55C5}" name="Af" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{69A4C593-3768-D74C-9C31-F4D03791EFF8}" name="Hop" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{BC787727-BD12-0E4C-8A86-B2F3109532AD}" name="Htr_w" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{0DA70D1A-1F42-7347-ACCF-4F940701EE71}" name="Hve" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{6B62E6A4-07C2-F74B-AE11-A5673E527359}" name="CM_factor" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{8CF7049D-8B8A-6C47-B055-BAF2F5CF802B}" name="Am_factor" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{6426DD4E-91A5-AE49-8A24-8236CC5604C5}" name="average_effective_area_wind_west_east_red_cool" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{3F56BDB9-3DE7-594B-8E5D-7EA1B6D9DCD3}" name="average_effective_area_wind_south_red_cool" dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{921362E0-AD3C-3E40-AE48-295FF5C9D59C}" name="average_effective_area_wind_north_red_cool" dataDxfId="4"/>
+    <tableColumn id="13" xr3:uid="{AB307285-0D42-8445-834F-0DEC744593DF}" name="spec_int_gains_cool_watt" dataDxfId="3"/>
+    <tableColumn id="14" xr3:uid="{BF54F1BA-0985-9C49-949B-6AAB097E26CC}" name="hwb_norm" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -918,20 +1357,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="13" max="13" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -984,168 +1429,5644 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2">
+        <v>1880</v>
+      </c>
+      <c r="D2">
+        <v>1918</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>183.79400000000001</v>
+      </c>
+      <c r="G2">
+        <v>249.86</v>
+      </c>
+      <c r="H2">
+        <v>99.962000000000003</v>
+      </c>
+      <c r="I2">
+        <v>51.991999999999997</v>
+      </c>
+      <c r="J2">
+        <v>398415.375</v>
+      </c>
+      <c r="K2">
+        <v>3.5</v>
+      </c>
+      <c r="L2">
+        <v>3</v>
+      </c>
+      <c r="M2">
+        <v>7.4429999999999996</v>
+      </c>
+      <c r="N2">
+        <v>4.8940000000000001</v>
+      </c>
+      <c r="O2">
+        <v>1.371</v>
+      </c>
+      <c r="P2">
+        <v>21000</v>
+      </c>
+      <c r="Q2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3">
+        <v>1880</v>
+      </c>
+      <c r="D3">
+        <v>1918</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>183.79400000000001</v>
+      </c>
+      <c r="G3">
+        <v>455.14600000000002</v>
+      </c>
+      <c r="H3">
+        <v>167.626</v>
+      </c>
+      <c r="I3">
+        <v>51.991999999999997</v>
+      </c>
+      <c r="J3">
+        <v>398415.375</v>
+      </c>
+      <c r="K3">
+        <v>3.5</v>
+      </c>
+      <c r="L3">
+        <v>3</v>
+      </c>
+      <c r="M3">
+        <v>7.4429999999999996</v>
+      </c>
+      <c r="N3">
+        <v>4.8940000000000001</v>
+      </c>
+      <c r="O3">
+        <v>1.371</v>
+      </c>
+      <c r="P3">
+        <v>21000</v>
+      </c>
+      <c r="Q3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>1919</v>
+      </c>
+      <c r="D4">
+        <v>1948</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>166.934</v>
+      </c>
+      <c r="G4">
+        <v>223.42500000000001</v>
+      </c>
+      <c r="H4">
+        <v>130.68299999999999</v>
+      </c>
+      <c r="I4">
+        <v>47.222000000000001</v>
+      </c>
+      <c r="J4">
+        <v>338121.65600000002</v>
+      </c>
+      <c r="K4">
+        <v>3.5</v>
+      </c>
+      <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="M4">
+        <v>12.082000000000001</v>
+      </c>
+      <c r="N4">
+        <v>5.7439999999999998</v>
+      </c>
+      <c r="O4">
+        <v>1.9810000000000001</v>
+      </c>
+      <c r="P4">
+        <v>21000</v>
+      </c>
+      <c r="Q4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>1919</v>
+      </c>
+      <c r="D5">
+        <v>1948</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>166.934</v>
+      </c>
+      <c r="G5">
+        <v>400.93200000000002</v>
+      </c>
+      <c r="H5">
+        <v>169.65799999999999</v>
+      </c>
+      <c r="I5">
+        <v>47.222000000000001</v>
+      </c>
+      <c r="J5">
+        <v>338121.65600000002</v>
+      </c>
+      <c r="K5">
+        <v>3.5</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5">
+        <v>12.082000000000001</v>
+      </c>
+      <c r="N5">
+        <v>5.7439999999999998</v>
+      </c>
+      <c r="O5">
+        <v>1.9810000000000001</v>
+      </c>
+      <c r="P5">
+        <v>21000</v>
+      </c>
+      <c r="Q5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6">
         <v>1949</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D6">
         <v>1957</v>
       </c>
-      <c r="E2" s="1">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1">
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
         <v>174.14</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G6">
         <v>273.15499999999997</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H6">
         <v>114.283</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I6">
         <v>49.261000000000003</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J6">
         <v>213505.516</v>
       </c>
-      <c r="K2" s="1">
-        <v>3</v>
-      </c>
-      <c r="L2" s="1">
-        <v>3</v>
-      </c>
-      <c r="M2" s="1">
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>3</v>
+      </c>
+      <c r="M6">
         <v>10.037000000000001</v>
       </c>
-      <c r="N2" s="1">
+      <c r="N6">
         <v>4.5330000000000004</v>
       </c>
-      <c r="O2" s="1">
+      <c r="O6">
         <v>1.619</v>
       </c>
-      <c r="P2" s="1">
-        <v>21000</v>
-      </c>
-      <c r="Q2" s="1">
+      <c r="P6">
+        <v>21000</v>
+      </c>
+      <c r="Q6">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>1949</v>
+      </c>
+      <c r="D7">
+        <v>1957</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>174.14</v>
+      </c>
+      <c r="G7">
+        <v>303.87599999999998</v>
+      </c>
+      <c r="H7">
+        <v>136.28700000000001</v>
+      </c>
+      <c r="I7">
+        <v>49.261000000000003</v>
+      </c>
+      <c r="J7">
+        <v>213505.516</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>3</v>
+      </c>
+      <c r="M7">
+        <v>10.037000000000001</v>
+      </c>
+      <c r="N7">
+        <v>4.5330000000000004</v>
+      </c>
+      <c r="O7">
+        <v>1.619</v>
+      </c>
+      <c r="P7">
+        <v>21000</v>
+      </c>
+      <c r="Q7">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <v>1958</v>
+      </c>
+      <c r="D8">
+        <v>1968</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>175.60900000000001</v>
+      </c>
+      <c r="G8">
+        <v>302.37900000000002</v>
+      </c>
+      <c r="H8">
+        <v>155.72800000000001</v>
+      </c>
+      <c r="I8">
+        <v>49.676000000000002</v>
+      </c>
+      <c r="J8">
+        <v>213505.516</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>3</v>
+      </c>
+      <c r="M8">
+        <v>13.315</v>
+      </c>
+      <c r="N8">
+        <v>7.7089999999999996</v>
+      </c>
+      <c r="O8">
+        <v>2.3359999999999999</v>
+      </c>
+      <c r="P8">
+        <v>21000</v>
+      </c>
+      <c r="Q8">
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9">
+        <v>1958</v>
+      </c>
+      <c r="D9">
+        <v>1968</v>
+      </c>
+      <c r="E9">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="F9">
+        <v>175.60900000000001</v>
+      </c>
+      <c r="G9">
+        <v>343.971</v>
+      </c>
+      <c r="H9">
+        <v>206.82499999999999</v>
+      </c>
+      <c r="I9">
+        <v>49.676000000000002</v>
+      </c>
+      <c r="J9">
+        <v>213505.516</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>3</v>
+      </c>
+      <c r="M9">
+        <v>13.315</v>
+      </c>
+      <c r="N9">
+        <v>7.7089999999999996</v>
+      </c>
+      <c r="O9">
+        <v>2.3359999999999999</v>
+      </c>
+      <c r="P9">
+        <v>21000</v>
+      </c>
+      <c r="Q9">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <v>1969</v>
+      </c>
+      <c r="D10">
+        <v>1978</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>184.14500000000001</v>
+      </c>
+      <c r="G10">
+        <v>270.49700000000001</v>
+      </c>
+      <c r="H10">
+        <v>150.87700000000001</v>
+      </c>
+      <c r="I10">
+        <v>52.091000000000001</v>
+      </c>
+      <c r="J10">
+        <v>213505.516</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>3</v>
+      </c>
+      <c r="M10">
+        <v>14.753</v>
+      </c>
+      <c r="N10">
+        <v>5.9930000000000003</v>
+      </c>
+      <c r="O10">
+        <v>2.3050000000000002</v>
+      </c>
+      <c r="P10">
+        <v>21000</v>
+      </c>
+      <c r="Q10">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <v>1969</v>
+      </c>
+      <c r="D11">
+        <v>1978</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>184.14500000000001</v>
+      </c>
+      <c r="G11">
+        <v>301.07</v>
+      </c>
+      <c r="H11">
+        <v>180.88900000000001</v>
+      </c>
+      <c r="I11">
+        <v>52.091000000000001</v>
+      </c>
+      <c r="J11">
+        <v>213505.516</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>3</v>
+      </c>
+      <c r="M11">
+        <v>14.753</v>
+      </c>
+      <c r="N11">
+        <v>5.9930000000000003</v>
+      </c>
+      <c r="O11">
+        <v>2.3050000000000002</v>
+      </c>
+      <c r="P11">
+        <v>21000</v>
+      </c>
+      <c r="Q11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12">
+        <v>1979</v>
+      </c>
+      <c r="D12">
+        <v>1983</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>185.137</v>
+      </c>
+      <c r="G12">
+        <v>207.054</v>
+      </c>
+      <c r="H12">
+        <v>89.974999999999994</v>
+      </c>
+      <c r="I12">
+        <v>52.371000000000002</v>
+      </c>
+      <c r="J12">
+        <v>213505.516</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>3</v>
+      </c>
+      <c r="M12">
+        <v>8.3230000000000004</v>
+      </c>
+      <c r="N12">
+        <v>5.5490000000000004</v>
+      </c>
+      <c r="O12">
+        <v>1.5409999999999999</v>
+      </c>
+      <c r="P12">
+        <v>21000</v>
+      </c>
+      <c r="Q12">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13">
+        <v>1979</v>
+      </c>
+      <c r="D13">
+        <v>1983</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>185.137</v>
+      </c>
+      <c r="G13">
+        <v>234.797</v>
+      </c>
+      <c r="H13">
+        <v>160.78899999999999</v>
+      </c>
+      <c r="I13">
+        <v>52.371000000000002</v>
+      </c>
+      <c r="J13">
+        <v>213505.516</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>3</v>
+      </c>
+      <c r="M13">
+        <v>8.3230000000000004</v>
+      </c>
+      <c r="N13">
+        <v>5.5490000000000004</v>
+      </c>
+      <c r="O13">
+        <v>1.5409999999999999</v>
+      </c>
+      <c r="P13">
+        <v>21000</v>
+      </c>
+      <c r="Q13">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14">
+        <v>1984</v>
+      </c>
+      <c r="D14">
+        <v>1994</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>182.928</v>
+      </c>
+      <c r="G14">
+        <v>145.40700000000001</v>
+      </c>
+      <c r="H14">
+        <v>123.01900000000001</v>
+      </c>
+      <c r="I14">
+        <v>51.747</v>
+      </c>
+      <c r="J14">
+        <v>213505.516</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>3</v>
+      </c>
+      <c r="M14">
+        <v>13.516999999999999</v>
+      </c>
+      <c r="N14">
+        <v>8.2070000000000007</v>
+      </c>
+      <c r="O14">
+        <v>2.4140000000000001</v>
+      </c>
+      <c r="P14">
+        <v>21000</v>
+      </c>
+      <c r="Q14">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15">
+        <v>1984</v>
+      </c>
+      <c r="D15">
+        <v>1994</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>182.928</v>
+      </c>
+      <c r="G15">
+        <v>160.48099999999999</v>
+      </c>
+      <c r="H15">
+        <v>173.941</v>
+      </c>
+      <c r="I15">
+        <v>51.747</v>
+      </c>
+      <c r="J15">
+        <v>213505.516</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>3</v>
+      </c>
+      <c r="M15">
+        <v>13.516999999999999</v>
+      </c>
+      <c r="N15">
+        <v>8.2070000000000007</v>
+      </c>
+      <c r="O15">
+        <v>2.4140000000000001</v>
+      </c>
+      <c r="P15">
+        <v>21000</v>
+      </c>
+      <c r="Q15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>1995</v>
+      </c>
+      <c r="D16">
+        <v>2012</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>155.95400000000001</v>
+      </c>
+      <c r="G16">
+        <v>87.111000000000004</v>
+      </c>
+      <c r="H16">
+        <v>49.99</v>
+      </c>
+      <c r="I16">
+        <v>48.527999999999999</v>
+      </c>
+      <c r="J16">
+        <v>148226.875</v>
+      </c>
+      <c r="K16">
+        <v>2.6669999999999998</v>
+      </c>
+      <c r="L16">
+        <v>3</v>
+      </c>
+      <c r="M16">
+        <v>7.86</v>
+      </c>
+      <c r="N16">
+        <v>3.3679999999999999</v>
+      </c>
+      <c r="O16">
+        <v>1.248</v>
+      </c>
+      <c r="P16">
+        <v>21000</v>
+      </c>
+      <c r="Q16">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>1995</v>
+      </c>
+      <c r="D17">
+        <v>2012</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>155.95400000000001</v>
+      </c>
+      <c r="G17">
+        <v>95.355000000000004</v>
+      </c>
+      <c r="H17">
+        <v>60.34</v>
+      </c>
+      <c r="I17">
+        <v>48.527999999999999</v>
+      </c>
+      <c r="J17">
+        <v>148226.875</v>
+      </c>
+      <c r="K17">
+        <v>2.6669999999999998</v>
+      </c>
+      <c r="L17">
+        <v>3</v>
+      </c>
+      <c r="M17">
+        <v>7.86</v>
+      </c>
+      <c r="N17">
+        <v>3.3679999999999999</v>
+      </c>
+      <c r="O17">
+        <v>1.248</v>
+      </c>
+      <c r="P17">
+        <v>21000</v>
+      </c>
+      <c r="Q17">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>2012</v>
+      </c>
+      <c r="D18">
+        <v>2022</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>155.95400000000001</v>
+      </c>
+      <c r="G18">
+        <v>75.715000000000003</v>
+      </c>
+      <c r="H18">
+        <v>48.85</v>
+      </c>
+      <c r="I18">
+        <v>48.527999999999999</v>
+      </c>
+      <c r="J18">
+        <v>148226.875</v>
+      </c>
+      <c r="K18">
+        <v>2.6669999999999998</v>
+      </c>
+      <c r="L18">
+        <v>3</v>
+      </c>
+      <c r="M18">
+        <v>7.86</v>
+      </c>
+      <c r="N18">
+        <v>3.3679999999999999</v>
+      </c>
+      <c r="O18">
+        <v>1.248</v>
+      </c>
+      <c r="P18">
+        <v>21000</v>
+      </c>
+      <c r="Q18">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19">
+        <v>2012</v>
+      </c>
+      <c r="D19">
+        <v>2022</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>155.95400000000001</v>
+      </c>
+      <c r="G19">
+        <v>75.715000000000003</v>
+      </c>
+      <c r="H19">
+        <v>48.85</v>
+      </c>
+      <c r="I19">
+        <v>48.527999999999999</v>
+      </c>
+      <c r="J19">
+        <v>148226.875</v>
+      </c>
+      <c r="K19">
+        <v>2.6669999999999998</v>
+      </c>
+      <c r="L19">
+        <v>3</v>
+      </c>
+      <c r="M19">
+        <v>7.86</v>
+      </c>
+      <c r="N19">
+        <v>3.3679999999999999</v>
+      </c>
+      <c r="O19">
+        <v>1.248</v>
+      </c>
+      <c r="P19">
+        <v>21000</v>
+      </c>
+      <c r="Q19">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20">
+        <v>1880</v>
+      </c>
+      <c r="D20">
+        <v>1918</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>183.79400000000001</v>
+      </c>
+      <c r="G20">
+        <v>249.86</v>
+      </c>
+      <c r="H20">
+        <v>99.962000000000003</v>
+      </c>
+      <c r="I20">
+        <v>51.991999999999997</v>
+      </c>
+      <c r="J20">
+        <v>398415.375</v>
+      </c>
+      <c r="K20">
+        <v>3.5</v>
+      </c>
+      <c r="L20">
+        <v>3</v>
+      </c>
+      <c r="M20">
+        <v>7.4429999999999996</v>
+      </c>
+      <c r="N20">
+        <v>4.8940000000000001</v>
+      </c>
+      <c r="O20">
+        <v>1.371</v>
+      </c>
+      <c r="P20">
+        <v>21000</v>
+      </c>
+      <c r="Q20">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21">
+        <v>1880</v>
+      </c>
+      <c r="D21">
+        <v>1918</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>183.79400000000001</v>
+      </c>
+      <c r="G21">
+        <v>455.14600000000002</v>
+      </c>
+      <c r="H21">
+        <v>167.626</v>
+      </c>
+      <c r="I21">
+        <v>51.991999999999997</v>
+      </c>
+      <c r="J21">
+        <v>398415.375</v>
+      </c>
+      <c r="K21">
+        <v>3.5</v>
+      </c>
+      <c r="L21">
+        <v>3</v>
+      </c>
+      <c r="M21">
+        <v>7.4429999999999996</v>
+      </c>
+      <c r="N21">
+        <v>4.8940000000000001</v>
+      </c>
+      <c r="O21">
+        <v>1.371</v>
+      </c>
+      <c r="P21">
+        <v>21000</v>
+      </c>
+      <c r="Q21">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22">
+        <v>1919</v>
+      </c>
+      <c r="D22">
+        <v>1948</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>166.934</v>
+      </c>
+      <c r="G22">
+        <v>223.42500000000001</v>
+      </c>
+      <c r="H22">
+        <v>130.68299999999999</v>
+      </c>
+      <c r="I22">
+        <v>47.222000000000001</v>
+      </c>
+      <c r="J22">
+        <v>338121.65600000002</v>
+      </c>
+      <c r="K22">
+        <v>3.5</v>
+      </c>
+      <c r="L22">
+        <v>3</v>
+      </c>
+      <c r="M22">
+        <v>12.082000000000001</v>
+      </c>
+      <c r="N22">
+        <v>5.7439999999999998</v>
+      </c>
+      <c r="O22">
+        <v>1.9810000000000001</v>
+      </c>
+      <c r="P22">
+        <v>21000</v>
+      </c>
+      <c r="Q22">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23">
+        <v>1919</v>
+      </c>
+      <c r="D23">
+        <v>1948</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>166.934</v>
+      </c>
+      <c r="G23">
+        <v>400.93200000000002</v>
+      </c>
+      <c r="H23">
+        <v>169.65799999999999</v>
+      </c>
+      <c r="I23">
+        <v>47.222000000000001</v>
+      </c>
+      <c r="J23">
+        <v>338121.65600000002</v>
+      </c>
+      <c r="K23">
+        <v>3.5</v>
+      </c>
+      <c r="L23">
+        <v>3</v>
+      </c>
+      <c r="M23">
+        <v>12.082000000000001</v>
+      </c>
+      <c r="N23">
+        <v>5.7439999999999998</v>
+      </c>
+      <c r="O23">
+        <v>1.9810000000000001</v>
+      </c>
+      <c r="P23">
+        <v>21000</v>
+      </c>
+      <c r="Q23">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24">
         <v>1949</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D24">
         <v>1957</v>
       </c>
-      <c r="E3" s="1">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1">
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
         <v>174.14</v>
       </c>
-      <c r="G3" s="1">
-        <v>286.52800000000002</v>
-      </c>
-      <c r="H3" s="1">
-        <v>115.621</v>
-      </c>
-      <c r="I3" s="1">
+      <c r="G24">
+        <v>273.15499999999997</v>
+      </c>
+      <c r="H24">
+        <v>114.283</v>
+      </c>
+      <c r="I24">
         <v>49.261000000000003</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J24">
         <v>213505.516</v>
       </c>
-      <c r="K3" s="1">
-        <v>3</v>
-      </c>
-      <c r="L3" s="1">
-        <v>3</v>
-      </c>
-      <c r="M3" s="1">
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>3</v>
+      </c>
+      <c r="M24">
         <v>10.037000000000001</v>
       </c>
-      <c r="N3" s="1">
+      <c r="N24">
         <v>4.5330000000000004</v>
       </c>
-      <c r="O3" s="1">
+      <c r="O24">
         <v>1.619</v>
       </c>
-      <c r="P3" s="1">
-        <v>21000</v>
-      </c>
-      <c r="Q3" s="1">
+      <c r="P24">
+        <v>21000</v>
+      </c>
+      <c r="Q24">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="1">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25">
         <v>1949</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D25">
         <v>1957</v>
       </c>
-      <c r="E4" s="1">
-        <v>3</v>
-      </c>
-      <c r="F4" s="1">
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
         <v>174.14</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G25">
         <v>303.87599999999998</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H25">
         <v>136.28700000000001</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I25">
         <v>49.261000000000003</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J25">
         <v>213505.516</v>
       </c>
-      <c r="K4" s="1">
-        <v>3</v>
-      </c>
-      <c r="L4" s="1">
-        <v>3</v>
-      </c>
-      <c r="M4" s="1">
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>3</v>
+      </c>
+      <c r="M25">
         <v>10.037000000000001</v>
       </c>
-      <c r="N4" s="1">
+      <c r="N25">
         <v>4.5330000000000004</v>
       </c>
-      <c r="O4" s="1">
+      <c r="O25">
         <v>1.619</v>
       </c>
-      <c r="P4" s="1">
-        <v>21000</v>
-      </c>
-      <c r="Q4" s="1">
+      <c r="P25">
+        <v>21000</v>
+      </c>
+      <c r="Q25">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26">
+        <v>1958</v>
+      </c>
+      <c r="D26">
+        <v>1968</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>175.60900000000001</v>
+      </c>
+      <c r="G26">
+        <v>302.37900000000002</v>
+      </c>
+      <c r="H26">
+        <v>155.72800000000001</v>
+      </c>
+      <c r="I26">
+        <v>49.676000000000002</v>
+      </c>
+      <c r="J26">
+        <v>213505.516</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>3</v>
+      </c>
+      <c r="M26">
+        <v>13.315</v>
+      </c>
+      <c r="N26">
+        <v>7.7089999999999996</v>
+      </c>
+      <c r="O26">
+        <v>2.3359999999999999</v>
+      </c>
+      <c r="P26">
+        <v>21000</v>
+      </c>
+      <c r="Q26">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27">
+        <v>1958</v>
+      </c>
+      <c r="D27">
+        <v>1968</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>175.60900000000001</v>
+      </c>
+      <c r="G27">
+        <v>343.971</v>
+      </c>
+      <c r="H27">
+        <v>206.82499999999999</v>
+      </c>
+      <c r="I27">
+        <v>49.676000000000002</v>
+      </c>
+      <c r="J27">
+        <v>213505.516</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>3</v>
+      </c>
+      <c r="M27">
+        <v>13.315</v>
+      </c>
+      <c r="N27">
+        <v>7.7089999999999996</v>
+      </c>
+      <c r="O27">
+        <v>2.3359999999999999</v>
+      </c>
+      <c r="P27">
+        <v>21000</v>
+      </c>
+      <c r="Q27">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28">
+        <v>1969</v>
+      </c>
+      <c r="D28">
+        <v>1978</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>184.14500000000001</v>
+      </c>
+      <c r="G28">
+        <v>270.49700000000001</v>
+      </c>
+      <c r="H28">
+        <v>150.87700000000001</v>
+      </c>
+      <c r="I28">
+        <v>52.091000000000001</v>
+      </c>
+      <c r="J28">
+        <v>213505.516</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>3</v>
+      </c>
+      <c r="M28">
+        <v>14.753</v>
+      </c>
+      <c r="N28">
+        <v>5.9930000000000003</v>
+      </c>
+      <c r="O28">
+        <v>2.3050000000000002</v>
+      </c>
+      <c r="P28">
+        <v>21000</v>
+      </c>
+      <c r="Q28">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29">
+        <v>1969</v>
+      </c>
+      <c r="D29">
+        <v>1978</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>184.14500000000001</v>
+      </c>
+      <c r="G29">
+        <v>301.07</v>
+      </c>
+      <c r="H29">
+        <v>180.88900000000001</v>
+      </c>
+      <c r="I29">
+        <v>52.091000000000001</v>
+      </c>
+      <c r="J29">
+        <v>213505.516</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>3</v>
+      </c>
+      <c r="M29">
+        <v>14.753</v>
+      </c>
+      <c r="N29">
+        <v>5.9930000000000003</v>
+      </c>
+      <c r="O29">
+        <v>2.3050000000000002</v>
+      </c>
+      <c r="P29">
+        <v>21000</v>
+      </c>
+      <c r="Q29">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30">
+        <v>1979</v>
+      </c>
+      <c r="D30">
+        <v>1983</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>185.137</v>
+      </c>
+      <c r="G30">
+        <v>207.054</v>
+      </c>
+      <c r="H30">
+        <v>89.974999999999994</v>
+      </c>
+      <c r="I30">
+        <v>52.371000000000002</v>
+      </c>
+      <c r="J30">
+        <v>213505.516</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>3</v>
+      </c>
+      <c r="M30">
+        <v>8.3230000000000004</v>
+      </c>
+      <c r="N30">
+        <v>5.5490000000000004</v>
+      </c>
+      <c r="O30">
+        <v>1.5409999999999999</v>
+      </c>
+      <c r="P30">
+        <v>21000</v>
+      </c>
+      <c r="Q30">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31">
+        <v>1979</v>
+      </c>
+      <c r="D31">
+        <v>1983</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>185.137</v>
+      </c>
+      <c r="G31">
+        <v>234.797</v>
+      </c>
+      <c r="H31">
+        <v>160.78899999999999</v>
+      </c>
+      <c r="I31">
+        <v>52.371000000000002</v>
+      </c>
+      <c r="J31">
+        <v>213505.516</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>3</v>
+      </c>
+      <c r="M31">
+        <v>8.3230000000000004</v>
+      </c>
+      <c r="N31">
+        <v>5.5490000000000004</v>
+      </c>
+      <c r="O31">
+        <v>1.5409999999999999</v>
+      </c>
+      <c r="P31">
+        <v>21000</v>
+      </c>
+      <c r="Q31">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32">
+        <v>1984</v>
+      </c>
+      <c r="D32">
+        <v>1994</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>182.928</v>
+      </c>
+      <c r="G32">
+        <v>145.40700000000001</v>
+      </c>
+      <c r="H32">
+        <v>123.01900000000001</v>
+      </c>
+      <c r="I32">
+        <v>51.747</v>
+      </c>
+      <c r="J32">
+        <v>213505.516</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>3</v>
+      </c>
+      <c r="M32">
+        <v>13.516999999999999</v>
+      </c>
+      <c r="N32">
+        <v>8.2070000000000007</v>
+      </c>
+      <c r="O32">
+        <v>2.4140000000000001</v>
+      </c>
+      <c r="P32">
+        <v>21000</v>
+      </c>
+      <c r="Q32">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33">
+        <v>1984</v>
+      </c>
+      <c r="D33">
+        <v>1994</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>182.928</v>
+      </c>
+      <c r="G33">
+        <v>160.48099999999999</v>
+      </c>
+      <c r="H33">
+        <v>173.941</v>
+      </c>
+      <c r="I33">
+        <v>51.747</v>
+      </c>
+      <c r="J33">
+        <v>213505.516</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>3</v>
+      </c>
+      <c r="M33">
+        <v>13.516999999999999</v>
+      </c>
+      <c r="N33">
+        <v>8.2070000000000007</v>
+      </c>
+      <c r="O33">
+        <v>2.4140000000000001</v>
+      </c>
+      <c r="P33">
+        <v>21000</v>
+      </c>
+      <c r="Q33">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34">
+        <v>1995</v>
+      </c>
+      <c r="D34">
+        <v>2012</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>155.95400000000001</v>
+      </c>
+      <c r="G34">
+        <v>87.111000000000004</v>
+      </c>
+      <c r="H34">
+        <v>49.99</v>
+      </c>
+      <c r="I34">
+        <v>48.527999999999999</v>
+      </c>
+      <c r="J34">
+        <v>148226.875</v>
+      </c>
+      <c r="K34">
+        <v>2.6669999999999998</v>
+      </c>
+      <c r="L34">
+        <v>3</v>
+      </c>
+      <c r="M34">
+        <v>7.86</v>
+      </c>
+      <c r="N34">
+        <v>3.3679999999999999</v>
+      </c>
+      <c r="O34">
+        <v>1.248</v>
+      </c>
+      <c r="P34">
+        <v>21000</v>
+      </c>
+      <c r="Q34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35">
+        <v>1995</v>
+      </c>
+      <c r="D35">
+        <v>2012</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>155.95400000000001</v>
+      </c>
+      <c r="G35">
+        <v>95.355000000000004</v>
+      </c>
+      <c r="H35">
+        <v>60.34</v>
+      </c>
+      <c r="I35">
+        <v>48.527999999999999</v>
+      </c>
+      <c r="J35">
+        <v>148226.875</v>
+      </c>
+      <c r="K35">
+        <v>2.6669999999999998</v>
+      </c>
+      <c r="L35">
+        <v>3</v>
+      </c>
+      <c r="M35">
+        <v>7.86</v>
+      </c>
+      <c r="N35">
+        <v>3.3679999999999999</v>
+      </c>
+      <c r="O35">
+        <v>1.248</v>
+      </c>
+      <c r="P35">
+        <v>21000</v>
+      </c>
+      <c r="Q35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36">
+        <v>2012</v>
+      </c>
+      <c r="D36">
+        <v>2022</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>155.95400000000001</v>
+      </c>
+      <c r="G36">
+        <v>75.715000000000003</v>
+      </c>
+      <c r="H36">
+        <v>48.85</v>
+      </c>
+      <c r="I36">
+        <v>48.527999999999999</v>
+      </c>
+      <c r="J36">
+        <v>148226.875</v>
+      </c>
+      <c r="K36">
+        <v>2.6669999999999998</v>
+      </c>
+      <c r="L36">
+        <v>3</v>
+      </c>
+      <c r="M36">
+        <v>7.86</v>
+      </c>
+      <c r="N36">
+        <v>3.3679999999999999</v>
+      </c>
+      <c r="O36">
+        <v>1.248</v>
+      </c>
+      <c r="P36">
+        <v>21000</v>
+      </c>
+      <c r="Q36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37">
+        <v>2012</v>
+      </c>
+      <c r="D37">
+        <v>2022</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>155.95400000000001</v>
+      </c>
+      <c r="G37">
+        <v>75.715000000000003</v>
+      </c>
+      <c r="H37">
+        <v>48.85</v>
+      </c>
+      <c r="I37">
+        <v>48.527999999999999</v>
+      </c>
+      <c r="J37">
+        <v>148226.875</v>
+      </c>
+      <c r="K37">
+        <v>2.6669999999999998</v>
+      </c>
+      <c r="L37">
+        <v>3</v>
+      </c>
+      <c r="M37">
+        <v>7.86</v>
+      </c>
+      <c r="N37">
+        <v>3.3679999999999999</v>
+      </c>
+      <c r="O37">
+        <v>1.248</v>
+      </c>
+      <c r="P37">
+        <v>21000</v>
+      </c>
+      <c r="Q37">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38">
+        <v>1880</v>
+      </c>
+      <c r="D38">
+        <v>1918</v>
+      </c>
+      <c r="E38">
+        <v>4</v>
+      </c>
+      <c r="F38">
+        <v>183.79400000000001</v>
+      </c>
+      <c r="G38">
+        <v>249.86</v>
+      </c>
+      <c r="H38">
+        <v>99.962000000000003</v>
+      </c>
+      <c r="I38">
+        <v>51.991999999999997</v>
+      </c>
+      <c r="J38">
+        <v>398415.375</v>
+      </c>
+      <c r="K38">
+        <v>3.5</v>
+      </c>
+      <c r="L38">
+        <v>3</v>
+      </c>
+      <c r="M38">
+        <v>7.4429999999999996</v>
+      </c>
+      <c r="N38">
+        <v>4.8940000000000001</v>
+      </c>
+      <c r="O38">
+        <v>1.371</v>
+      </c>
+      <c r="P38">
+        <v>21000</v>
+      </c>
+      <c r="Q38">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39">
+        <v>1880</v>
+      </c>
+      <c r="D39">
+        <v>1918</v>
+      </c>
+      <c r="E39">
+        <v>4</v>
+      </c>
+      <c r="F39">
+        <v>183.79400000000001</v>
+      </c>
+      <c r="G39">
+        <v>455.14600000000002</v>
+      </c>
+      <c r="H39">
+        <v>167.626</v>
+      </c>
+      <c r="I39">
+        <v>51.991999999999997</v>
+      </c>
+      <c r="J39">
+        <v>398415.375</v>
+      </c>
+      <c r="K39">
+        <v>3.5</v>
+      </c>
+      <c r="L39">
+        <v>3</v>
+      </c>
+      <c r="M39">
+        <v>7.4429999999999996</v>
+      </c>
+      <c r="N39">
+        <v>4.8940000000000001</v>
+      </c>
+      <c r="O39">
+        <v>1.371</v>
+      </c>
+      <c r="P39">
+        <v>21000</v>
+      </c>
+      <c r="Q39">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40">
+        <v>1919</v>
+      </c>
+      <c r="D40">
+        <v>1948</v>
+      </c>
+      <c r="E40">
+        <v>4</v>
+      </c>
+      <c r="F40">
+        <v>166.934</v>
+      </c>
+      <c r="G40">
+        <v>223.42500000000001</v>
+      </c>
+      <c r="H40">
+        <v>130.68299999999999</v>
+      </c>
+      <c r="I40">
+        <v>47.222000000000001</v>
+      </c>
+      <c r="J40">
+        <v>338121.65600000002</v>
+      </c>
+      <c r="K40">
+        <v>3.5</v>
+      </c>
+      <c r="L40">
+        <v>3</v>
+      </c>
+      <c r="M40">
+        <v>12.082000000000001</v>
+      </c>
+      <c r="N40">
+        <v>5.7439999999999998</v>
+      </c>
+      <c r="O40">
+        <v>1.9810000000000001</v>
+      </c>
+      <c r="P40">
+        <v>21000</v>
+      </c>
+      <c r="Q40">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41">
+        <v>1919</v>
+      </c>
+      <c r="D41">
+        <v>1948</v>
+      </c>
+      <c r="E41">
+        <v>4</v>
+      </c>
+      <c r="F41">
+        <v>166.934</v>
+      </c>
+      <c r="G41">
+        <v>400.93200000000002</v>
+      </c>
+      <c r="H41">
+        <v>169.65799999999999</v>
+      </c>
+      <c r="I41">
+        <v>47.222000000000001</v>
+      </c>
+      <c r="J41">
+        <v>338121.65600000002</v>
+      </c>
+      <c r="K41">
+        <v>3.5</v>
+      </c>
+      <c r="L41">
+        <v>3</v>
+      </c>
+      <c r="M41">
+        <v>12.082000000000001</v>
+      </c>
+      <c r="N41">
+        <v>5.7439999999999998</v>
+      </c>
+      <c r="O41">
+        <v>1.9810000000000001</v>
+      </c>
+      <c r="P41">
+        <v>21000</v>
+      </c>
+      <c r="Q41">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42">
+        <v>1949</v>
+      </c>
+      <c r="D42">
+        <v>1957</v>
+      </c>
+      <c r="E42">
+        <v>4</v>
+      </c>
+      <c r="F42">
+        <v>174.14</v>
+      </c>
+      <c r="G42">
+        <v>273.15499999999997</v>
+      </c>
+      <c r="H42">
+        <v>114.283</v>
+      </c>
+      <c r="I42">
+        <v>49.261000000000003</v>
+      </c>
+      <c r="J42">
+        <v>213505.516</v>
+      </c>
+      <c r="K42">
+        <v>3</v>
+      </c>
+      <c r="L42">
+        <v>3</v>
+      </c>
+      <c r="M42">
+        <v>10.037000000000001</v>
+      </c>
+      <c r="N42">
+        <v>4.5330000000000004</v>
+      </c>
+      <c r="O42">
+        <v>1.619</v>
+      </c>
+      <c r="P42">
+        <v>21000</v>
+      </c>
+      <c r="Q42">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43">
+        <v>1949</v>
+      </c>
+      <c r="D43">
+        <v>1957</v>
+      </c>
+      <c r="E43">
+        <v>4</v>
+      </c>
+      <c r="F43">
+        <v>174.14</v>
+      </c>
+      <c r="G43">
+        <v>303.87599999999998</v>
+      </c>
+      <c r="H43">
+        <v>136.28700000000001</v>
+      </c>
+      <c r="I43">
+        <v>49.261000000000003</v>
+      </c>
+      <c r="J43">
+        <v>213505.516</v>
+      </c>
+      <c r="K43">
+        <v>3</v>
+      </c>
+      <c r="L43">
+        <v>3</v>
+      </c>
+      <c r="M43">
+        <v>10.037000000000001</v>
+      </c>
+      <c r="N43">
+        <v>4.5330000000000004</v>
+      </c>
+      <c r="O43">
+        <v>1.619</v>
+      </c>
+      <c r="P43">
+        <v>21000</v>
+      </c>
+      <c r="Q43">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44">
+        <v>1958</v>
+      </c>
+      <c r="D44">
+        <v>1968</v>
+      </c>
+      <c r="E44">
+        <v>4</v>
+      </c>
+      <c r="F44">
+        <v>175.60900000000001</v>
+      </c>
+      <c r="G44">
+        <v>302.37900000000002</v>
+      </c>
+      <c r="H44">
+        <v>155.72800000000001</v>
+      </c>
+      <c r="I44">
+        <v>49.676000000000002</v>
+      </c>
+      <c r="J44">
+        <v>213505.516</v>
+      </c>
+      <c r="K44">
+        <v>3</v>
+      </c>
+      <c r="L44">
+        <v>3</v>
+      </c>
+      <c r="M44">
+        <v>13.315</v>
+      </c>
+      <c r="N44">
+        <v>7.7089999999999996</v>
+      </c>
+      <c r="O44">
+        <v>2.3359999999999999</v>
+      </c>
+      <c r="P44">
+        <v>21000</v>
+      </c>
+      <c r="Q44">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45">
+        <v>1958</v>
+      </c>
+      <c r="D45">
+        <v>1968</v>
+      </c>
+      <c r="E45">
+        <v>4</v>
+      </c>
+      <c r="F45">
+        <v>175.60900000000001</v>
+      </c>
+      <c r="G45">
+        <v>343.971</v>
+      </c>
+      <c r="H45">
+        <v>206.82499999999999</v>
+      </c>
+      <c r="I45">
+        <v>49.676000000000002</v>
+      </c>
+      <c r="J45">
+        <v>213505.516</v>
+      </c>
+      <c r="K45">
+        <v>3</v>
+      </c>
+      <c r="L45">
+        <v>3</v>
+      </c>
+      <c r="M45">
+        <v>13.315</v>
+      </c>
+      <c r="N45">
+        <v>7.7089999999999996</v>
+      </c>
+      <c r="O45">
+        <v>2.3359999999999999</v>
+      </c>
+      <c r="P45">
+        <v>21000</v>
+      </c>
+      <c r="Q45">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46">
+        <v>1969</v>
+      </c>
+      <c r="D46">
+        <v>1978</v>
+      </c>
+      <c r="E46">
+        <v>4</v>
+      </c>
+      <c r="F46">
+        <v>184.14500000000001</v>
+      </c>
+      <c r="G46">
+        <v>270.49700000000001</v>
+      </c>
+      <c r="H46">
+        <v>150.87700000000001</v>
+      </c>
+      <c r="I46">
+        <v>52.091000000000001</v>
+      </c>
+      <c r="J46">
+        <v>213505.516</v>
+      </c>
+      <c r="K46">
+        <v>3</v>
+      </c>
+      <c r="L46">
+        <v>3</v>
+      </c>
+      <c r="M46">
+        <v>14.753</v>
+      </c>
+      <c r="N46">
+        <v>5.9930000000000003</v>
+      </c>
+      <c r="O46">
+        <v>2.3050000000000002</v>
+      </c>
+      <c r="P46">
+        <v>21000</v>
+      </c>
+      <c r="Q46">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47">
+        <v>1969</v>
+      </c>
+      <c r="D47">
+        <v>1978</v>
+      </c>
+      <c r="E47">
+        <v>4</v>
+      </c>
+      <c r="F47">
+        <v>184.14500000000001</v>
+      </c>
+      <c r="G47">
+        <v>301.07</v>
+      </c>
+      <c r="H47">
+        <v>180.88900000000001</v>
+      </c>
+      <c r="I47">
+        <v>52.091000000000001</v>
+      </c>
+      <c r="J47">
+        <v>213505.516</v>
+      </c>
+      <c r="K47">
+        <v>3</v>
+      </c>
+      <c r="L47">
+        <v>3</v>
+      </c>
+      <c r="M47">
+        <v>14.753</v>
+      </c>
+      <c r="N47">
+        <v>5.9930000000000003</v>
+      </c>
+      <c r="O47">
+        <v>2.3050000000000002</v>
+      </c>
+      <c r="P47">
+        <v>21000</v>
+      </c>
+      <c r="Q47">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48">
+        <v>1979</v>
+      </c>
+      <c r="D48">
+        <v>1983</v>
+      </c>
+      <c r="E48">
+        <v>4</v>
+      </c>
+      <c r="F48">
+        <v>185.137</v>
+      </c>
+      <c r="G48">
+        <v>207.054</v>
+      </c>
+      <c r="H48">
+        <v>89.974999999999994</v>
+      </c>
+      <c r="I48">
+        <v>52.371000000000002</v>
+      </c>
+      <c r="J48">
+        <v>213505.516</v>
+      </c>
+      <c r="K48">
+        <v>3</v>
+      </c>
+      <c r="L48">
+        <v>3</v>
+      </c>
+      <c r="M48">
+        <v>8.3230000000000004</v>
+      </c>
+      <c r="N48">
+        <v>5.5490000000000004</v>
+      </c>
+      <c r="O48">
+        <v>1.5409999999999999</v>
+      </c>
+      <c r="P48">
+        <v>21000</v>
+      </c>
+      <c r="Q48">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49">
+        <v>1979</v>
+      </c>
+      <c r="D49">
+        <v>1983</v>
+      </c>
+      <c r="E49">
+        <v>4</v>
+      </c>
+      <c r="F49">
+        <v>185.137</v>
+      </c>
+      <c r="G49">
+        <v>234.797</v>
+      </c>
+      <c r="H49">
+        <v>160.78899999999999</v>
+      </c>
+      <c r="I49">
+        <v>52.371000000000002</v>
+      </c>
+      <c r="J49">
+        <v>213505.516</v>
+      </c>
+      <c r="K49">
+        <v>3</v>
+      </c>
+      <c r="L49">
+        <v>3</v>
+      </c>
+      <c r="M49">
+        <v>8.3230000000000004</v>
+      </c>
+      <c r="N49">
+        <v>5.5490000000000004</v>
+      </c>
+      <c r="O49">
+        <v>1.5409999999999999</v>
+      </c>
+      <c r="P49">
+        <v>21000</v>
+      </c>
+      <c r="Q49">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50">
+        <v>1984</v>
+      </c>
+      <c r="D50">
+        <v>1994</v>
+      </c>
+      <c r="E50">
+        <v>4</v>
+      </c>
+      <c r="F50">
+        <v>182.928</v>
+      </c>
+      <c r="G50">
+        <v>145.40700000000001</v>
+      </c>
+      <c r="H50">
+        <v>123.01900000000001</v>
+      </c>
+      <c r="I50">
+        <v>51.747</v>
+      </c>
+      <c r="J50">
+        <v>213505.516</v>
+      </c>
+      <c r="K50">
+        <v>3</v>
+      </c>
+      <c r="L50">
+        <v>3</v>
+      </c>
+      <c r="M50">
+        <v>13.516999999999999</v>
+      </c>
+      <c r="N50">
+        <v>8.2070000000000007</v>
+      </c>
+      <c r="O50">
+        <v>2.4140000000000001</v>
+      </c>
+      <c r="P50">
+        <v>21000</v>
+      </c>
+      <c r="Q50">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51">
+        <v>1984</v>
+      </c>
+      <c r="D51">
+        <v>1994</v>
+      </c>
+      <c r="E51">
+        <v>4</v>
+      </c>
+      <c r="F51">
+        <v>182.928</v>
+      </c>
+      <c r="G51">
+        <v>160.48099999999999</v>
+      </c>
+      <c r="H51">
+        <v>173.941</v>
+      </c>
+      <c r="I51">
+        <v>51.747</v>
+      </c>
+      <c r="J51">
+        <v>213505.516</v>
+      </c>
+      <c r="K51">
+        <v>3</v>
+      </c>
+      <c r="L51">
+        <v>3</v>
+      </c>
+      <c r="M51">
+        <v>13.516999999999999</v>
+      </c>
+      <c r="N51">
+        <v>8.2070000000000007</v>
+      </c>
+      <c r="O51">
+        <v>2.4140000000000001</v>
+      </c>
+      <c r="P51">
+        <v>21000</v>
+      </c>
+      <c r="Q51">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52">
+        <v>1995</v>
+      </c>
+      <c r="D52">
+        <v>2012</v>
+      </c>
+      <c r="E52">
+        <v>4</v>
+      </c>
+      <c r="F52">
+        <v>155.95400000000001</v>
+      </c>
+      <c r="G52">
+        <v>87.111000000000004</v>
+      </c>
+      <c r="H52">
+        <v>49.99</v>
+      </c>
+      <c r="I52">
+        <v>48.527999999999999</v>
+      </c>
+      <c r="J52">
+        <v>148226.875</v>
+      </c>
+      <c r="K52">
+        <v>2.6669999999999998</v>
+      </c>
+      <c r="L52">
+        <v>3</v>
+      </c>
+      <c r="M52">
+        <v>7.86</v>
+      </c>
+      <c r="N52">
+        <v>3.3679999999999999</v>
+      </c>
+      <c r="O52">
+        <v>1.248</v>
+      </c>
+      <c r="P52">
+        <v>21000</v>
+      </c>
+      <c r="Q52">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>16</v>
+      </c>
+      <c r="C53">
+        <v>1995</v>
+      </c>
+      <c r="D53">
+        <v>2012</v>
+      </c>
+      <c r="E53">
+        <v>4</v>
+      </c>
+      <c r="F53">
+        <v>155.95400000000001</v>
+      </c>
+      <c r="G53">
+        <v>95.355000000000004</v>
+      </c>
+      <c r="H53">
+        <v>60.34</v>
+      </c>
+      <c r="I53">
+        <v>48.527999999999999</v>
+      </c>
+      <c r="J53">
+        <v>148226.875</v>
+      </c>
+      <c r="K53">
+        <v>2.6669999999999998</v>
+      </c>
+      <c r="L53">
+        <v>3</v>
+      </c>
+      <c r="M53">
+        <v>7.86</v>
+      </c>
+      <c r="N53">
+        <v>3.3679999999999999</v>
+      </c>
+      <c r="O53">
+        <v>1.248</v>
+      </c>
+      <c r="P53">
+        <v>21000</v>
+      </c>
+      <c r="Q53">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54">
+        <v>2012</v>
+      </c>
+      <c r="D54">
+        <v>2022</v>
+      </c>
+      <c r="E54">
+        <v>4</v>
+      </c>
+      <c r="F54">
+        <v>155.95400000000001</v>
+      </c>
+      <c r="G54">
+        <v>75.715000000000003</v>
+      </c>
+      <c r="H54">
+        <v>48.85</v>
+      </c>
+      <c r="I54">
+        <v>48.527999999999999</v>
+      </c>
+      <c r="J54">
+        <v>148226.875</v>
+      </c>
+      <c r="K54">
+        <v>2.6669999999999998</v>
+      </c>
+      <c r="L54">
+        <v>3</v>
+      </c>
+      <c r="M54">
+        <v>7.86</v>
+      </c>
+      <c r="N54">
+        <v>3.3679999999999999</v>
+      </c>
+      <c r="O54">
+        <v>1.248</v>
+      </c>
+      <c r="P54">
+        <v>21000</v>
+      </c>
+      <c r="Q54">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55">
+        <v>2012</v>
+      </c>
+      <c r="D55">
+        <v>2022</v>
+      </c>
+      <c r="E55">
+        <v>4</v>
+      </c>
+      <c r="F55">
+        <v>155.95400000000001</v>
+      </c>
+      <c r="G55">
+        <v>75.715000000000003</v>
+      </c>
+      <c r="H55">
+        <v>48.85</v>
+      </c>
+      <c r="I55">
+        <v>48.527999999999999</v>
+      </c>
+      <c r="J55">
+        <v>148226.875</v>
+      </c>
+      <c r="K55">
+        <v>2.6669999999999998</v>
+      </c>
+      <c r="L55">
+        <v>3</v>
+      </c>
+      <c r="M55">
+        <v>7.86</v>
+      </c>
+      <c r="N55">
+        <v>3.3679999999999999</v>
+      </c>
+      <c r="O55">
+        <v>1.248</v>
+      </c>
+      <c r="P55">
+        <v>21000</v>
+      </c>
+      <c r="Q55">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56">
+        <v>1880</v>
+      </c>
+      <c r="D56">
+        <v>1918</v>
+      </c>
+      <c r="E56">
+        <v>5</v>
+      </c>
+      <c r="F56">
+        <v>183.79400000000001</v>
+      </c>
+      <c r="G56">
+        <v>249.86</v>
+      </c>
+      <c r="H56">
+        <v>99.962000000000003</v>
+      </c>
+      <c r="I56">
+        <v>51.991999999999997</v>
+      </c>
+      <c r="J56">
+        <v>398415.375</v>
+      </c>
+      <c r="K56">
+        <v>3.5</v>
+      </c>
+      <c r="L56">
+        <v>3</v>
+      </c>
+      <c r="M56">
+        <v>7.4429999999999996</v>
+      </c>
+      <c r="N56">
+        <v>4.8940000000000001</v>
+      </c>
+      <c r="O56">
+        <v>1.371</v>
+      </c>
+      <c r="P56">
+        <v>21000</v>
+      </c>
+      <c r="Q56">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57">
+        <v>1880</v>
+      </c>
+      <c r="D57">
+        <v>1918</v>
+      </c>
+      <c r="E57">
+        <v>5</v>
+      </c>
+      <c r="F57">
+        <v>183.79400000000001</v>
+      </c>
+      <c r="G57">
+        <v>455.14600000000002</v>
+      </c>
+      <c r="H57">
+        <v>167.626</v>
+      </c>
+      <c r="I57">
+        <v>51.991999999999997</v>
+      </c>
+      <c r="J57">
+        <v>398415.375</v>
+      </c>
+      <c r="K57">
+        <v>3.5</v>
+      </c>
+      <c r="L57">
+        <v>3</v>
+      </c>
+      <c r="M57">
+        <v>7.4429999999999996</v>
+      </c>
+      <c r="N57">
+        <v>4.8940000000000001</v>
+      </c>
+      <c r="O57">
+        <v>1.371</v>
+      </c>
+      <c r="P57">
+        <v>21000</v>
+      </c>
+      <c r="Q57">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58">
+        <v>1919</v>
+      </c>
+      <c r="D58">
+        <v>1948</v>
+      </c>
+      <c r="E58">
+        <v>5</v>
+      </c>
+      <c r="F58">
+        <v>166.934</v>
+      </c>
+      <c r="G58">
+        <v>223.42500000000001</v>
+      </c>
+      <c r="H58">
+        <v>130.68299999999999</v>
+      </c>
+      <c r="I58">
+        <v>47.222000000000001</v>
+      </c>
+      <c r="J58">
+        <v>338121.65600000002</v>
+      </c>
+      <c r="K58">
+        <v>3.5</v>
+      </c>
+      <c r="L58">
+        <v>3</v>
+      </c>
+      <c r="M58">
+        <v>12.082000000000001</v>
+      </c>
+      <c r="N58">
+        <v>5.7439999999999998</v>
+      </c>
+      <c r="O58">
+        <v>1.9810000000000001</v>
+      </c>
+      <c r="P58">
+        <v>21000</v>
+      </c>
+      <c r="Q58">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59">
+        <v>1919</v>
+      </c>
+      <c r="D59">
+        <v>1948</v>
+      </c>
+      <c r="E59">
+        <v>5</v>
+      </c>
+      <c r="F59">
+        <v>166.934</v>
+      </c>
+      <c r="G59">
+        <v>400.93200000000002</v>
+      </c>
+      <c r="H59">
+        <v>169.65799999999999</v>
+      </c>
+      <c r="I59">
+        <v>47.222000000000001</v>
+      </c>
+      <c r="J59">
+        <v>338121.65600000002</v>
+      </c>
+      <c r="K59">
+        <v>3.5</v>
+      </c>
+      <c r="L59">
+        <v>3</v>
+      </c>
+      <c r="M59">
+        <v>12.082000000000001</v>
+      </c>
+      <c r="N59">
+        <v>5.7439999999999998</v>
+      </c>
+      <c r="O59">
+        <v>1.9810000000000001</v>
+      </c>
+      <c r="P59">
+        <v>21000</v>
+      </c>
+      <c r="Q59">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60">
+        <v>1949</v>
+      </c>
+      <c r="D60">
+        <v>1957</v>
+      </c>
+      <c r="E60">
+        <v>5</v>
+      </c>
+      <c r="F60">
+        <v>174.14</v>
+      </c>
+      <c r="G60">
+        <v>273.15499999999997</v>
+      </c>
+      <c r="H60">
+        <v>114.283</v>
+      </c>
+      <c r="I60">
+        <v>49.261000000000003</v>
+      </c>
+      <c r="J60">
+        <v>213505.516</v>
+      </c>
+      <c r="K60">
+        <v>3</v>
+      </c>
+      <c r="L60">
+        <v>3</v>
+      </c>
+      <c r="M60">
+        <v>10.037000000000001</v>
+      </c>
+      <c r="N60">
+        <v>4.5330000000000004</v>
+      </c>
+      <c r="O60">
+        <v>1.619</v>
+      </c>
+      <c r="P60">
+        <v>21000</v>
+      </c>
+      <c r="Q60">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61">
+        <v>1949</v>
+      </c>
+      <c r="D61">
+        <v>1957</v>
+      </c>
+      <c r="E61">
+        <v>5</v>
+      </c>
+      <c r="F61">
+        <v>174.14</v>
+      </c>
+      <c r="G61">
+        <v>303.87599999999998</v>
+      </c>
+      <c r="H61">
+        <v>136.28700000000001</v>
+      </c>
+      <c r="I61">
+        <v>49.261000000000003</v>
+      </c>
+      <c r="J61">
+        <v>213505.516</v>
+      </c>
+      <c r="K61">
+        <v>3</v>
+      </c>
+      <c r="L61">
+        <v>3</v>
+      </c>
+      <c r="M61">
+        <v>10.037000000000001</v>
+      </c>
+      <c r="N61">
+        <v>4.5330000000000004</v>
+      </c>
+      <c r="O61">
+        <v>1.619</v>
+      </c>
+      <c r="P61">
+        <v>21000</v>
+      </c>
+      <c r="Q61">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>16</v>
+      </c>
+      <c r="C62">
+        <v>1958</v>
+      </c>
+      <c r="D62">
+        <v>1968</v>
+      </c>
+      <c r="E62">
+        <v>5</v>
+      </c>
+      <c r="F62">
+        <v>175.60900000000001</v>
+      </c>
+      <c r="G62">
+        <v>302.37900000000002</v>
+      </c>
+      <c r="H62">
+        <v>155.72800000000001</v>
+      </c>
+      <c r="I62">
+        <v>49.676000000000002</v>
+      </c>
+      <c r="J62">
+        <v>213505.516</v>
+      </c>
+      <c r="K62">
+        <v>3</v>
+      </c>
+      <c r="L62">
+        <v>3</v>
+      </c>
+      <c r="M62">
+        <v>13.315</v>
+      </c>
+      <c r="N62">
+        <v>7.7089999999999996</v>
+      </c>
+      <c r="O62">
+        <v>2.3359999999999999</v>
+      </c>
+      <c r="P62">
+        <v>21000</v>
+      </c>
+      <c r="Q62">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>16</v>
+      </c>
+      <c r="C63">
+        <v>1958</v>
+      </c>
+      <c r="D63">
+        <v>1968</v>
+      </c>
+      <c r="E63">
+        <v>5</v>
+      </c>
+      <c r="F63">
+        <v>175.60900000000001</v>
+      </c>
+      <c r="G63">
+        <v>343.971</v>
+      </c>
+      <c r="H63">
+        <v>206.82499999999999</v>
+      </c>
+      <c r="I63">
+        <v>49.676000000000002</v>
+      </c>
+      <c r="J63">
+        <v>213505.516</v>
+      </c>
+      <c r="K63">
+        <v>3</v>
+      </c>
+      <c r="L63">
+        <v>3</v>
+      </c>
+      <c r="M63">
+        <v>13.315</v>
+      </c>
+      <c r="N63">
+        <v>7.7089999999999996</v>
+      </c>
+      <c r="O63">
+        <v>2.3359999999999999</v>
+      </c>
+      <c r="P63">
+        <v>21000</v>
+      </c>
+      <c r="Q63">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>16</v>
+      </c>
+      <c r="C64">
+        <v>1969</v>
+      </c>
+      <c r="D64">
+        <v>1978</v>
+      </c>
+      <c r="E64">
+        <v>5</v>
+      </c>
+      <c r="F64">
+        <v>184.14500000000001</v>
+      </c>
+      <c r="G64">
+        <v>270.49700000000001</v>
+      </c>
+      <c r="H64">
+        <v>150.87700000000001</v>
+      </c>
+      <c r="I64">
+        <v>52.091000000000001</v>
+      </c>
+      <c r="J64">
+        <v>213505.516</v>
+      </c>
+      <c r="K64">
+        <v>3</v>
+      </c>
+      <c r="L64">
+        <v>3</v>
+      </c>
+      <c r="M64">
+        <v>14.753</v>
+      </c>
+      <c r="N64">
+        <v>5.9930000000000003</v>
+      </c>
+      <c r="O64">
+        <v>2.3050000000000002</v>
+      </c>
+      <c r="P64">
+        <v>21000</v>
+      </c>
+      <c r="Q64">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>16</v>
+      </c>
+      <c r="C65">
+        <v>1969</v>
+      </c>
+      <c r="D65">
+        <v>1978</v>
+      </c>
+      <c r="E65">
+        <v>5</v>
+      </c>
+      <c r="F65">
+        <v>184.14500000000001</v>
+      </c>
+      <c r="G65">
+        <v>301.07</v>
+      </c>
+      <c r="H65">
+        <v>180.88900000000001</v>
+      </c>
+      <c r="I65">
+        <v>52.091000000000001</v>
+      </c>
+      <c r="J65">
+        <v>213505.516</v>
+      </c>
+      <c r="K65">
+        <v>3</v>
+      </c>
+      <c r="L65">
+        <v>3</v>
+      </c>
+      <c r="M65">
+        <v>14.753</v>
+      </c>
+      <c r="N65">
+        <v>5.9930000000000003</v>
+      </c>
+      <c r="O65">
+        <v>2.3050000000000002</v>
+      </c>
+      <c r="P65">
+        <v>21000</v>
+      </c>
+      <c r="Q65">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>16</v>
+      </c>
+      <c r="C66">
+        <v>1979</v>
+      </c>
+      <c r="D66">
+        <v>1983</v>
+      </c>
+      <c r="E66">
+        <v>5</v>
+      </c>
+      <c r="F66">
+        <v>185.137</v>
+      </c>
+      <c r="G66">
+        <v>207.054</v>
+      </c>
+      <c r="H66">
+        <v>89.974999999999994</v>
+      </c>
+      <c r="I66">
+        <v>52.371000000000002</v>
+      </c>
+      <c r="J66">
+        <v>213505.516</v>
+      </c>
+      <c r="K66">
+        <v>3</v>
+      </c>
+      <c r="L66">
+        <v>3</v>
+      </c>
+      <c r="M66">
+        <v>8.3230000000000004</v>
+      </c>
+      <c r="N66">
+        <v>5.5490000000000004</v>
+      </c>
+      <c r="O66">
+        <v>1.5409999999999999</v>
+      </c>
+      <c r="P66">
+        <v>21000</v>
+      </c>
+      <c r="Q66">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>16</v>
+      </c>
+      <c r="C67">
+        <v>1979</v>
+      </c>
+      <c r="D67">
+        <v>1983</v>
+      </c>
+      <c r="E67">
+        <v>5</v>
+      </c>
+      <c r="F67">
+        <v>185.137</v>
+      </c>
+      <c r="G67">
+        <v>234.797</v>
+      </c>
+      <c r="H67">
+        <v>160.78899999999999</v>
+      </c>
+      <c r="I67">
+        <v>52.371000000000002</v>
+      </c>
+      <c r="J67">
+        <v>213505.516</v>
+      </c>
+      <c r="K67">
+        <v>3</v>
+      </c>
+      <c r="L67">
+        <v>3</v>
+      </c>
+      <c r="M67">
+        <v>8.3230000000000004</v>
+      </c>
+      <c r="N67">
+        <v>5.5490000000000004</v>
+      </c>
+      <c r="O67">
+        <v>1.5409999999999999</v>
+      </c>
+      <c r="P67">
+        <v>21000</v>
+      </c>
+      <c r="Q67">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>16</v>
+      </c>
+      <c r="C68">
+        <v>1984</v>
+      </c>
+      <c r="D68">
+        <v>1994</v>
+      </c>
+      <c r="E68">
+        <v>5</v>
+      </c>
+      <c r="F68">
+        <v>182.928</v>
+      </c>
+      <c r="G68">
+        <v>145.40700000000001</v>
+      </c>
+      <c r="H68">
+        <v>123.01900000000001</v>
+      </c>
+      <c r="I68">
+        <v>51.747</v>
+      </c>
+      <c r="J68">
+        <v>213505.516</v>
+      </c>
+      <c r="K68">
+        <v>3</v>
+      </c>
+      <c r="L68">
+        <v>3</v>
+      </c>
+      <c r="M68">
+        <v>13.516999999999999</v>
+      </c>
+      <c r="N68">
+        <v>8.2070000000000007</v>
+      </c>
+      <c r="O68">
+        <v>2.4140000000000001</v>
+      </c>
+      <c r="P68">
+        <v>21000</v>
+      </c>
+      <c r="Q68">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69">
+        <v>1984</v>
+      </c>
+      <c r="D69">
+        <v>1994</v>
+      </c>
+      <c r="E69">
+        <v>5</v>
+      </c>
+      <c r="F69">
+        <v>182.928</v>
+      </c>
+      <c r="G69">
+        <v>160.48099999999999</v>
+      </c>
+      <c r="H69">
+        <v>173.941</v>
+      </c>
+      <c r="I69">
+        <v>51.747</v>
+      </c>
+      <c r="J69">
+        <v>213505.516</v>
+      </c>
+      <c r="K69">
+        <v>3</v>
+      </c>
+      <c r="L69">
+        <v>3</v>
+      </c>
+      <c r="M69">
+        <v>13.516999999999999</v>
+      </c>
+      <c r="N69">
+        <v>8.2070000000000007</v>
+      </c>
+      <c r="O69">
+        <v>2.4140000000000001</v>
+      </c>
+      <c r="P69">
+        <v>21000</v>
+      </c>
+      <c r="Q69">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>16</v>
+      </c>
+      <c r="C70">
+        <v>1995</v>
+      </c>
+      <c r="D70">
+        <v>2012</v>
+      </c>
+      <c r="E70">
+        <v>5</v>
+      </c>
+      <c r="F70">
+        <v>155.95400000000001</v>
+      </c>
+      <c r="G70">
+        <v>87.111000000000004</v>
+      </c>
+      <c r="H70">
+        <v>49.99</v>
+      </c>
+      <c r="I70">
+        <v>48.527999999999999</v>
+      </c>
+      <c r="J70">
+        <v>148226.875</v>
+      </c>
+      <c r="K70">
+        <v>2.6669999999999998</v>
+      </c>
+      <c r="L70">
+        <v>3</v>
+      </c>
+      <c r="M70">
+        <v>7.86</v>
+      </c>
+      <c r="N70">
+        <v>3.3679999999999999</v>
+      </c>
+      <c r="O70">
+        <v>1.248</v>
+      </c>
+      <c r="P70">
+        <v>21000</v>
+      </c>
+      <c r="Q70">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>16</v>
+      </c>
+      <c r="C71">
+        <v>1995</v>
+      </c>
+      <c r="D71">
+        <v>2012</v>
+      </c>
+      <c r="E71">
+        <v>5</v>
+      </c>
+      <c r="F71">
+        <v>155.95400000000001</v>
+      </c>
+      <c r="G71">
+        <v>95.355000000000004</v>
+      </c>
+      <c r="H71">
+        <v>60.34</v>
+      </c>
+      <c r="I71">
+        <v>48.527999999999999</v>
+      </c>
+      <c r="J71">
+        <v>148226.875</v>
+      </c>
+      <c r="K71">
+        <v>2.6669999999999998</v>
+      </c>
+      <c r="L71">
+        <v>3</v>
+      </c>
+      <c r="M71">
+        <v>7.86</v>
+      </c>
+      <c r="N71">
+        <v>3.3679999999999999</v>
+      </c>
+      <c r="O71">
+        <v>1.248</v>
+      </c>
+      <c r="P71">
+        <v>21000</v>
+      </c>
+      <c r="Q71">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>16</v>
+      </c>
+      <c r="C72">
+        <v>2012</v>
+      </c>
+      <c r="D72">
+        <v>2022</v>
+      </c>
+      <c r="E72">
+        <v>5</v>
+      </c>
+      <c r="F72">
+        <v>155.95400000000001</v>
+      </c>
+      <c r="G72">
+        <v>75.715000000000003</v>
+      </c>
+      <c r="H72">
+        <v>48.85</v>
+      </c>
+      <c r="I72">
+        <v>48.527999999999999</v>
+      </c>
+      <c r="J72">
+        <v>148226.875</v>
+      </c>
+      <c r="K72">
+        <v>2.6669999999999998</v>
+      </c>
+      <c r="L72">
+        <v>3</v>
+      </c>
+      <c r="M72">
+        <v>7.86</v>
+      </c>
+      <c r="N72">
+        <v>3.3679999999999999</v>
+      </c>
+      <c r="O72">
+        <v>1.248</v>
+      </c>
+      <c r="P72">
+        <v>21000</v>
+      </c>
+      <c r="Q72">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>16</v>
+      </c>
+      <c r="C73">
+        <v>2012</v>
+      </c>
+      <c r="D73">
+        <v>2022</v>
+      </c>
+      <c r="E73">
+        <v>5</v>
+      </c>
+      <c r="F73">
+        <v>155.95400000000001</v>
+      </c>
+      <c r="G73">
+        <v>75.715000000000003</v>
+      </c>
+      <c r="H73">
+        <v>48.85</v>
+      </c>
+      <c r="I73">
+        <v>48.527999999999999</v>
+      </c>
+      <c r="J73">
+        <v>148226.875</v>
+      </c>
+      <c r="K73">
+        <v>2.6669999999999998</v>
+      </c>
+      <c r="L73">
+        <v>3</v>
+      </c>
+      <c r="M73">
+        <v>7.86</v>
+      </c>
+      <c r="N73">
+        <v>3.3679999999999999</v>
+      </c>
+      <c r="O73">
+        <v>1.248</v>
+      </c>
+      <c r="P73">
+        <v>21000</v>
+      </c>
+      <c r="Q73">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>16</v>
+      </c>
+      <c r="C74">
+        <v>1880</v>
+      </c>
+      <c r="D74">
+        <v>1918</v>
+      </c>
+      <c r="E74">
+        <v>6</v>
+      </c>
+      <c r="F74">
+        <v>183.79400000000001</v>
+      </c>
+      <c r="G74">
+        <v>249.86</v>
+      </c>
+      <c r="H74">
+        <v>99.962000000000003</v>
+      </c>
+      <c r="I74">
+        <v>51.991999999999997</v>
+      </c>
+      <c r="J74">
+        <v>398415.375</v>
+      </c>
+      <c r="K74">
+        <v>3.5</v>
+      </c>
+      <c r="L74">
+        <v>3</v>
+      </c>
+      <c r="M74">
+        <v>7.4429999999999996</v>
+      </c>
+      <c r="N74">
+        <v>4.8940000000000001</v>
+      </c>
+      <c r="O74">
+        <v>1.371</v>
+      </c>
+      <c r="P74">
+        <v>21000</v>
+      </c>
+      <c r="Q74">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>16</v>
+      </c>
+      <c r="C75">
+        <v>1880</v>
+      </c>
+      <c r="D75">
+        <v>1918</v>
+      </c>
+      <c r="E75">
+        <v>6</v>
+      </c>
+      <c r="F75">
+        <v>183.79400000000001</v>
+      </c>
+      <c r="G75">
+        <v>455.14600000000002</v>
+      </c>
+      <c r="H75">
+        <v>167.626</v>
+      </c>
+      <c r="I75">
+        <v>51.991999999999997</v>
+      </c>
+      <c r="J75">
+        <v>398415.375</v>
+      </c>
+      <c r="K75">
+        <v>3.5</v>
+      </c>
+      <c r="L75">
+        <v>3</v>
+      </c>
+      <c r="M75">
+        <v>7.4429999999999996</v>
+      </c>
+      <c r="N75">
+        <v>4.8940000000000001</v>
+      </c>
+      <c r="O75">
+        <v>1.371</v>
+      </c>
+      <c r="P75">
+        <v>21000</v>
+      </c>
+      <c r="Q75">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>16</v>
+      </c>
+      <c r="C76">
+        <v>1919</v>
+      </c>
+      <c r="D76">
+        <v>1948</v>
+      </c>
+      <c r="E76">
+        <v>6</v>
+      </c>
+      <c r="F76">
+        <v>166.934</v>
+      </c>
+      <c r="G76">
+        <v>223.42500000000001</v>
+      </c>
+      <c r="H76">
+        <v>130.68299999999999</v>
+      </c>
+      <c r="I76">
+        <v>47.222000000000001</v>
+      </c>
+      <c r="J76">
+        <v>338121.65600000002</v>
+      </c>
+      <c r="K76">
+        <v>3.5</v>
+      </c>
+      <c r="L76">
+        <v>3</v>
+      </c>
+      <c r="M76">
+        <v>12.082000000000001</v>
+      </c>
+      <c r="N76">
+        <v>5.7439999999999998</v>
+      </c>
+      <c r="O76">
+        <v>1.9810000000000001</v>
+      </c>
+      <c r="P76">
+        <v>21000</v>
+      </c>
+      <c r="Q76">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77">
+        <v>1919</v>
+      </c>
+      <c r="D77">
+        <v>1948</v>
+      </c>
+      <c r="E77">
+        <v>6</v>
+      </c>
+      <c r="F77">
+        <v>166.934</v>
+      </c>
+      <c r="G77">
+        <v>400.93200000000002</v>
+      </c>
+      <c r="H77">
+        <v>169.65799999999999</v>
+      </c>
+      <c r="I77">
+        <v>47.222000000000001</v>
+      </c>
+      <c r="J77">
+        <v>338121.65600000002</v>
+      </c>
+      <c r="K77">
+        <v>3.5</v>
+      </c>
+      <c r="L77">
+        <v>3</v>
+      </c>
+      <c r="M77">
+        <v>12.082000000000001</v>
+      </c>
+      <c r="N77">
+        <v>5.7439999999999998</v>
+      </c>
+      <c r="O77">
+        <v>1.9810000000000001</v>
+      </c>
+      <c r="P77">
+        <v>21000</v>
+      </c>
+      <c r="Q77">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>16</v>
+      </c>
+      <c r="C78">
+        <v>1949</v>
+      </c>
+      <c r="D78">
+        <v>1957</v>
+      </c>
+      <c r="E78">
+        <v>6</v>
+      </c>
+      <c r="F78">
+        <v>174.14</v>
+      </c>
+      <c r="G78">
+        <v>273.15499999999997</v>
+      </c>
+      <c r="H78">
+        <v>114.283</v>
+      </c>
+      <c r="I78">
+        <v>49.261000000000003</v>
+      </c>
+      <c r="J78">
+        <v>213505.516</v>
+      </c>
+      <c r="K78">
+        <v>3</v>
+      </c>
+      <c r="L78">
+        <v>3</v>
+      </c>
+      <c r="M78">
+        <v>10.037000000000001</v>
+      </c>
+      <c r="N78">
+        <v>4.5330000000000004</v>
+      </c>
+      <c r="O78">
+        <v>1.619</v>
+      </c>
+      <c r="P78">
+        <v>21000</v>
+      </c>
+      <c r="Q78">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>16</v>
+      </c>
+      <c r="C79">
+        <v>1949</v>
+      </c>
+      <c r="D79">
+        <v>1957</v>
+      </c>
+      <c r="E79">
+        <v>6</v>
+      </c>
+      <c r="F79">
+        <v>174.14</v>
+      </c>
+      <c r="G79">
+        <v>303.87599999999998</v>
+      </c>
+      <c r="H79">
+        <v>136.28700000000001</v>
+      </c>
+      <c r="I79">
+        <v>49.261000000000003</v>
+      </c>
+      <c r="J79">
+        <v>213505.516</v>
+      </c>
+      <c r="K79">
+        <v>3</v>
+      </c>
+      <c r="L79">
+        <v>3</v>
+      </c>
+      <c r="M79">
+        <v>10.037000000000001</v>
+      </c>
+      <c r="N79">
+        <v>4.5330000000000004</v>
+      </c>
+      <c r="O79">
+        <v>1.619</v>
+      </c>
+      <c r="P79">
+        <v>21000</v>
+      </c>
+      <c r="Q79">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>16</v>
+      </c>
+      <c r="C80">
+        <v>1958</v>
+      </c>
+      <c r="D80">
+        <v>1968</v>
+      </c>
+      <c r="E80">
+        <v>6</v>
+      </c>
+      <c r="F80">
+        <v>175.60900000000001</v>
+      </c>
+      <c r="G80">
+        <v>302.37900000000002</v>
+      </c>
+      <c r="H80">
+        <v>155.72800000000001</v>
+      </c>
+      <c r="I80">
+        <v>49.676000000000002</v>
+      </c>
+      <c r="J80">
+        <v>213505.516</v>
+      </c>
+      <c r="K80">
+        <v>3</v>
+      </c>
+      <c r="L80">
+        <v>3</v>
+      </c>
+      <c r="M80">
+        <v>13.315</v>
+      </c>
+      <c r="N80">
+        <v>7.7089999999999996</v>
+      </c>
+      <c r="O80">
+        <v>2.3359999999999999</v>
+      </c>
+      <c r="P80">
+        <v>21000</v>
+      </c>
+      <c r="Q80">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>16</v>
+      </c>
+      <c r="C81">
+        <v>1958</v>
+      </c>
+      <c r="D81">
+        <v>1968</v>
+      </c>
+      <c r="E81">
+        <v>6</v>
+      </c>
+      <c r="F81">
+        <v>175.60900000000001</v>
+      </c>
+      <c r="G81">
+        <v>343.971</v>
+      </c>
+      <c r="H81">
+        <v>206.82499999999999</v>
+      </c>
+      <c r="I81">
+        <v>49.676000000000002</v>
+      </c>
+      <c r="J81">
+        <v>213505.516</v>
+      </c>
+      <c r="K81">
+        <v>3</v>
+      </c>
+      <c r="L81">
+        <v>3</v>
+      </c>
+      <c r="M81">
+        <v>13.315</v>
+      </c>
+      <c r="N81">
+        <v>7.7089999999999996</v>
+      </c>
+      <c r="O81">
+        <v>2.3359999999999999</v>
+      </c>
+      <c r="P81">
+        <v>21000</v>
+      </c>
+      <c r="Q81">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>16</v>
+      </c>
+      <c r="C82">
+        <v>1969</v>
+      </c>
+      <c r="D82">
+        <v>1978</v>
+      </c>
+      <c r="E82">
+        <v>6</v>
+      </c>
+      <c r="F82">
+        <v>184.14500000000001</v>
+      </c>
+      <c r="G82">
+        <v>270.49700000000001</v>
+      </c>
+      <c r="H82">
+        <v>150.87700000000001</v>
+      </c>
+      <c r="I82">
+        <v>52.091000000000001</v>
+      </c>
+      <c r="J82">
+        <v>213505.516</v>
+      </c>
+      <c r="K82">
+        <v>3</v>
+      </c>
+      <c r="L82">
+        <v>3</v>
+      </c>
+      <c r="M82">
+        <v>14.753</v>
+      </c>
+      <c r="N82">
+        <v>5.9930000000000003</v>
+      </c>
+      <c r="O82">
+        <v>2.3050000000000002</v>
+      </c>
+      <c r="P82">
+        <v>21000</v>
+      </c>
+      <c r="Q82">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>16</v>
+      </c>
+      <c r="C83">
+        <v>1969</v>
+      </c>
+      <c r="D83">
+        <v>1978</v>
+      </c>
+      <c r="E83">
+        <v>6</v>
+      </c>
+      <c r="F83">
+        <v>184.14500000000001</v>
+      </c>
+      <c r="G83">
+        <v>301.07</v>
+      </c>
+      <c r="H83">
+        <v>180.88900000000001</v>
+      </c>
+      <c r="I83">
+        <v>52.091000000000001</v>
+      </c>
+      <c r="J83">
+        <v>213505.516</v>
+      </c>
+      <c r="K83">
+        <v>3</v>
+      </c>
+      <c r="L83">
+        <v>3</v>
+      </c>
+      <c r="M83">
+        <v>14.753</v>
+      </c>
+      <c r="N83">
+        <v>5.9930000000000003</v>
+      </c>
+      <c r="O83">
+        <v>2.3050000000000002</v>
+      </c>
+      <c r="P83">
+        <v>21000</v>
+      </c>
+      <c r="Q83">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>16</v>
+      </c>
+      <c r="C84">
+        <v>1979</v>
+      </c>
+      <c r="D84">
+        <v>1983</v>
+      </c>
+      <c r="E84">
+        <v>6</v>
+      </c>
+      <c r="F84">
+        <v>185.137</v>
+      </c>
+      <c r="G84">
+        <v>207.054</v>
+      </c>
+      <c r="H84">
+        <v>89.974999999999994</v>
+      </c>
+      <c r="I84">
+        <v>52.371000000000002</v>
+      </c>
+      <c r="J84">
+        <v>213505.516</v>
+      </c>
+      <c r="K84">
+        <v>3</v>
+      </c>
+      <c r="L84">
+        <v>3</v>
+      </c>
+      <c r="M84">
+        <v>8.3230000000000004</v>
+      </c>
+      <c r="N84">
+        <v>5.5490000000000004</v>
+      </c>
+      <c r="O84">
+        <v>1.5409999999999999</v>
+      </c>
+      <c r="P84">
+        <v>21000</v>
+      </c>
+      <c r="Q84">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>16</v>
+      </c>
+      <c r="C85">
+        <v>1979</v>
+      </c>
+      <c r="D85">
+        <v>1983</v>
+      </c>
+      <c r="E85">
+        <v>6</v>
+      </c>
+      <c r="F85">
+        <v>185.137</v>
+      </c>
+      <c r="G85">
+        <v>234.797</v>
+      </c>
+      <c r="H85">
+        <v>160.78899999999999</v>
+      </c>
+      <c r="I85">
+        <v>52.371000000000002</v>
+      </c>
+      <c r="J85">
+        <v>213505.516</v>
+      </c>
+      <c r="K85">
+        <v>3</v>
+      </c>
+      <c r="L85">
+        <v>3</v>
+      </c>
+      <c r="M85">
+        <v>8.3230000000000004</v>
+      </c>
+      <c r="N85">
+        <v>5.5490000000000004</v>
+      </c>
+      <c r="O85">
+        <v>1.5409999999999999</v>
+      </c>
+      <c r="P85">
+        <v>21000</v>
+      </c>
+      <c r="Q85">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>16</v>
+      </c>
+      <c r="C86">
+        <v>1984</v>
+      </c>
+      <c r="D86">
+        <v>1994</v>
+      </c>
+      <c r="E86">
+        <v>6</v>
+      </c>
+      <c r="F86">
+        <v>182.928</v>
+      </c>
+      <c r="G86">
+        <v>145.40700000000001</v>
+      </c>
+      <c r="H86">
+        <v>123.01900000000001</v>
+      </c>
+      <c r="I86">
+        <v>51.747</v>
+      </c>
+      <c r="J86">
+        <v>213505.516</v>
+      </c>
+      <c r="K86">
+        <v>3</v>
+      </c>
+      <c r="L86">
+        <v>3</v>
+      </c>
+      <c r="M86">
+        <v>13.516999999999999</v>
+      </c>
+      <c r="N86">
+        <v>8.2070000000000007</v>
+      </c>
+      <c r="O86">
+        <v>2.4140000000000001</v>
+      </c>
+      <c r="P86">
+        <v>21000</v>
+      </c>
+      <c r="Q86">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>16</v>
+      </c>
+      <c r="C87">
+        <v>1984</v>
+      </c>
+      <c r="D87">
+        <v>1994</v>
+      </c>
+      <c r="E87">
+        <v>6</v>
+      </c>
+      <c r="F87">
+        <v>182.928</v>
+      </c>
+      <c r="G87">
+        <v>160.48099999999999</v>
+      </c>
+      <c r="H87">
+        <v>173.941</v>
+      </c>
+      <c r="I87">
+        <v>51.747</v>
+      </c>
+      <c r="J87">
+        <v>213505.516</v>
+      </c>
+      <c r="K87">
+        <v>3</v>
+      </c>
+      <c r="L87">
+        <v>3</v>
+      </c>
+      <c r="M87">
+        <v>13.516999999999999</v>
+      </c>
+      <c r="N87">
+        <v>8.2070000000000007</v>
+      </c>
+      <c r="O87">
+        <v>2.4140000000000001</v>
+      </c>
+      <c r="P87">
+        <v>21000</v>
+      </c>
+      <c r="Q87">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>16</v>
+      </c>
+      <c r="C88">
+        <v>1995</v>
+      </c>
+      <c r="D88">
+        <v>2012</v>
+      </c>
+      <c r="E88">
+        <v>6</v>
+      </c>
+      <c r="F88">
+        <v>155.95400000000001</v>
+      </c>
+      <c r="G88">
+        <v>87.111000000000004</v>
+      </c>
+      <c r="H88">
+        <v>49.99</v>
+      </c>
+      <c r="I88">
+        <v>48.527999999999999</v>
+      </c>
+      <c r="J88">
+        <v>148226.875</v>
+      </c>
+      <c r="K88">
+        <v>2.6669999999999998</v>
+      </c>
+      <c r="L88">
+        <v>3</v>
+      </c>
+      <c r="M88">
+        <v>7.86</v>
+      </c>
+      <c r="N88">
+        <v>3.3679999999999999</v>
+      </c>
+      <c r="O88">
+        <v>1.248</v>
+      </c>
+      <c r="P88">
+        <v>21000</v>
+      </c>
+      <c r="Q88">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>16</v>
+      </c>
+      <c r="C89">
+        <v>1995</v>
+      </c>
+      <c r="D89">
+        <v>2012</v>
+      </c>
+      <c r="E89">
+        <v>6</v>
+      </c>
+      <c r="F89">
+        <v>155.95400000000001</v>
+      </c>
+      <c r="G89">
+        <v>95.355000000000004</v>
+      </c>
+      <c r="H89">
+        <v>60.34</v>
+      </c>
+      <c r="I89">
+        <v>48.527999999999999</v>
+      </c>
+      <c r="J89">
+        <v>148226.875</v>
+      </c>
+      <c r="K89">
+        <v>2.6669999999999998</v>
+      </c>
+      <c r="L89">
+        <v>3</v>
+      </c>
+      <c r="M89">
+        <v>7.86</v>
+      </c>
+      <c r="N89">
+        <v>3.3679999999999999</v>
+      </c>
+      <c r="O89">
+        <v>1.248</v>
+      </c>
+      <c r="P89">
+        <v>21000</v>
+      </c>
+      <c r="Q89">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>16</v>
+      </c>
+      <c r="C90">
+        <v>2012</v>
+      </c>
+      <c r="D90">
+        <v>2022</v>
+      </c>
+      <c r="E90">
+        <v>6</v>
+      </c>
+      <c r="F90">
+        <v>155.95400000000001</v>
+      </c>
+      <c r="G90">
+        <v>75.715000000000003</v>
+      </c>
+      <c r="H90">
+        <v>48.85</v>
+      </c>
+      <c r="I90">
+        <v>48.527999999999999</v>
+      </c>
+      <c r="J90">
+        <v>148226.875</v>
+      </c>
+      <c r="K90">
+        <v>2.6669999999999998</v>
+      </c>
+      <c r="L90">
+        <v>3</v>
+      </c>
+      <c r="M90">
+        <v>7.86</v>
+      </c>
+      <c r="N90">
+        <v>3.3679999999999999</v>
+      </c>
+      <c r="O90">
+        <v>1.248</v>
+      </c>
+      <c r="P90">
+        <v>21000</v>
+      </c>
+      <c r="Q90">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>16</v>
+      </c>
+      <c r="C91">
+        <v>2012</v>
+      </c>
+      <c r="D91">
+        <v>2022</v>
+      </c>
+      <c r="E91">
+        <v>6</v>
+      </c>
+      <c r="F91">
+        <v>155.95400000000001</v>
+      </c>
+      <c r="G91">
+        <v>75.715000000000003</v>
+      </c>
+      <c r="H91">
+        <v>48.85</v>
+      </c>
+      <c r="I91">
+        <v>48.527999999999999</v>
+      </c>
+      <c r="J91">
+        <v>148226.875</v>
+      </c>
+      <c r="K91">
+        <v>2.6669999999999998</v>
+      </c>
+      <c r="L91">
+        <v>3</v>
+      </c>
+      <c r="M91">
+        <v>7.86</v>
+      </c>
+      <c r="N91">
+        <v>3.3679999999999999</v>
+      </c>
+      <c r="O91">
+        <v>1.248</v>
+      </c>
+      <c r="P91">
+        <v>21000</v>
+      </c>
+      <c r="Q91">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:P4" xr:uid="{1B48CFBC-E64D-4A13-BAE3-02D6E7AC7F10}"/>
+  <autoFilter ref="A1:P22" xr:uid="{1B48CFBC-E64D-4A13-BAE3-02D6E7AC7F10}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D2DF58-FC67-BC42-ADA0-88B1915BB0A2}">
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView topLeftCell="I1" zoomScale="140" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:M19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
+    <col min="11" max="11" width="36.6640625" customWidth="1"/>
+    <col min="12" max="12" width="36.5" customWidth="1"/>
+    <col min="13" max="13" width="21.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1880</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1918</v>
+      </c>
+      <c r="D2" s="1">
+        <v>183.79400000000001</v>
+      </c>
+      <c r="E2" s="1">
+        <v>249.86</v>
+      </c>
+      <c r="F2" s="1">
+        <v>99.962000000000003</v>
+      </c>
+      <c r="G2" s="1">
+        <v>51.991999999999997</v>
+      </c>
+      <c r="H2" s="1">
+        <v>398415.375</v>
+      </c>
+      <c r="I2" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="J2" s="1">
+        <v>7.4429999999999996</v>
+      </c>
+      <c r="K2" s="1">
+        <v>4.8940000000000001</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1.371</v>
+      </c>
+      <c r="M2" s="1">
+        <v>3</v>
+      </c>
+      <c r="N2" s="1">
+        <v>147.64099999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1880</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1918</v>
+      </c>
+      <c r="D3" s="1">
+        <v>183.79400000000001</v>
+      </c>
+      <c r="E3" s="1">
+        <v>455.14600000000002</v>
+      </c>
+      <c r="F3" s="1">
+        <v>167.626</v>
+      </c>
+      <c r="G3" s="1">
+        <v>51.991999999999997</v>
+      </c>
+      <c r="H3" s="1">
+        <v>398415.375</v>
+      </c>
+      <c r="I3" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="J3" s="1">
+        <v>7.4429999999999996</v>
+      </c>
+      <c r="K3" s="1">
+        <v>4.8940000000000001</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1.371</v>
+      </c>
+      <c r="M3" s="1">
+        <v>3</v>
+      </c>
+      <c r="N3" s="1">
+        <v>281.483</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1919</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1948</v>
+      </c>
+      <c r="D4" s="1">
+        <v>166.934</v>
+      </c>
+      <c r="E4" s="1">
+        <v>223.42500000000001</v>
+      </c>
+      <c r="F4" s="1">
+        <v>130.68299999999999</v>
+      </c>
+      <c r="G4" s="1">
+        <v>47.222000000000001</v>
+      </c>
+      <c r="H4" s="1">
+        <v>338121.65600000002</v>
+      </c>
+      <c r="I4" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="J4" s="1">
+        <v>12.082000000000001</v>
+      </c>
+      <c r="K4" s="1">
+        <v>5.7439999999999998</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1.9810000000000001</v>
+      </c>
+      <c r="M4" s="1">
+        <v>3</v>
+      </c>
+      <c r="N4" s="1">
+        <v>154.227</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1919</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1948</v>
+      </c>
+      <c r="D5" s="1">
+        <v>166.934</v>
+      </c>
+      <c r="E5" s="1">
+        <v>400.93200000000002</v>
+      </c>
+      <c r="F5" s="1">
+        <v>169.65799999999999</v>
+      </c>
+      <c r="G5" s="1">
+        <v>47.222000000000001</v>
+      </c>
+      <c r="H5" s="1">
+        <v>338121.65600000002</v>
+      </c>
+      <c r="I5" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="J5" s="1">
+        <v>12.082000000000001</v>
+      </c>
+      <c r="K5" s="1">
+        <v>5.7439999999999998</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1.9810000000000001</v>
+      </c>
+      <c r="M5" s="1">
+        <v>3</v>
+      </c>
+      <c r="N5" s="1">
+        <v>269.84100000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1949</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1957</v>
+      </c>
+      <c r="D6" s="1">
+        <v>174.14</v>
+      </c>
+      <c r="E6" s="1">
+        <v>273.15499999999997</v>
+      </c>
+      <c r="F6" s="1">
+        <v>114.283</v>
+      </c>
+      <c r="G6" s="1">
+        <v>49.261000000000003</v>
+      </c>
+      <c r="H6" s="1">
+        <v>213505.516</v>
+      </c>
+      <c r="I6" s="1">
+        <v>3</v>
+      </c>
+      <c r="J6" s="1">
+        <v>10.037000000000001</v>
+      </c>
+      <c r="K6" s="1">
+        <v>4.5330000000000004</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1.619</v>
+      </c>
+      <c r="M6" s="1">
+        <v>3</v>
+      </c>
+      <c r="N6" s="1">
+        <v>173.86600000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1949</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1957</v>
+      </c>
+      <c r="D7" s="1">
+        <v>174.14</v>
+      </c>
+      <c r="E7" s="1">
+        <v>303.87599999999998</v>
+      </c>
+      <c r="F7" s="1">
+        <v>136.28700000000001</v>
+      </c>
+      <c r="G7" s="1">
+        <v>49.261000000000003</v>
+      </c>
+      <c r="H7" s="1">
+        <v>213505.516</v>
+      </c>
+      <c r="I7" s="1">
+        <v>3</v>
+      </c>
+      <c r="J7" s="1">
+        <v>10.037000000000001</v>
+      </c>
+      <c r="K7" s="1">
+        <v>4.5330000000000004</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1.619</v>
+      </c>
+      <c r="M7" s="1">
+        <v>3</v>
+      </c>
+      <c r="N7" s="1">
+        <v>200.95699999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1958</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1968</v>
+      </c>
+      <c r="D8" s="1">
+        <v>175.60900000000001</v>
+      </c>
+      <c r="E8" s="1">
+        <v>302.37900000000002</v>
+      </c>
+      <c r="F8" s="1">
+        <v>155.72800000000001</v>
+      </c>
+      <c r="G8" s="1">
+        <v>49.676000000000002</v>
+      </c>
+      <c r="H8" s="1">
+        <v>213505.516</v>
+      </c>
+      <c r="I8" s="1">
+        <v>3</v>
+      </c>
+      <c r="J8" s="1">
+        <v>13.315</v>
+      </c>
+      <c r="K8" s="1">
+        <v>7.7089999999999996</v>
+      </c>
+      <c r="L8" s="1">
+        <v>2.3359999999999999</v>
+      </c>
+      <c r="M8" s="1">
+        <v>3</v>
+      </c>
+      <c r="N8" s="1">
+        <v>195.95099999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1958</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1968</v>
+      </c>
+      <c r="D9" s="1">
+        <v>175.60900000000001</v>
+      </c>
+      <c r="E9" s="1">
+        <v>343.971</v>
+      </c>
+      <c r="F9" s="1">
+        <v>206.82499999999999</v>
+      </c>
+      <c r="G9" s="1">
+        <v>49.676000000000002</v>
+      </c>
+      <c r="H9" s="1">
+        <v>213505.516</v>
+      </c>
+      <c r="I9" s="1">
+        <v>3</v>
+      </c>
+      <c r="J9" s="1">
+        <v>13.315</v>
+      </c>
+      <c r="K9" s="1">
+        <v>7.7089999999999996</v>
+      </c>
+      <c r="L9" s="1">
+        <v>2.3359999999999999</v>
+      </c>
+      <c r="M9" s="1">
+        <v>3</v>
+      </c>
+      <c r="N9" s="1">
+        <v>243.44399999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1969</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1978</v>
+      </c>
+      <c r="D10" s="1">
+        <v>184.14500000000001</v>
+      </c>
+      <c r="E10" s="1">
+        <v>270.49700000000001</v>
+      </c>
+      <c r="F10" s="1">
+        <v>150.87700000000001</v>
+      </c>
+      <c r="G10" s="1">
+        <v>52.091000000000001</v>
+      </c>
+      <c r="H10" s="1">
+        <v>213505.516</v>
+      </c>
+      <c r="I10" s="1">
+        <v>3</v>
+      </c>
+      <c r="J10" s="1">
+        <v>14.753</v>
+      </c>
+      <c r="K10" s="1">
+        <v>5.9930000000000003</v>
+      </c>
+      <c r="L10" s="1">
+        <v>2.3050000000000002</v>
+      </c>
+      <c r="M10" s="1">
+        <v>3</v>
+      </c>
+      <c r="N10" s="1">
+        <v>170.79499999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1969</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1978</v>
+      </c>
+      <c r="D11" s="1">
+        <v>184.14500000000001</v>
+      </c>
+      <c r="E11" s="1">
+        <v>301.07</v>
+      </c>
+      <c r="F11" s="1">
+        <v>180.88900000000001</v>
+      </c>
+      <c r="G11" s="1">
+        <v>52.091000000000001</v>
+      </c>
+      <c r="H11" s="1">
+        <v>213505.516</v>
+      </c>
+      <c r="I11" s="1">
+        <v>3</v>
+      </c>
+      <c r="J11" s="1">
+        <v>14.753</v>
+      </c>
+      <c r="K11" s="1">
+        <v>5.9930000000000003</v>
+      </c>
+      <c r="L11" s="1">
+        <v>2.3050000000000002</v>
+      </c>
+      <c r="M11" s="1">
+        <v>3</v>
+      </c>
+      <c r="N11" s="1">
+        <v>200.227</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1979</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1983</v>
+      </c>
+      <c r="D12" s="1">
+        <v>185.137</v>
+      </c>
+      <c r="E12" s="1">
+        <v>207.054</v>
+      </c>
+      <c r="F12" s="1">
+        <v>89.974999999999994</v>
+      </c>
+      <c r="G12" s="1">
+        <v>52.371000000000002</v>
+      </c>
+      <c r="H12" s="1">
+        <v>213505.516</v>
+      </c>
+      <c r="I12" s="1">
+        <v>3</v>
+      </c>
+      <c r="J12" s="1">
+        <v>8.3230000000000004</v>
+      </c>
+      <c r="K12" s="1">
+        <v>5.5490000000000004</v>
+      </c>
+      <c r="L12" s="1">
+        <v>1.5409999999999999</v>
+      </c>
+      <c r="M12" s="1">
+        <v>3</v>
+      </c>
+      <c r="N12" s="1">
+        <v>121.051</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1979</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1983</v>
+      </c>
+      <c r="D13" s="1">
+        <v>185.137</v>
+      </c>
+      <c r="E13" s="1">
+        <v>234.797</v>
+      </c>
+      <c r="F13" s="1">
+        <v>160.78899999999999</v>
+      </c>
+      <c r="G13" s="1">
+        <v>52.371000000000002</v>
+      </c>
+      <c r="H13" s="1">
+        <v>213505.516</v>
+      </c>
+      <c r="I13" s="1">
+        <v>3</v>
+      </c>
+      <c r="J13" s="1">
+        <v>8.3230000000000004</v>
+      </c>
+      <c r="K13" s="1">
+        <v>5.5490000000000004</v>
+      </c>
+      <c r="L13" s="1">
+        <v>1.5409999999999999</v>
+      </c>
+      <c r="M13" s="1">
+        <v>3</v>
+      </c>
+      <c r="N13" s="1">
+        <v>168.96600000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1984</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1994</v>
+      </c>
+      <c r="D14" s="1">
+        <v>182.928</v>
+      </c>
+      <c r="E14" s="1">
+        <v>145.40700000000001</v>
+      </c>
+      <c r="F14" s="1">
+        <v>123.01900000000001</v>
+      </c>
+      <c r="G14" s="1">
+        <v>51.747</v>
+      </c>
+      <c r="H14" s="1">
+        <v>213505.516</v>
+      </c>
+      <c r="I14" s="1">
+        <v>3</v>
+      </c>
+      <c r="J14" s="1">
+        <v>13.516999999999999</v>
+      </c>
+      <c r="K14" s="1">
+        <v>8.2070000000000007</v>
+      </c>
+      <c r="L14" s="1">
+        <v>2.4140000000000001</v>
+      </c>
+      <c r="M14" s="1">
+        <v>3</v>
+      </c>
+      <c r="N14" s="1">
+        <v>97.078000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1984</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1994</v>
+      </c>
+      <c r="D15" s="1">
+        <v>182.928</v>
+      </c>
+      <c r="E15" s="1">
+        <v>160.48099999999999</v>
+      </c>
+      <c r="F15" s="1">
+        <v>173.941</v>
+      </c>
+      <c r="G15" s="1">
+        <v>51.747</v>
+      </c>
+      <c r="H15" s="1">
+        <v>213505.516</v>
+      </c>
+      <c r="I15" s="1">
+        <v>3</v>
+      </c>
+      <c r="J15" s="1">
+        <v>13.516999999999999</v>
+      </c>
+      <c r="K15" s="1">
+        <v>8.2070000000000007</v>
+      </c>
+      <c r="L15" s="1">
+        <v>2.4140000000000001</v>
+      </c>
+      <c r="M15" s="1">
+        <v>3</v>
+      </c>
+      <c r="N15" s="1">
+        <v>128.078</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1995</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2012</v>
+      </c>
+      <c r="D16" s="1">
+        <v>155.95400000000001</v>
+      </c>
+      <c r="E16" s="1">
+        <v>87.111000000000004</v>
+      </c>
+      <c r="F16" s="1">
+        <v>49.99</v>
+      </c>
+      <c r="G16" s="1">
+        <v>48.527999999999999</v>
+      </c>
+      <c r="H16" s="1">
+        <v>148226.875</v>
+      </c>
+      <c r="I16" s="1">
+        <v>2.6669999999999998</v>
+      </c>
+      <c r="J16" s="1">
+        <v>7.86</v>
+      </c>
+      <c r="K16" s="1">
+        <v>3.3679999999999999</v>
+      </c>
+      <c r="L16" s="1">
+        <v>1.248</v>
+      </c>
+      <c r="M16" s="1">
+        <v>3</v>
+      </c>
+      <c r="N16" s="1">
+        <v>64.554000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1995</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2012</v>
+      </c>
+      <c r="D17" s="1">
+        <v>155.95400000000001</v>
+      </c>
+      <c r="E17" s="1">
+        <v>95.355000000000004</v>
+      </c>
+      <c r="F17" s="1">
+        <v>60.34</v>
+      </c>
+      <c r="G17" s="1">
+        <v>48.527999999999999</v>
+      </c>
+      <c r="H17" s="1">
+        <v>148226.875</v>
+      </c>
+      <c r="I17" s="1">
+        <v>2.6669999999999998</v>
+      </c>
+      <c r="J17" s="1">
+        <v>7.86</v>
+      </c>
+      <c r="K17" s="1">
+        <v>3.3679999999999999</v>
+      </c>
+      <c r="L17" s="1">
+        <v>1.248</v>
+      </c>
+      <c r="M17" s="1">
+        <v>3</v>
+      </c>
+      <c r="N17" s="1">
+        <v>74.691999999999993</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2022</v>
+      </c>
+      <c r="D18" s="1">
+        <v>155.95400000000001</v>
+      </c>
+      <c r="E18" s="1">
+        <v>75.715000000000003</v>
+      </c>
+      <c r="F18" s="1">
+        <v>48.85</v>
+      </c>
+      <c r="G18" s="1">
+        <v>48.527999999999999</v>
+      </c>
+      <c r="H18" s="1">
+        <v>148226.875</v>
+      </c>
+      <c r="I18" s="1">
+        <v>2.6669999999999998</v>
+      </c>
+      <c r="J18" s="1">
+        <v>7.86</v>
+      </c>
+      <c r="K18" s="1">
+        <v>3.3679999999999999</v>
+      </c>
+      <c r="L18" s="1">
+        <v>1.248</v>
+      </c>
+      <c r="M18" s="1">
+        <v>3</v>
+      </c>
+      <c r="N18" s="1">
+        <v>57.825000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2022</v>
+      </c>
+      <c r="D19" s="3">
+        <v>155.95400000000001</v>
+      </c>
+      <c r="E19" s="3">
+        <v>75.715000000000003</v>
+      </c>
+      <c r="F19" s="3">
+        <v>48.85</v>
+      </c>
+      <c r="G19" s="3">
+        <v>48.527999999999999</v>
+      </c>
+      <c r="H19" s="3">
+        <v>148226.875</v>
+      </c>
+      <c r="I19" s="3">
+        <v>2.6669999999999998</v>
+      </c>
+      <c r="J19" s="3">
+        <v>7.86</v>
+      </c>
+      <c r="K19" s="3">
+        <v>3.3679999999999999</v>
+      </c>
+      <c r="L19" s="3">
+        <v>1.248</v>
+      </c>
+      <c r="M19" s="3">
+        <v>3</v>
+      </c>
+      <c r="N19" s="3">
+        <v>57.825000000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N19">
+    <sortCondition ref="B1:B19"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/data/input_operation/OperationScenario_Component_Building.xlsx
+++ b/data/input_operation/OperationScenario_Component_Building.xlsx
@@ -1,18 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/FLEX/data/input_operation/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE2057BB-CCA9-2B41-86C9-F912908E4119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="15960" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="OperationScenario_Component_Bui" sheetId="1" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId5"/>
+    <sheet name="OperationScenario_Component_Bui" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="41">
   <si>
     <t>ID_Building</t>
   </si>
@@ -140,31 +149,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -436,77 +433,32 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+  <cellXfs count="21">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -515,27 +467,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ff4472c4"/>
-      <rgbColor rgb="ffd9e2f3"/>
-      <rgbColor rgb="ff8eaadb"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FF4472C4"/>
+      <rgbColor rgb="FFD9E2F3"/>
+      <rgbColor rgb="FF8EAADB"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -737,7 +747,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -755,7 +765,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -784,7 +794,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -809,7 +819,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -834,7 +844,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -859,7 +869,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -884,7 +894,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -909,7 +919,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -934,7 +944,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -959,7 +969,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -984,7 +994,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -997,9 +1007,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1016,7 +1032,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1034,7 +1050,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1059,7 +1075,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1084,7 +1100,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1109,7 +1125,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1134,7 +1150,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1159,7 +1175,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1184,7 +1200,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1209,7 +1225,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1234,7 +1250,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1259,7 +1275,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1272,9 +1288,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1288,7 +1310,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1306,7 +1328,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1335,7 +1357,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1360,7 +1382,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1385,7 +1407,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1410,7 +1432,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1435,7 +1457,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1460,7 +1482,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1485,7 +1507,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1510,7 +1532,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1535,7 +1557,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1548,96 +1570,106 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q91"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34:D35"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.8516" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="24" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.1719" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1719" style="1" customWidth="1"/>
-    <col min="6" max="12" width="10.8516" style="1" customWidth="1"/>
-    <col min="13" max="13" width="29.8516" style="1" customWidth="1"/>
-    <col min="14" max="14" width="26.3516" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" style="1" customWidth="1"/>
+    <col min="6" max="12" width="10.83203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="29.83203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="26.33203125" style="1" customWidth="1"/>
     <col min="15" max="15" width="26.5" style="1" customWidth="1"/>
-    <col min="16" max="16" width="16.3516" style="1" customWidth="1"/>
-    <col min="17" max="17" width="16.6719" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="10.8516" style="1" customWidth="1"/>
+    <col min="16" max="16" width="16.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="16.6640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10.83203125" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.55" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s" s="2">
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="2">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="2">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="2">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s" s="2">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s" s="2">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s" s="2">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s" s="2">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s" s="2">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" ht="13.55" customHeight="1">
+    <row r="2" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="2">
+      <c r="B2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="3">
@@ -1650,16 +1682,16 @@
         <v>2</v>
       </c>
       <c r="F2" s="3">
-        <v>183.794</v>
+        <v>183.79400000000001</v>
       </c>
       <c r="G2" s="3">
         <v>249.86</v>
       </c>
       <c r="H2" s="3">
-        <v>99.962</v>
+        <v>99.962000000000003</v>
       </c>
       <c r="I2" s="3">
-        <v>51.992</v>
+        <v>51.991999999999997</v>
       </c>
       <c r="J2" s="3">
         <v>398415.375</v>
@@ -1671,10 +1703,10 @@
         <v>3</v>
       </c>
       <c r="M2" s="3">
-        <v>7.443</v>
+        <v>7.4429999999999996</v>
       </c>
       <c r="N2" s="3">
-        <v>4.894</v>
+        <v>4.8940000000000001</v>
       </c>
       <c r="O2" s="3">
         <v>1.371</v>
@@ -1686,11 +1718,11 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" ht="13.55" customHeight="1">
+    <row r="3" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="3">
@@ -1703,16 +1735,16 @@
         <v>2</v>
       </c>
       <c r="F3" s="3">
-        <v>183.794</v>
+        <v>183.79400000000001</v>
       </c>
       <c r="G3" s="3">
-        <v>455.146</v>
+        <v>455.14600000000002</v>
       </c>
       <c r="H3" s="3">
         <v>167.626</v>
       </c>
       <c r="I3" s="3">
-        <v>51.992</v>
+        <v>51.991999999999997</v>
       </c>
       <c r="J3" s="3">
         <v>398415.375</v>
@@ -1724,10 +1756,10 @@
         <v>3</v>
       </c>
       <c r="M3" s="3">
-        <v>7.443</v>
+        <v>7.4429999999999996</v>
       </c>
       <c r="N3" s="3">
-        <v>4.894</v>
+        <v>4.8940000000000001</v>
       </c>
       <c r="O3" s="3">
         <v>1.371</v>
@@ -1739,11 +1771,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" ht="13.55" customHeight="1">
+    <row r="4" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" t="s" s="2">
+      <c r="B4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="3">
@@ -1759,16 +1791,16 @@
         <v>166.934</v>
       </c>
       <c r="G4" s="3">
-        <v>223.425</v>
+        <v>223.42500000000001</v>
       </c>
       <c r="H4" s="3">
-        <v>130.683</v>
+        <v>130.68299999999999</v>
       </c>
       <c r="I4" s="3">
-        <v>47.222</v>
+        <v>47.222000000000001</v>
       </c>
       <c r="J4" s="3">
-        <v>338121.656</v>
+        <v>338121.65600000002</v>
       </c>
       <c r="K4" s="3">
         <v>3.5</v>
@@ -1777,13 +1809,13 @@
         <v>3</v>
       </c>
       <c r="M4" s="3">
-        <v>12.082</v>
+        <v>12.082000000000001</v>
       </c>
       <c r="N4" s="3">
-        <v>5.744</v>
+        <v>5.7439999999999998</v>
       </c>
       <c r="O4" s="3">
-        <v>1.981</v>
+        <v>1.9810000000000001</v>
       </c>
       <c r="P4" s="3">
         <v>21000</v>
@@ -1792,11 +1824,11 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" ht="13.55" customHeight="1">
+    <row r="5" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" t="s" s="2">
+      <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3">
@@ -1812,16 +1844,16 @@
         <v>166.934</v>
       </c>
       <c r="G5" s="3">
-        <v>400.932</v>
+        <v>400.93200000000002</v>
       </c>
       <c r="H5" s="3">
-        <v>169.658</v>
+        <v>169.65799999999999</v>
       </c>
       <c r="I5" s="3">
-        <v>47.222</v>
+        <v>47.222000000000001</v>
       </c>
       <c r="J5" s="3">
-        <v>338121.656</v>
+        <v>338121.65600000002</v>
       </c>
       <c r="K5" s="3">
         <v>3.5</v>
@@ -1830,13 +1862,13 @@
         <v>3</v>
       </c>
       <c r="M5" s="3">
-        <v>12.082</v>
+        <v>12.082000000000001</v>
       </c>
       <c r="N5" s="3">
-        <v>5.744</v>
+        <v>5.7439999999999998</v>
       </c>
       <c r="O5" s="3">
-        <v>1.981</v>
+        <v>1.9810000000000001</v>
       </c>
       <c r="P5" s="3">
         <v>21000</v>
@@ -1845,11 +1877,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" ht="13.55" customHeight="1">
+    <row r="6" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" t="s" s="2">
+      <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="3">
@@ -1865,13 +1897,13 @@
         <v>174.14</v>
       </c>
       <c r="G6" s="3">
-        <v>273.155</v>
+        <v>273.15499999999997</v>
       </c>
       <c r="H6" s="3">
         <v>114.283</v>
       </c>
       <c r="I6" s="3">
-        <v>49.261</v>
+        <v>49.261000000000003</v>
       </c>
       <c r="J6" s="3">
         <v>213505.516</v>
@@ -1883,10 +1915,10 @@
         <v>3</v>
       </c>
       <c r="M6" s="3">
-        <v>10.037</v>
+        <v>10.037000000000001</v>
       </c>
       <c r="N6" s="3">
-        <v>4.533</v>
+        <v>4.5330000000000004</v>
       </c>
       <c r="O6" s="3">
         <v>1.619</v>
@@ -1898,11 +1930,11 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" ht="13.55" customHeight="1">
+    <row r="7" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" t="s" s="2">
+      <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="3">
@@ -1918,13 +1950,13 @@
         <v>174.14</v>
       </c>
       <c r="G7" s="3">
-        <v>303.876</v>
+        <v>303.87599999999998</v>
       </c>
       <c r="H7" s="3">
-        <v>136.287</v>
+        <v>136.28700000000001</v>
       </c>
       <c r="I7" s="3">
-        <v>49.261</v>
+        <v>49.261000000000003</v>
       </c>
       <c r="J7" s="3">
         <v>213505.516</v>
@@ -1936,10 +1968,10 @@
         <v>3</v>
       </c>
       <c r="M7" s="3">
-        <v>10.037</v>
+        <v>10.037000000000001</v>
       </c>
       <c r="N7" s="3">
-        <v>4.533</v>
+        <v>4.5330000000000004</v>
       </c>
       <c r="O7" s="3">
         <v>1.619</v>
@@ -1951,11 +1983,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" ht="13.55" customHeight="1">
+    <row r="8" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" t="s" s="2">
+      <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="3">
@@ -1968,16 +2000,16 @@
         <v>2</v>
       </c>
       <c r="F8" s="3">
-        <v>175.609</v>
+        <v>175.60900000000001</v>
       </c>
       <c r="G8" s="3">
-        <v>302.379</v>
+        <v>302.37900000000002</v>
       </c>
       <c r="H8" s="3">
-        <v>155.728</v>
+        <v>155.72800000000001</v>
       </c>
       <c r="I8" s="3">
-        <v>49.676</v>
+        <v>49.676000000000002</v>
       </c>
       <c r="J8" s="3">
         <v>213505.516</v>
@@ -1992,10 +2024,10 @@
         <v>13.315</v>
       </c>
       <c r="N8" s="3">
-        <v>7.709</v>
+        <v>7.7089999999999996</v>
       </c>
       <c r="O8" s="3">
-        <v>2.336</v>
+        <v>2.3359999999999999</v>
       </c>
       <c r="P8" s="3">
         <v>21000</v>
@@ -2004,11 +2036,11 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" ht="13.55" customHeight="1">
+    <row r="9" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" t="s" s="2">
+      <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="3">
@@ -2021,16 +2053,16 @@
         <v>2</v>
       </c>
       <c r="F9" s="3">
-        <v>175.609</v>
+        <v>175.60900000000001</v>
       </c>
       <c r="G9" s="3">
         <v>343.971</v>
       </c>
       <c r="H9" s="3">
-        <v>206.825</v>
+        <v>206.82499999999999</v>
       </c>
       <c r="I9" s="3">
-        <v>49.676</v>
+        <v>49.676000000000002</v>
       </c>
       <c r="J9" s="3">
         <v>213505.516</v>
@@ -2045,10 +2077,10 @@
         <v>13.315</v>
       </c>
       <c r="N9" s="3">
-        <v>7.709</v>
+        <v>7.7089999999999996</v>
       </c>
       <c r="O9" s="3">
-        <v>2.336</v>
+        <v>2.3359999999999999</v>
       </c>
       <c r="P9" s="3">
         <v>21000</v>
@@ -2057,11 +2089,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" ht="13.55" customHeight="1">
+    <row r="10" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="2">
+      <c r="B10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="3">
@@ -2074,16 +2106,16 @@
         <v>2</v>
       </c>
       <c r="F10" s="3">
-        <v>184.145</v>
+        <v>184.14500000000001</v>
       </c>
       <c r="G10" s="3">
-        <v>270.497</v>
+        <v>270.49700000000001</v>
       </c>
       <c r="H10" s="3">
-        <v>150.877</v>
+        <v>150.87700000000001</v>
       </c>
       <c r="I10" s="3">
-        <v>52.091</v>
+        <v>52.091000000000001</v>
       </c>
       <c r="J10" s="3">
         <v>213505.516</v>
@@ -2098,10 +2130,10 @@
         <v>14.753</v>
       </c>
       <c r="N10" s="3">
-        <v>5.993</v>
+        <v>5.9930000000000003</v>
       </c>
       <c r="O10" s="3">
-        <v>2.305</v>
+        <v>2.3050000000000002</v>
       </c>
       <c r="P10" s="3">
         <v>21000</v>
@@ -2110,11 +2142,11 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" ht="13.55" customHeight="1">
+    <row r="11" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" t="s" s="2">
+      <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="3">
@@ -2127,16 +2159,16 @@
         <v>2</v>
       </c>
       <c r="F11" s="3">
-        <v>184.145</v>
+        <v>184.14500000000001</v>
       </c>
       <c r="G11" s="3">
         <v>301.07</v>
       </c>
       <c r="H11" s="3">
-        <v>180.889</v>
+        <v>180.88900000000001</v>
       </c>
       <c r="I11" s="3">
-        <v>52.091</v>
+        <v>52.091000000000001</v>
       </c>
       <c r="J11" s="3">
         <v>213505.516</v>
@@ -2151,10 +2183,10 @@
         <v>14.753</v>
       </c>
       <c r="N11" s="3">
-        <v>5.993</v>
+        <v>5.9930000000000003</v>
       </c>
       <c r="O11" s="3">
-        <v>2.305</v>
+        <v>2.3050000000000002</v>
       </c>
       <c r="P11" s="3">
         <v>21000</v>
@@ -2163,11 +2195,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" ht="13.55" customHeight="1">
+    <row r="12" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" t="s" s="2">
+      <c r="B12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="3">
@@ -2186,10 +2218,10 @@
         <v>207.054</v>
       </c>
       <c r="H12" s="3">
-        <v>89.97499999999999</v>
+        <v>89.974999999999994</v>
       </c>
       <c r="I12" s="3">
-        <v>52.371</v>
+        <v>52.371000000000002</v>
       </c>
       <c r="J12" s="3">
         <v>213505.516</v>
@@ -2201,13 +2233,13 @@
         <v>3</v>
       </c>
       <c r="M12" s="3">
-        <v>8.323</v>
+        <v>8.3230000000000004</v>
       </c>
       <c r="N12" s="3">
-        <v>5.549</v>
+        <v>5.5490000000000004</v>
       </c>
       <c r="O12" s="3">
-        <v>1.541</v>
+        <v>1.5409999999999999</v>
       </c>
       <c r="P12" s="3">
         <v>21000</v>
@@ -2216,11 +2248,11 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" ht="13.55" customHeight="1">
+    <row r="13" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" t="s" s="2">
+      <c r="B13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="3">
@@ -2239,10 +2271,10 @@
         <v>234.797</v>
       </c>
       <c r="H13" s="3">
-        <v>160.789</v>
+        <v>160.78899999999999</v>
       </c>
       <c r="I13" s="3">
-        <v>52.371</v>
+        <v>52.371000000000002</v>
       </c>
       <c r="J13" s="3">
         <v>213505.516</v>
@@ -2254,13 +2286,13 @@
         <v>3</v>
       </c>
       <c r="M13" s="3">
-        <v>8.323</v>
+        <v>8.3230000000000004</v>
       </c>
       <c r="N13" s="3">
-        <v>5.549</v>
+        <v>5.5490000000000004</v>
       </c>
       <c r="O13" s="3">
-        <v>1.541</v>
+        <v>1.5409999999999999</v>
       </c>
       <c r="P13" s="3">
         <v>21000</v>
@@ -2269,11 +2301,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" ht="13.55" customHeight="1">
+    <row r="14" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" t="s" s="2">
+      <c r="B14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="3">
@@ -2289,10 +2321,10 @@
         <v>182.928</v>
       </c>
       <c r="G14" s="3">
-        <v>145.407</v>
+        <v>145.40700000000001</v>
       </c>
       <c r="H14" s="3">
-        <v>123.019</v>
+        <v>123.01900000000001</v>
       </c>
       <c r="I14" s="3">
         <v>51.747</v>
@@ -2307,13 +2339,13 @@
         <v>3</v>
       </c>
       <c r="M14" s="3">
-        <v>13.517</v>
+        <v>13.516999999999999</v>
       </c>
       <c r="N14" s="3">
-        <v>8.207000000000001</v>
+        <v>8.2070000000000007</v>
       </c>
       <c r="O14" s="3">
-        <v>2.414</v>
+        <v>2.4140000000000001</v>
       </c>
       <c r="P14" s="3">
         <v>21000</v>
@@ -2322,11 +2354,11 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" ht="13.55" customHeight="1">
+    <row r="15" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" t="s" s="2">
+      <c r="B15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="3">
@@ -2342,7 +2374,7 @@
         <v>182.928</v>
       </c>
       <c r="G15" s="3">
-        <v>160.481</v>
+        <v>160.48099999999999</v>
       </c>
       <c r="H15" s="3">
         <v>173.941</v>
@@ -2360,13 +2392,13 @@
         <v>3</v>
       </c>
       <c r="M15" s="3">
-        <v>13.517</v>
+        <v>13.516999999999999</v>
       </c>
       <c r="N15" s="3">
-        <v>8.207000000000001</v>
+        <v>8.2070000000000007</v>
       </c>
       <c r="O15" s="3">
-        <v>2.414</v>
+        <v>2.4140000000000001</v>
       </c>
       <c r="P15" s="3">
         <v>21000</v>
@@ -2375,11 +2407,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" ht="13.55" customHeight="1">
+    <row r="16" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" t="s" s="2">
+      <c r="B16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="3">
@@ -2392,22 +2424,22 @@
         <v>2</v>
       </c>
       <c r="F16" s="3">
-        <v>155.954</v>
+        <v>155.95400000000001</v>
       </c>
       <c r="G16" s="3">
-        <v>87.111</v>
+        <v>87.111000000000004</v>
       </c>
       <c r="H16" s="3">
         <v>49.99</v>
       </c>
       <c r="I16" s="3">
-        <v>48.528</v>
+        <v>48.527999999999999</v>
       </c>
       <c r="J16" s="3">
         <v>148226.875</v>
       </c>
       <c r="K16" s="3">
-        <v>2.667</v>
+        <v>2.6669999999999998</v>
       </c>
       <c r="L16" s="3">
         <v>3</v>
@@ -2416,7 +2448,7 @@
         <v>7.86</v>
       </c>
       <c r="N16" s="3">
-        <v>3.368</v>
+        <v>3.3679999999999999</v>
       </c>
       <c r="O16" s="3">
         <v>1.248</v>
@@ -2428,11 +2460,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" ht="13.55" customHeight="1">
+    <row r="17" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" t="s" s="2">
+      <c r="B17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="3">
@@ -2445,22 +2477,22 @@
         <v>2</v>
       </c>
       <c r="F17" s="3">
-        <v>155.954</v>
+        <v>155.95400000000001</v>
       </c>
       <c r="G17" s="3">
-        <v>95.355</v>
+        <v>95.355000000000004</v>
       </c>
       <c r="H17" s="3">
         <v>60.34</v>
       </c>
       <c r="I17" s="3">
-        <v>48.528</v>
+        <v>48.527999999999999</v>
       </c>
       <c r="J17" s="3">
         <v>148226.875</v>
       </c>
       <c r="K17" s="3">
-        <v>2.667</v>
+        <v>2.6669999999999998</v>
       </c>
       <c r="L17" s="3">
         <v>3</v>
@@ -2469,7 +2501,7 @@
         <v>7.86</v>
       </c>
       <c r="N17" s="3">
-        <v>3.368</v>
+        <v>3.3679999999999999</v>
       </c>
       <c r="O17" s="3">
         <v>1.248</v>
@@ -2481,11 +2513,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" ht="13.55" customHeight="1">
+    <row r="18" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" t="s" s="2">
+      <c r="B18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="3">
@@ -2498,22 +2530,22 @@
         <v>2</v>
       </c>
       <c r="F18" s="3">
-        <v>155.954</v>
+        <v>155.95400000000001</v>
       </c>
       <c r="G18" s="3">
-        <v>75.715</v>
+        <v>75.715000000000003</v>
       </c>
       <c r="H18" s="3">
         <v>48.85</v>
       </c>
       <c r="I18" s="3">
-        <v>48.528</v>
+        <v>48.527999999999999</v>
       </c>
       <c r="J18" s="3">
         <v>148226.875</v>
       </c>
       <c r="K18" s="3">
-        <v>2.667</v>
+        <v>2.6669999999999998</v>
       </c>
       <c r="L18" s="3">
         <v>3</v>
@@ -2522,7 +2554,7 @@
         <v>7.86</v>
       </c>
       <c r="N18" s="3">
-        <v>3.368</v>
+        <v>3.3679999999999999</v>
       </c>
       <c r="O18" s="3">
         <v>1.248</v>
@@ -2534,11 +2566,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" ht="13.55" customHeight="1">
+    <row r="19" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" t="s" s="2">
+      <c r="B19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="3">
@@ -2551,22 +2583,22 @@
         <v>2</v>
       </c>
       <c r="F19" s="3">
-        <v>155.954</v>
+        <v>155.95400000000001</v>
       </c>
       <c r="G19" s="3">
-        <v>75.715</v>
+        <v>75.715000000000003</v>
       </c>
       <c r="H19" s="3">
         <v>48.85</v>
       </c>
       <c r="I19" s="3">
-        <v>48.528</v>
+        <v>48.527999999999999</v>
       </c>
       <c r="J19" s="3">
         <v>148226.875</v>
       </c>
       <c r="K19" s="3">
-        <v>2.667</v>
+        <v>2.6669999999999998</v>
       </c>
       <c r="L19" s="3">
         <v>3</v>
@@ -2575,7 +2607,7 @@
         <v>7.86</v>
       </c>
       <c r="N19" s="3">
-        <v>3.368</v>
+        <v>3.3679999999999999</v>
       </c>
       <c r="O19" s="3">
         <v>1.248</v>
@@ -2587,11 +2619,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" ht="13.55" customHeight="1">
+    <row r="20" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" t="s" s="2">
+      <c r="B20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="3">
@@ -2604,16 +2636,16 @@
         <v>3</v>
       </c>
       <c r="F20" s="3">
-        <v>183.794</v>
+        <v>183.79400000000001</v>
       </c>
       <c r="G20" s="3">
         <v>249.86</v>
       </c>
       <c r="H20" s="3">
-        <v>99.962</v>
+        <v>99.962000000000003</v>
       </c>
       <c r="I20" s="3">
-        <v>51.992</v>
+        <v>51.991999999999997</v>
       </c>
       <c r="J20" s="3">
         <v>398415.375</v>
@@ -2625,10 +2657,10 @@
         <v>3</v>
       </c>
       <c r="M20" s="3">
-        <v>7.443</v>
+        <v>7.4429999999999996</v>
       </c>
       <c r="N20" s="3">
-        <v>4.894</v>
+        <v>4.8940000000000001</v>
       </c>
       <c r="O20" s="3">
         <v>1.371</v>
@@ -2640,11 +2672,11 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" ht="13.55" customHeight="1">
+    <row r="21" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" t="s" s="2">
+      <c r="B21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="3">
@@ -2657,16 +2689,16 @@
         <v>3</v>
       </c>
       <c r="F21" s="3">
-        <v>183.794</v>
+        <v>183.79400000000001</v>
       </c>
       <c r="G21" s="3">
-        <v>455.146</v>
+        <v>455.14600000000002</v>
       </c>
       <c r="H21" s="3">
         <v>167.626</v>
       </c>
       <c r="I21" s="3">
-        <v>51.992</v>
+        <v>51.991999999999997</v>
       </c>
       <c r="J21" s="3">
         <v>398415.375</v>
@@ -2678,10 +2710,10 @@
         <v>3</v>
       </c>
       <c r="M21" s="3">
-        <v>7.443</v>
+        <v>7.4429999999999996</v>
       </c>
       <c r="N21" s="3">
-        <v>4.894</v>
+        <v>4.8940000000000001</v>
       </c>
       <c r="O21" s="3">
         <v>1.371</v>
@@ -2693,11 +2725,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" ht="13.55" customHeight="1">
+    <row r="22" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" t="s" s="2">
+      <c r="B22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="3">
@@ -2713,16 +2745,16 @@
         <v>166.934</v>
       </c>
       <c r="G22" s="3">
-        <v>223.425</v>
+        <v>223.42500000000001</v>
       </c>
       <c r="H22" s="3">
-        <v>130.683</v>
+        <v>130.68299999999999</v>
       </c>
       <c r="I22" s="3">
-        <v>47.222</v>
+        <v>47.222000000000001</v>
       </c>
       <c r="J22" s="3">
-        <v>338121.656</v>
+        <v>338121.65600000002</v>
       </c>
       <c r="K22" s="3">
         <v>3.5</v>
@@ -2731,13 +2763,13 @@
         <v>3</v>
       </c>
       <c r="M22" s="3">
-        <v>12.082</v>
+        <v>12.082000000000001</v>
       </c>
       <c r="N22" s="3">
-        <v>5.744</v>
+        <v>5.7439999999999998</v>
       </c>
       <c r="O22" s="3">
-        <v>1.981</v>
+        <v>1.9810000000000001</v>
       </c>
       <c r="P22" s="3">
         <v>21000</v>
@@ -2746,11 +2778,11 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" ht="13.55" customHeight="1">
+    <row r="23" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" t="s" s="2">
+      <c r="B23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C23" s="3">
@@ -2766,16 +2798,16 @@
         <v>166.934</v>
       </c>
       <c r="G23" s="3">
-        <v>400.932</v>
+        <v>400.93200000000002</v>
       </c>
       <c r="H23" s="3">
-        <v>169.658</v>
+        <v>169.65799999999999</v>
       </c>
       <c r="I23" s="3">
-        <v>47.222</v>
+        <v>47.222000000000001</v>
       </c>
       <c r="J23" s="3">
-        <v>338121.656</v>
+        <v>338121.65600000002</v>
       </c>
       <c r="K23" s="3">
         <v>3.5</v>
@@ -2784,13 +2816,13 @@
         <v>3</v>
       </c>
       <c r="M23" s="3">
-        <v>12.082</v>
+        <v>12.082000000000001</v>
       </c>
       <c r="N23" s="3">
-        <v>5.744</v>
+        <v>5.7439999999999998</v>
       </c>
       <c r="O23" s="3">
-        <v>1.981</v>
+        <v>1.9810000000000001</v>
       </c>
       <c r="P23" s="3">
         <v>21000</v>
@@ -2799,11 +2831,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" ht="13.55" customHeight="1">
+    <row r="24" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" t="s" s="2">
+      <c r="B24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C24" s="3">
@@ -2819,13 +2851,13 @@
         <v>174.14</v>
       </c>
       <c r="G24" s="3">
-        <v>273.155</v>
+        <v>273.15499999999997</v>
       </c>
       <c r="H24" s="3">
         <v>114.283</v>
       </c>
       <c r="I24" s="3">
-        <v>49.261</v>
+        <v>49.261000000000003</v>
       </c>
       <c r="J24" s="3">
         <v>213505.516</v>
@@ -2837,10 +2869,10 @@
         <v>3</v>
       </c>
       <c r="M24" s="3">
-        <v>10.037</v>
+        <v>10.037000000000001</v>
       </c>
       <c r="N24" s="3">
-        <v>4.533</v>
+        <v>4.5330000000000004</v>
       </c>
       <c r="O24" s="3">
         <v>1.619</v>
@@ -2852,11 +2884,11 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" ht="13.55" customHeight="1">
+    <row r="25" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" t="s" s="2">
+      <c r="B25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C25" s="3">
@@ -2872,13 +2904,13 @@
         <v>174.14</v>
       </c>
       <c r="G25" s="3">
-        <v>303.876</v>
+        <v>303.87599999999998</v>
       </c>
       <c r="H25" s="3">
-        <v>136.287</v>
+        <v>136.28700000000001</v>
       </c>
       <c r="I25" s="3">
-        <v>49.261</v>
+        <v>49.261000000000003</v>
       </c>
       <c r="J25" s="3">
         <v>213505.516</v>
@@ -2890,10 +2922,10 @@
         <v>3</v>
       </c>
       <c r="M25" s="3">
-        <v>10.037</v>
+        <v>10.037000000000001</v>
       </c>
       <c r="N25" s="3">
-        <v>4.533</v>
+        <v>4.5330000000000004</v>
       </c>
       <c r="O25" s="3">
         <v>1.619</v>
@@ -2905,11 +2937,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" ht="13.55" customHeight="1">
+    <row r="26" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" t="s" s="2">
+      <c r="B26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C26" s="3">
@@ -2922,16 +2954,16 @@
         <v>3</v>
       </c>
       <c r="F26" s="3">
-        <v>175.609</v>
+        <v>175.60900000000001</v>
       </c>
       <c r="G26" s="3">
-        <v>302.379</v>
+        <v>302.37900000000002</v>
       </c>
       <c r="H26" s="3">
-        <v>155.728</v>
+        <v>155.72800000000001</v>
       </c>
       <c r="I26" s="3">
-        <v>49.676</v>
+        <v>49.676000000000002</v>
       </c>
       <c r="J26" s="3">
         <v>213505.516</v>
@@ -2946,10 +2978,10 @@
         <v>13.315</v>
       </c>
       <c r="N26" s="3">
-        <v>7.709</v>
+        <v>7.7089999999999996</v>
       </c>
       <c r="O26" s="3">
-        <v>2.336</v>
+        <v>2.3359999999999999</v>
       </c>
       <c r="P26" s="3">
         <v>21000</v>
@@ -2958,11 +2990,11 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" ht="13.55" customHeight="1">
+    <row r="27" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B27" t="s" s="2">
+      <c r="B27" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C27" s="3">
@@ -2975,16 +3007,16 @@
         <v>3</v>
       </c>
       <c r="F27" s="3">
-        <v>175.609</v>
+        <v>175.60900000000001</v>
       </c>
       <c r="G27" s="3">
         <v>343.971</v>
       </c>
       <c r="H27" s="3">
-        <v>206.825</v>
+        <v>206.82499999999999</v>
       </c>
       <c r="I27" s="3">
-        <v>49.676</v>
+        <v>49.676000000000002</v>
       </c>
       <c r="J27" s="3">
         <v>213505.516</v>
@@ -2999,10 +3031,10 @@
         <v>13.315</v>
       </c>
       <c r="N27" s="3">
-        <v>7.709</v>
+        <v>7.7089999999999996</v>
       </c>
       <c r="O27" s="3">
-        <v>2.336</v>
+        <v>2.3359999999999999</v>
       </c>
       <c r="P27" s="3">
         <v>21000</v>
@@ -3011,11 +3043,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" ht="13.55" customHeight="1">
+    <row r="28" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>27</v>
       </c>
-      <c r="B28" t="s" s="2">
+      <c r="B28" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C28" s="3">
@@ -3028,16 +3060,16 @@
         <v>3</v>
       </c>
       <c r="F28" s="3">
-        <v>184.145</v>
+        <v>184.14500000000001</v>
       </c>
       <c r="G28" s="3">
-        <v>270.497</v>
+        <v>270.49700000000001</v>
       </c>
       <c r="H28" s="3">
-        <v>150.877</v>
+        <v>150.87700000000001</v>
       </c>
       <c r="I28" s="3">
-        <v>52.091</v>
+        <v>52.091000000000001</v>
       </c>
       <c r="J28" s="3">
         <v>213505.516</v>
@@ -3052,10 +3084,10 @@
         <v>14.753</v>
       </c>
       <c r="N28" s="3">
-        <v>5.993</v>
+        <v>5.9930000000000003</v>
       </c>
       <c r="O28" s="3">
-        <v>2.305</v>
+        <v>2.3050000000000002</v>
       </c>
       <c r="P28" s="3">
         <v>21000</v>
@@ -3064,11 +3096,11 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" ht="13.55" customHeight="1">
+    <row r="29" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="B29" t="s" s="2">
+      <c r="B29" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C29" s="3">
@@ -3081,16 +3113,16 @@
         <v>3</v>
       </c>
       <c r="F29" s="3">
-        <v>184.145</v>
+        <v>184.14500000000001</v>
       </c>
       <c r="G29" s="3">
         <v>301.07</v>
       </c>
       <c r="H29" s="3">
-        <v>180.889</v>
+        <v>180.88900000000001</v>
       </c>
       <c r="I29" s="3">
-        <v>52.091</v>
+        <v>52.091000000000001</v>
       </c>
       <c r="J29" s="3">
         <v>213505.516</v>
@@ -3105,10 +3137,10 @@
         <v>14.753</v>
       </c>
       <c r="N29" s="3">
-        <v>5.993</v>
+        <v>5.9930000000000003</v>
       </c>
       <c r="O29" s="3">
-        <v>2.305</v>
+        <v>2.3050000000000002</v>
       </c>
       <c r="P29" s="3">
         <v>21000</v>
@@ -3117,11 +3149,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" ht="13.55" customHeight="1">
+    <row r="30" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" t="s" s="2">
+      <c r="B30" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C30" s="3">
@@ -3140,10 +3172,10 @@
         <v>207.054</v>
       </c>
       <c r="H30" s="3">
-        <v>89.97499999999999</v>
+        <v>89.974999999999994</v>
       </c>
       <c r="I30" s="3">
-        <v>52.371</v>
+        <v>52.371000000000002</v>
       </c>
       <c r="J30" s="3">
         <v>213505.516</v>
@@ -3155,13 +3187,13 @@
         <v>3</v>
       </c>
       <c r="M30" s="3">
-        <v>8.323</v>
+        <v>8.3230000000000004</v>
       </c>
       <c r="N30" s="3">
-        <v>5.549</v>
+        <v>5.5490000000000004</v>
       </c>
       <c r="O30" s="3">
-        <v>1.541</v>
+        <v>1.5409999999999999</v>
       </c>
       <c r="P30" s="3">
         <v>21000</v>
@@ -3170,11 +3202,11 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" ht="13.55" customHeight="1">
+    <row r="31" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="B31" t="s" s="2">
+      <c r="B31" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C31" s="3">
@@ -3193,10 +3225,10 @@
         <v>234.797</v>
       </c>
       <c r="H31" s="3">
-        <v>160.789</v>
+        <v>160.78899999999999</v>
       </c>
       <c r="I31" s="3">
-        <v>52.371</v>
+        <v>52.371000000000002</v>
       </c>
       <c r="J31" s="3">
         <v>213505.516</v>
@@ -3208,13 +3240,13 @@
         <v>3</v>
       </c>
       <c r="M31" s="3">
-        <v>8.323</v>
+        <v>8.3230000000000004</v>
       </c>
       <c r="N31" s="3">
-        <v>5.549</v>
+        <v>5.5490000000000004</v>
       </c>
       <c r="O31" s="3">
-        <v>1.541</v>
+        <v>1.5409999999999999</v>
       </c>
       <c r="P31" s="3">
         <v>21000</v>
@@ -3223,11 +3255,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" ht="13.55" customHeight="1">
+    <row r="32" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>31</v>
       </c>
-      <c r="B32" t="s" s="2">
+      <c r="B32" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C32" s="3">
@@ -3243,10 +3275,10 @@
         <v>182.928</v>
       </c>
       <c r="G32" s="3">
-        <v>145.407</v>
+        <v>145.40700000000001</v>
       </c>
       <c r="H32" s="3">
-        <v>123.019</v>
+        <v>123.01900000000001</v>
       </c>
       <c r="I32" s="3">
         <v>51.747</v>
@@ -3261,13 +3293,13 @@
         <v>3</v>
       </c>
       <c r="M32" s="3">
-        <v>13.517</v>
+        <v>13.516999999999999</v>
       </c>
       <c r="N32" s="3">
-        <v>8.207000000000001</v>
+        <v>8.2070000000000007</v>
       </c>
       <c r="O32" s="3">
-        <v>2.414</v>
+        <v>2.4140000000000001</v>
       </c>
       <c r="P32" s="3">
         <v>21000</v>
@@ -3276,11 +3308,11 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" ht="13.55" customHeight="1">
+    <row r="33" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>32</v>
       </c>
-      <c r="B33" t="s" s="2">
+      <c r="B33" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C33" s="3">
@@ -3296,7 +3328,7 @@
         <v>182.928</v>
       </c>
       <c r="G33" s="3">
-        <v>160.481</v>
+        <v>160.48099999999999</v>
       </c>
       <c r="H33" s="3">
         <v>173.941</v>
@@ -3314,13 +3346,13 @@
         <v>3</v>
       </c>
       <c r="M33" s="3">
-        <v>13.517</v>
+        <v>13.516999999999999</v>
       </c>
       <c r="N33" s="3">
-        <v>8.207000000000001</v>
+        <v>8.2070000000000007</v>
       </c>
       <c r="O33" s="3">
-        <v>2.414</v>
+        <v>2.4140000000000001</v>
       </c>
       <c r="P33" s="3">
         <v>21000</v>
@@ -3329,39 +3361,39 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" ht="13.55" customHeight="1">
+    <row r="34" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>33</v>
       </c>
-      <c r="B34" t="s" s="2">
+      <c r="B34" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C34" s="3">
         <v>1995</v>
       </c>
       <c r="D34" s="3">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="E34" s="3">
         <v>3</v>
       </c>
       <c r="F34" s="3">
-        <v>155.954</v>
+        <v>155.95400000000001</v>
       </c>
       <c r="G34" s="3">
-        <v>87.111</v>
+        <v>87.111000000000004</v>
       </c>
       <c r="H34" s="3">
         <v>49.99</v>
       </c>
       <c r="I34" s="3">
-        <v>48.528</v>
+        <v>48.527999999999999</v>
       </c>
       <c r="J34" s="3">
         <v>148226.875</v>
       </c>
       <c r="K34" s="3">
-        <v>2.667</v>
+        <v>2.6669999999999998</v>
       </c>
       <c r="L34" s="3">
         <v>3</v>
@@ -3370,7 +3402,7 @@
         <v>7.86</v>
       </c>
       <c r="N34" s="3">
-        <v>3.368</v>
+        <v>3.3679999999999999</v>
       </c>
       <c r="O34" s="3">
         <v>1.248</v>
@@ -3382,39 +3414,39 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" ht="13.55" customHeight="1">
+    <row r="35" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>34</v>
       </c>
-      <c r="B35" t="s" s="2">
+      <c r="B35" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C35" s="3">
         <v>1995</v>
       </c>
       <c r="D35" s="3">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="E35" s="3">
         <v>3</v>
       </c>
       <c r="F35" s="3">
-        <v>155.954</v>
+        <v>155.95400000000001</v>
       </c>
       <c r="G35" s="3">
-        <v>95.355</v>
+        <v>95.355000000000004</v>
       </c>
       <c r="H35" s="3">
         <v>60.34</v>
       </c>
       <c r="I35" s="3">
-        <v>48.528</v>
+        <v>48.527999999999999</v>
       </c>
       <c r="J35" s="3">
         <v>148226.875</v>
       </c>
       <c r="K35" s="3">
-        <v>2.667</v>
+        <v>2.6669999999999998</v>
       </c>
       <c r="L35" s="3">
         <v>3</v>
@@ -3423,7 +3455,7 @@
         <v>7.86</v>
       </c>
       <c r="N35" s="3">
-        <v>3.368</v>
+        <v>3.3679999999999999</v>
       </c>
       <c r="O35" s="3">
         <v>1.248</v>
@@ -3435,11 +3467,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" ht="13.55" customHeight="1">
+    <row r="36" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>35</v>
       </c>
-      <c r="B36" t="s" s="2">
+      <c r="B36" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C36" s="3">
@@ -3452,22 +3484,22 @@
         <v>3</v>
       </c>
       <c r="F36" s="3">
-        <v>155.954</v>
+        <v>155.95400000000001</v>
       </c>
       <c r="G36" s="3">
-        <v>75.715</v>
+        <v>75.715000000000003</v>
       </c>
       <c r="H36" s="3">
         <v>48.85</v>
       </c>
       <c r="I36" s="3">
-        <v>48.528</v>
+        <v>48.527999999999999</v>
       </c>
       <c r="J36" s="3">
         <v>148226.875</v>
       </c>
       <c r="K36" s="3">
-        <v>2.667</v>
+        <v>2.6669999999999998</v>
       </c>
       <c r="L36" s="3">
         <v>3</v>
@@ -3476,7 +3508,7 @@
         <v>7.86</v>
       </c>
       <c r="N36" s="3">
-        <v>3.368</v>
+        <v>3.3679999999999999</v>
       </c>
       <c r="O36" s="3">
         <v>1.248</v>
@@ -3488,11 +3520,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" ht="13.55" customHeight="1">
+    <row r="37" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>36</v>
       </c>
-      <c r="B37" t="s" s="2">
+      <c r="B37" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C37" s="3">
@@ -3505,22 +3537,22 @@
         <v>3</v>
       </c>
       <c r="F37" s="3">
-        <v>155.954</v>
+        <v>155.95400000000001</v>
       </c>
       <c r="G37" s="3">
-        <v>75.715</v>
+        <v>75.715000000000003</v>
       </c>
       <c r="H37" s="3">
         <v>48.85</v>
       </c>
       <c r="I37" s="3">
-        <v>48.528</v>
+        <v>48.527999999999999</v>
       </c>
       <c r="J37" s="3">
         <v>148226.875</v>
       </c>
       <c r="K37" s="3">
-        <v>2.667</v>
+        <v>2.6669999999999998</v>
       </c>
       <c r="L37" s="3">
         <v>3</v>
@@ -3529,7 +3561,7 @@
         <v>7.86</v>
       </c>
       <c r="N37" s="3">
-        <v>3.368</v>
+        <v>3.3679999999999999</v>
       </c>
       <c r="O37" s="3">
         <v>1.248</v>
@@ -3541,11 +3573,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" ht="13.55" customHeight="1">
+    <row r="38" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>37</v>
       </c>
-      <c r="B38" t="s" s="2">
+      <c r="B38" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C38" s="3">
@@ -3558,16 +3590,16 @@
         <v>4</v>
       </c>
       <c r="F38" s="3">
-        <v>183.794</v>
+        <v>183.79400000000001</v>
       </c>
       <c r="G38" s="3">
         <v>249.86</v>
       </c>
       <c r="H38" s="3">
-        <v>99.962</v>
+        <v>99.962000000000003</v>
       </c>
       <c r="I38" s="3">
-        <v>51.992</v>
+        <v>51.991999999999997</v>
       </c>
       <c r="J38" s="3">
         <v>398415.375</v>
@@ -3579,10 +3611,10 @@
         <v>3</v>
       </c>
       <c r="M38" s="3">
-        <v>7.443</v>
+        <v>7.4429999999999996</v>
       </c>
       <c r="N38" s="3">
-        <v>4.894</v>
+        <v>4.8940000000000001</v>
       </c>
       <c r="O38" s="3">
         <v>1.371</v>
@@ -3594,11 +3626,11 @@
         <v>65</v>
       </c>
     </row>
-    <row r="39" ht="13.55" customHeight="1">
+    <row r="39" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>38</v>
       </c>
-      <c r="B39" t="s" s="2">
+      <c r="B39" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C39" s="3">
@@ -3611,16 +3643,16 @@
         <v>4</v>
       </c>
       <c r="F39" s="3">
-        <v>183.794</v>
+        <v>183.79400000000001</v>
       </c>
       <c r="G39" s="3">
-        <v>455.146</v>
+        <v>455.14600000000002</v>
       </c>
       <c r="H39" s="3">
         <v>167.626</v>
       </c>
       <c r="I39" s="3">
-        <v>51.992</v>
+        <v>51.991999999999997</v>
       </c>
       <c r="J39" s="3">
         <v>398415.375</v>
@@ -3632,10 +3664,10 @@
         <v>3</v>
       </c>
       <c r="M39" s="3">
-        <v>7.443</v>
+        <v>7.4429999999999996</v>
       </c>
       <c r="N39" s="3">
-        <v>4.894</v>
+        <v>4.8940000000000001</v>
       </c>
       <c r="O39" s="3">
         <v>1.371</v>
@@ -3647,11 +3679,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" ht="13.55" customHeight="1">
+    <row r="40" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>39</v>
       </c>
-      <c r="B40" t="s" s="2">
+      <c r="B40" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C40" s="3">
@@ -3667,16 +3699,16 @@
         <v>166.934</v>
       </c>
       <c r="G40" s="3">
-        <v>223.425</v>
+        <v>223.42500000000001</v>
       </c>
       <c r="H40" s="3">
-        <v>130.683</v>
+        <v>130.68299999999999</v>
       </c>
       <c r="I40" s="3">
-        <v>47.222</v>
+        <v>47.222000000000001</v>
       </c>
       <c r="J40" s="3">
-        <v>338121.656</v>
+        <v>338121.65600000002</v>
       </c>
       <c r="K40" s="3">
         <v>3.5</v>
@@ -3685,13 +3717,13 @@
         <v>3</v>
       </c>
       <c r="M40" s="3">
-        <v>12.082</v>
+        <v>12.082000000000001</v>
       </c>
       <c r="N40" s="3">
-        <v>5.744</v>
+        <v>5.7439999999999998</v>
       </c>
       <c r="O40" s="3">
-        <v>1.981</v>
+        <v>1.9810000000000001</v>
       </c>
       <c r="P40" s="3">
         <v>21000</v>
@@ -3700,11 +3732,11 @@
         <v>65</v>
       </c>
     </row>
-    <row r="41" ht="13.55" customHeight="1">
+    <row r="41" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>40</v>
       </c>
-      <c r="B41" t="s" s="2">
+      <c r="B41" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C41" s="3">
@@ -3720,16 +3752,16 @@
         <v>166.934</v>
       </c>
       <c r="G41" s="3">
-        <v>400.932</v>
+        <v>400.93200000000002</v>
       </c>
       <c r="H41" s="3">
-        <v>169.658</v>
+        <v>169.65799999999999</v>
       </c>
       <c r="I41" s="3">
-        <v>47.222</v>
+        <v>47.222000000000001</v>
       </c>
       <c r="J41" s="3">
-        <v>338121.656</v>
+        <v>338121.65600000002</v>
       </c>
       <c r="K41" s="3">
         <v>3.5</v>
@@ -3738,13 +3770,13 @@
         <v>3</v>
       </c>
       <c r="M41" s="3">
-        <v>12.082</v>
+        <v>12.082000000000001</v>
       </c>
       <c r="N41" s="3">
-        <v>5.744</v>
+        <v>5.7439999999999998</v>
       </c>
       <c r="O41" s="3">
-        <v>1.981</v>
+        <v>1.9810000000000001</v>
       </c>
       <c r="P41" s="3">
         <v>21000</v>
@@ -3753,11 +3785,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" ht="13.55" customHeight="1">
+    <row r="42" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>41</v>
       </c>
-      <c r="B42" t="s" s="2">
+      <c r="B42" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C42" s="3">
@@ -3773,13 +3805,13 @@
         <v>174.14</v>
       </c>
       <c r="G42" s="3">
-        <v>273.155</v>
+        <v>273.15499999999997</v>
       </c>
       <c r="H42" s="3">
         <v>114.283</v>
       </c>
       <c r="I42" s="3">
-        <v>49.261</v>
+        <v>49.261000000000003</v>
       </c>
       <c r="J42" s="3">
         <v>213505.516</v>
@@ -3791,10 +3823,10 @@
         <v>3</v>
       </c>
       <c r="M42" s="3">
-        <v>10.037</v>
+        <v>10.037000000000001</v>
       </c>
       <c r="N42" s="3">
-        <v>4.533</v>
+        <v>4.5330000000000004</v>
       </c>
       <c r="O42" s="3">
         <v>1.619</v>
@@ -3806,11 +3838,11 @@
         <v>65</v>
       </c>
     </row>
-    <row r="43" ht="13.55" customHeight="1">
+    <row r="43" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>42</v>
       </c>
-      <c r="B43" t="s" s="2">
+      <c r="B43" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C43" s="3">
@@ -3826,13 +3858,13 @@
         <v>174.14</v>
       </c>
       <c r="G43" s="3">
-        <v>303.876</v>
+        <v>303.87599999999998</v>
       </c>
       <c r="H43" s="3">
-        <v>136.287</v>
+        <v>136.28700000000001</v>
       </c>
       <c r="I43" s="3">
-        <v>49.261</v>
+        <v>49.261000000000003</v>
       </c>
       <c r="J43" s="3">
         <v>213505.516</v>
@@ -3844,10 +3876,10 @@
         <v>3</v>
       </c>
       <c r="M43" s="3">
-        <v>10.037</v>
+        <v>10.037000000000001</v>
       </c>
       <c r="N43" s="3">
-        <v>4.533</v>
+        <v>4.5330000000000004</v>
       </c>
       <c r="O43" s="3">
         <v>1.619</v>
@@ -3859,11 +3891,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" ht="13.55" customHeight="1">
+    <row r="44" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>43</v>
       </c>
-      <c r="B44" t="s" s="2">
+      <c r="B44" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C44" s="3">
@@ -3876,16 +3908,16 @@
         <v>4</v>
       </c>
       <c r="F44" s="3">
-        <v>175.609</v>
+        <v>175.60900000000001</v>
       </c>
       <c r="G44" s="3">
-        <v>302.379</v>
+        <v>302.37900000000002</v>
       </c>
       <c r="H44" s="3">
-        <v>155.728</v>
+        <v>155.72800000000001</v>
       </c>
       <c r="I44" s="3">
-        <v>49.676</v>
+        <v>49.676000000000002</v>
       </c>
       <c r="J44" s="3">
         <v>213505.516</v>
@@ -3900,10 +3932,10 @@
         <v>13.315</v>
       </c>
       <c r="N44" s="3">
-        <v>7.709</v>
+        <v>7.7089999999999996</v>
       </c>
       <c r="O44" s="3">
-        <v>2.336</v>
+        <v>2.3359999999999999</v>
       </c>
       <c r="P44" s="3">
         <v>21000</v>
@@ -3912,11 +3944,11 @@
         <v>53</v>
       </c>
     </row>
-    <row r="45" ht="13.55" customHeight="1">
+    <row r="45" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>44</v>
       </c>
-      <c r="B45" t="s" s="2">
+      <c r="B45" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C45" s="3">
@@ -3929,16 +3961,16 @@
         <v>4</v>
       </c>
       <c r="F45" s="3">
-        <v>175.609</v>
+        <v>175.60900000000001</v>
       </c>
       <c r="G45" s="3">
         <v>343.971</v>
       </c>
       <c r="H45" s="3">
-        <v>206.825</v>
+        <v>206.82499999999999</v>
       </c>
       <c r="I45" s="3">
-        <v>49.676</v>
+        <v>49.676000000000002</v>
       </c>
       <c r="J45" s="3">
         <v>213505.516</v>
@@ -3953,10 +3985,10 @@
         <v>13.315</v>
       </c>
       <c r="N45" s="3">
-        <v>7.709</v>
+        <v>7.7089999999999996</v>
       </c>
       <c r="O45" s="3">
-        <v>2.336</v>
+        <v>2.3359999999999999</v>
       </c>
       <c r="P45" s="3">
         <v>21000</v>
@@ -3965,11 +3997,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="46" ht="13.55" customHeight="1">
+    <row r="46" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>45</v>
       </c>
-      <c r="B46" t="s" s="2">
+      <c r="B46" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C46" s="3">
@@ -3982,16 +4014,16 @@
         <v>4</v>
       </c>
       <c r="F46" s="3">
-        <v>184.145</v>
+        <v>184.14500000000001</v>
       </c>
       <c r="G46" s="3">
-        <v>270.497</v>
+        <v>270.49700000000001</v>
       </c>
       <c r="H46" s="3">
-        <v>150.877</v>
+        <v>150.87700000000001</v>
       </c>
       <c r="I46" s="3">
-        <v>52.091</v>
+        <v>52.091000000000001</v>
       </c>
       <c r="J46" s="3">
         <v>213505.516</v>
@@ -4006,10 +4038,10 @@
         <v>14.753</v>
       </c>
       <c r="N46" s="3">
-        <v>5.993</v>
+        <v>5.9930000000000003</v>
       </c>
       <c r="O46" s="3">
-        <v>2.305</v>
+        <v>2.3050000000000002</v>
       </c>
       <c r="P46" s="3">
         <v>21000</v>
@@ -4018,11 +4050,11 @@
         <v>53</v>
       </c>
     </row>
-    <row r="47" ht="13.55" customHeight="1">
+    <row r="47" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>46</v>
       </c>
-      <c r="B47" t="s" s="2">
+      <c r="B47" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C47" s="3">
@@ -4035,16 +4067,16 @@
         <v>4</v>
       </c>
       <c r="F47" s="3">
-        <v>184.145</v>
+        <v>184.14500000000001</v>
       </c>
       <c r="G47" s="3">
         <v>301.07</v>
       </c>
       <c r="H47" s="3">
-        <v>180.889</v>
+        <v>180.88900000000001</v>
       </c>
       <c r="I47" s="3">
-        <v>52.091</v>
+        <v>52.091000000000001</v>
       </c>
       <c r="J47" s="3">
         <v>213505.516</v>
@@ -4059,10 +4091,10 @@
         <v>14.753</v>
       </c>
       <c r="N47" s="3">
-        <v>5.993</v>
+        <v>5.9930000000000003</v>
       </c>
       <c r="O47" s="3">
-        <v>2.305</v>
+        <v>2.3050000000000002</v>
       </c>
       <c r="P47" s="3">
         <v>21000</v>
@@ -4071,11 +4103,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="48" ht="13.55" customHeight="1">
+    <row r="48" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>47</v>
       </c>
-      <c r="B48" t="s" s="2">
+      <c r="B48" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C48" s="3">
@@ -4094,10 +4126,10 @@
         <v>207.054</v>
       </c>
       <c r="H48" s="3">
-        <v>89.97499999999999</v>
+        <v>89.974999999999994</v>
       </c>
       <c r="I48" s="3">
-        <v>52.371</v>
+        <v>52.371000000000002</v>
       </c>
       <c r="J48" s="3">
         <v>213505.516</v>
@@ -4109,13 +4141,13 @@
         <v>3</v>
       </c>
       <c r="M48" s="3">
-        <v>8.323</v>
+        <v>8.3230000000000004</v>
       </c>
       <c r="N48" s="3">
-        <v>5.549</v>
+        <v>5.5490000000000004</v>
       </c>
       <c r="O48" s="3">
-        <v>1.541</v>
+        <v>1.5409999999999999</v>
       </c>
       <c r="P48" s="3">
         <v>21000</v>
@@ -4124,11 +4156,11 @@
         <v>53</v>
       </c>
     </row>
-    <row r="49" ht="13.55" customHeight="1">
+    <row r="49" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>48</v>
       </c>
-      <c r="B49" t="s" s="2">
+      <c r="B49" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C49" s="3">
@@ -4147,10 +4179,10 @@
         <v>234.797</v>
       </c>
       <c r="H49" s="3">
-        <v>160.789</v>
+        <v>160.78899999999999</v>
       </c>
       <c r="I49" s="3">
-        <v>52.371</v>
+        <v>52.371000000000002</v>
       </c>
       <c r="J49" s="3">
         <v>213505.516</v>
@@ -4162,13 +4194,13 @@
         <v>3</v>
       </c>
       <c r="M49" s="3">
-        <v>8.323</v>
+        <v>8.3230000000000004</v>
       </c>
       <c r="N49" s="3">
-        <v>5.549</v>
+        <v>5.5490000000000004</v>
       </c>
       <c r="O49" s="3">
-        <v>1.541</v>
+        <v>1.5409999999999999</v>
       </c>
       <c r="P49" s="3">
         <v>21000</v>
@@ -4177,11 +4209,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" ht="13.55" customHeight="1">
+    <row r="50" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>49</v>
       </c>
-      <c r="B50" t="s" s="2">
+      <c r="B50" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C50" s="3">
@@ -4197,10 +4229,10 @@
         <v>182.928</v>
       </c>
       <c r="G50" s="3">
-        <v>145.407</v>
+        <v>145.40700000000001</v>
       </c>
       <c r="H50" s="3">
-        <v>123.019</v>
+        <v>123.01900000000001</v>
       </c>
       <c r="I50" s="3">
         <v>51.747</v>
@@ -4215,13 +4247,13 @@
         <v>3</v>
       </c>
       <c r="M50" s="3">
-        <v>13.517</v>
+        <v>13.516999999999999</v>
       </c>
       <c r="N50" s="3">
-        <v>8.207000000000001</v>
+        <v>8.2070000000000007</v>
       </c>
       <c r="O50" s="3">
-        <v>2.414</v>
+        <v>2.4140000000000001</v>
       </c>
       <c r="P50" s="3">
         <v>21000</v>
@@ -4230,11 +4262,11 @@
         <v>53</v>
       </c>
     </row>
-    <row r="51" ht="13.55" customHeight="1">
+    <row r="51" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>50</v>
       </c>
-      <c r="B51" t="s" s="2">
+      <c r="B51" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C51" s="3">
@@ -4250,7 +4282,7 @@
         <v>182.928</v>
       </c>
       <c r="G51" s="3">
-        <v>160.481</v>
+        <v>160.48099999999999</v>
       </c>
       <c r="H51" s="3">
         <v>173.941</v>
@@ -4268,13 +4300,13 @@
         <v>3</v>
       </c>
       <c r="M51" s="3">
-        <v>13.517</v>
+        <v>13.516999999999999</v>
       </c>
       <c r="N51" s="3">
-        <v>8.207000000000001</v>
+        <v>8.2070000000000007</v>
       </c>
       <c r="O51" s="3">
-        <v>2.414</v>
+        <v>2.4140000000000001</v>
       </c>
       <c r="P51" s="3">
         <v>21000</v>
@@ -4283,39 +4315,39 @@
         <v>35</v>
       </c>
     </row>
-    <row r="52" ht="13.55" customHeight="1">
+    <row r="52" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>51</v>
       </c>
-      <c r="B52" t="s" s="2">
+      <c r="B52" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C52" s="3">
         <v>1995</v>
       </c>
       <c r="D52" s="3">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="E52" s="3">
         <v>4</v>
       </c>
       <c r="F52" s="3">
-        <v>155.954</v>
+        <v>155.95400000000001</v>
       </c>
       <c r="G52" s="3">
-        <v>87.111</v>
+        <v>87.111000000000004</v>
       </c>
       <c r="H52" s="3">
         <v>49.99</v>
       </c>
       <c r="I52" s="3">
-        <v>48.528</v>
+        <v>48.527999999999999</v>
       </c>
       <c r="J52" s="3">
         <v>148226.875</v>
       </c>
       <c r="K52" s="3">
-        <v>2.667</v>
+        <v>2.6669999999999998</v>
       </c>
       <c r="L52" s="3">
         <v>3</v>
@@ -4324,7 +4356,7 @@
         <v>7.86</v>
       </c>
       <c r="N52" s="3">
-        <v>3.368</v>
+        <v>3.3679999999999999</v>
       </c>
       <c r="O52" s="3">
         <v>1.248</v>
@@ -4336,39 +4368,39 @@
         <v>35</v>
       </c>
     </row>
-    <row r="53" ht="13.55" customHeight="1">
+    <row r="53" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>52</v>
       </c>
-      <c r="B53" t="s" s="2">
+      <c r="B53" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C53" s="3">
         <v>1995</v>
       </c>
       <c r="D53" s="3">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="E53" s="3">
         <v>4</v>
       </c>
       <c r="F53" s="3">
-        <v>155.954</v>
+        <v>155.95400000000001</v>
       </c>
       <c r="G53" s="3">
-        <v>95.355</v>
+        <v>95.355000000000004</v>
       </c>
       <c r="H53" s="3">
         <v>60.34</v>
       </c>
       <c r="I53" s="3">
-        <v>48.528</v>
+        <v>48.527999999999999</v>
       </c>
       <c r="J53" s="3">
         <v>148226.875</v>
       </c>
       <c r="K53" s="3">
-        <v>2.667</v>
+        <v>2.6669999999999998</v>
       </c>
       <c r="L53" s="3">
         <v>3</v>
@@ -4377,7 +4409,7 @@
         <v>7.86</v>
       </c>
       <c r="N53" s="3">
-        <v>3.368</v>
+        <v>3.3679999999999999</v>
       </c>
       <c r="O53" s="3">
         <v>1.248</v>
@@ -4389,11 +4421,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="54" ht="13.55" customHeight="1">
+    <row r="54" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>53</v>
       </c>
-      <c r="B54" t="s" s="2">
+      <c r="B54" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C54" s="3">
@@ -4406,22 +4438,22 @@
         <v>4</v>
       </c>
       <c r="F54" s="3">
-        <v>155.954</v>
+        <v>155.95400000000001</v>
       </c>
       <c r="G54" s="3">
-        <v>75.715</v>
+        <v>75.715000000000003</v>
       </c>
       <c r="H54" s="3">
         <v>48.85</v>
       </c>
       <c r="I54" s="3">
-        <v>48.528</v>
+        <v>48.527999999999999</v>
       </c>
       <c r="J54" s="3">
         <v>148226.875</v>
       </c>
       <c r="K54" s="3">
-        <v>2.667</v>
+        <v>2.6669999999999998</v>
       </c>
       <c r="L54" s="3">
         <v>3</v>
@@ -4430,7 +4462,7 @@
         <v>7.86</v>
       </c>
       <c r="N54" s="3">
-        <v>3.368</v>
+        <v>3.3679999999999999</v>
       </c>
       <c r="O54" s="3">
         <v>1.248</v>
@@ -4442,11 +4474,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="55" ht="13.55" customHeight="1">
+    <row r="55" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>54</v>
       </c>
-      <c r="B55" t="s" s="2">
+      <c r="B55" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C55" s="3">
@@ -4459,22 +4491,22 @@
         <v>4</v>
       </c>
       <c r="F55" s="3">
-        <v>155.954</v>
+        <v>155.95400000000001</v>
       </c>
       <c r="G55" s="3">
-        <v>75.715</v>
+        <v>75.715000000000003</v>
       </c>
       <c r="H55" s="3">
         <v>48.85</v>
       </c>
       <c r="I55" s="3">
-        <v>48.528</v>
+        <v>48.527999999999999</v>
       </c>
       <c r="J55" s="3">
         <v>148226.875</v>
       </c>
       <c r="K55" s="3">
-        <v>2.667</v>
+        <v>2.6669999999999998</v>
       </c>
       <c r="L55" s="3">
         <v>3</v>
@@ -4483,7 +4515,7 @@
         <v>7.86</v>
       </c>
       <c r="N55" s="3">
-        <v>3.368</v>
+        <v>3.3679999999999999</v>
       </c>
       <c r="O55" s="3">
         <v>1.248</v>
@@ -4495,11 +4527,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="56" ht="13.55" customHeight="1">
+    <row r="56" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>55</v>
       </c>
-      <c r="B56" t="s" s="2">
+      <c r="B56" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C56" s="3">
@@ -4512,16 +4544,16 @@
         <v>5</v>
       </c>
       <c r="F56" s="3">
-        <v>183.794</v>
+        <v>183.79400000000001</v>
       </c>
       <c r="G56" s="3">
         <v>249.86</v>
       </c>
       <c r="H56" s="3">
-        <v>99.962</v>
+        <v>99.962000000000003</v>
       </c>
       <c r="I56" s="3">
-        <v>51.992</v>
+        <v>51.991999999999997</v>
       </c>
       <c r="J56" s="3">
         <v>398415.375</v>
@@ -4533,10 +4565,10 @@
         <v>3</v>
       </c>
       <c r="M56" s="3">
-        <v>7.443</v>
+        <v>7.4429999999999996</v>
       </c>
       <c r="N56" s="3">
-        <v>4.894</v>
+        <v>4.8940000000000001</v>
       </c>
       <c r="O56" s="3">
         <v>1.371</v>
@@ -4548,11 +4580,11 @@
         <v>65</v>
       </c>
     </row>
-    <row r="57" ht="13.55" customHeight="1">
+    <row r="57" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>56</v>
       </c>
-      <c r="B57" t="s" s="2">
+      <c r="B57" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C57" s="3">
@@ -4565,16 +4597,16 @@
         <v>5</v>
       </c>
       <c r="F57" s="3">
-        <v>183.794</v>
+        <v>183.79400000000001</v>
       </c>
       <c r="G57" s="3">
-        <v>455.146</v>
+        <v>455.14600000000002</v>
       </c>
       <c r="H57" s="3">
         <v>167.626</v>
       </c>
       <c r="I57" s="3">
-        <v>51.992</v>
+        <v>51.991999999999997</v>
       </c>
       <c r="J57" s="3">
         <v>398415.375</v>
@@ -4586,10 +4618,10 @@
         <v>3</v>
       </c>
       <c r="M57" s="3">
-        <v>7.443</v>
+        <v>7.4429999999999996</v>
       </c>
       <c r="N57" s="3">
-        <v>4.894</v>
+        <v>4.8940000000000001</v>
       </c>
       <c r="O57" s="3">
         <v>1.371</v>
@@ -4601,11 +4633,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="58" ht="13.55" customHeight="1">
+    <row r="58" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>57</v>
       </c>
-      <c r="B58" t="s" s="2">
+      <c r="B58" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C58" s="3">
@@ -4621,16 +4653,16 @@
         <v>166.934</v>
       </c>
       <c r="G58" s="3">
-        <v>223.425</v>
+        <v>223.42500000000001</v>
       </c>
       <c r="H58" s="3">
-        <v>130.683</v>
+        <v>130.68299999999999</v>
       </c>
       <c r="I58" s="3">
-        <v>47.222</v>
+        <v>47.222000000000001</v>
       </c>
       <c r="J58" s="3">
-        <v>338121.656</v>
+        <v>338121.65600000002</v>
       </c>
       <c r="K58" s="3">
         <v>3.5</v>
@@ -4639,13 +4671,13 @@
         <v>3</v>
       </c>
       <c r="M58" s="3">
-        <v>12.082</v>
+        <v>12.082000000000001</v>
       </c>
       <c r="N58" s="3">
-        <v>5.744</v>
+        <v>5.7439999999999998</v>
       </c>
       <c r="O58" s="3">
-        <v>1.981</v>
+        <v>1.9810000000000001</v>
       </c>
       <c r="P58" s="3">
         <v>21000</v>
@@ -4654,11 +4686,11 @@
         <v>65</v>
       </c>
     </row>
-    <row r="59" ht="13.55" customHeight="1">
+    <row r="59" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>58</v>
       </c>
-      <c r="B59" t="s" s="2">
+      <c r="B59" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C59" s="3">
@@ -4674,16 +4706,16 @@
         <v>166.934</v>
       </c>
       <c r="G59" s="3">
-        <v>400.932</v>
+        <v>400.93200000000002</v>
       </c>
       <c r="H59" s="3">
-        <v>169.658</v>
+        <v>169.65799999999999</v>
       </c>
       <c r="I59" s="3">
-        <v>47.222</v>
+        <v>47.222000000000001</v>
       </c>
       <c r="J59" s="3">
-        <v>338121.656</v>
+        <v>338121.65600000002</v>
       </c>
       <c r="K59" s="3">
         <v>3.5</v>
@@ -4692,13 +4724,13 @@
         <v>3</v>
       </c>
       <c r="M59" s="3">
-        <v>12.082</v>
+        <v>12.082000000000001</v>
       </c>
       <c r="N59" s="3">
-        <v>5.744</v>
+        <v>5.7439999999999998</v>
       </c>
       <c r="O59" s="3">
-        <v>1.981</v>
+        <v>1.9810000000000001</v>
       </c>
       <c r="P59" s="3">
         <v>21000</v>
@@ -4707,11 +4739,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="60" ht="13.55" customHeight="1">
+    <row r="60" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>59</v>
       </c>
-      <c r="B60" t="s" s="2">
+      <c r="B60" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C60" s="3">
@@ -4727,13 +4759,13 @@
         <v>174.14</v>
       </c>
       <c r="G60" s="3">
-        <v>273.155</v>
+        <v>273.15499999999997</v>
       </c>
       <c r="H60" s="3">
         <v>114.283</v>
       </c>
       <c r="I60" s="3">
-        <v>49.261</v>
+        <v>49.261000000000003</v>
       </c>
       <c r="J60" s="3">
         <v>213505.516</v>
@@ -4745,10 +4777,10 @@
         <v>3</v>
       </c>
       <c r="M60" s="3">
-        <v>10.037</v>
+        <v>10.037000000000001</v>
       </c>
       <c r="N60" s="3">
-        <v>4.533</v>
+        <v>4.5330000000000004</v>
       </c>
       <c r="O60" s="3">
         <v>1.619</v>
@@ -4760,11 +4792,11 @@
         <v>65</v>
       </c>
     </row>
-    <row r="61" ht="13.55" customHeight="1">
+    <row r="61" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>60</v>
       </c>
-      <c r="B61" t="s" s="2">
+      <c r="B61" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C61" s="3">
@@ -4780,13 +4812,13 @@
         <v>174.14</v>
       </c>
       <c r="G61" s="3">
-        <v>303.876</v>
+        <v>303.87599999999998</v>
       </c>
       <c r="H61" s="3">
-        <v>136.287</v>
+        <v>136.28700000000001</v>
       </c>
       <c r="I61" s="3">
-        <v>49.261</v>
+        <v>49.261000000000003</v>
       </c>
       <c r="J61" s="3">
         <v>213505.516</v>
@@ -4798,10 +4830,10 @@
         <v>3</v>
       </c>
       <c r="M61" s="3">
-        <v>10.037</v>
+        <v>10.037000000000001</v>
       </c>
       <c r="N61" s="3">
-        <v>4.533</v>
+        <v>4.5330000000000004</v>
       </c>
       <c r="O61" s="3">
         <v>1.619</v>
@@ -4813,11 +4845,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="62" ht="13.55" customHeight="1">
+    <row r="62" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>61</v>
       </c>
-      <c r="B62" t="s" s="2">
+      <c r="B62" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C62" s="3">
@@ -4830,16 +4862,16 @@
         <v>5</v>
       </c>
       <c r="F62" s="3">
-        <v>175.609</v>
+        <v>175.60900000000001</v>
       </c>
       <c r="G62" s="3">
-        <v>302.379</v>
+        <v>302.37900000000002</v>
       </c>
       <c r="H62" s="3">
-        <v>155.728</v>
+        <v>155.72800000000001</v>
       </c>
       <c r="I62" s="3">
-        <v>49.676</v>
+        <v>49.676000000000002</v>
       </c>
       <c r="J62" s="3">
         <v>213505.516</v>
@@ -4854,10 +4886,10 @@
         <v>13.315</v>
       </c>
       <c r="N62" s="3">
-        <v>7.709</v>
+        <v>7.7089999999999996</v>
       </c>
       <c r="O62" s="3">
-        <v>2.336</v>
+        <v>2.3359999999999999</v>
       </c>
       <c r="P62" s="3">
         <v>21000</v>
@@ -4866,11 +4898,11 @@
         <v>53</v>
       </c>
     </row>
-    <row r="63" ht="13.55" customHeight="1">
+    <row r="63" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>62</v>
       </c>
-      <c r="B63" t="s" s="2">
+      <c r="B63" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C63" s="3">
@@ -4883,16 +4915,16 @@
         <v>5</v>
       </c>
       <c r="F63" s="3">
-        <v>175.609</v>
+        <v>175.60900000000001</v>
       </c>
       <c r="G63" s="3">
         <v>343.971</v>
       </c>
       <c r="H63" s="3">
-        <v>206.825</v>
+        <v>206.82499999999999</v>
       </c>
       <c r="I63" s="3">
-        <v>49.676</v>
+        <v>49.676000000000002</v>
       </c>
       <c r="J63" s="3">
         <v>213505.516</v>
@@ -4907,10 +4939,10 @@
         <v>13.315</v>
       </c>
       <c r="N63" s="3">
-        <v>7.709</v>
+        <v>7.7089999999999996</v>
       </c>
       <c r="O63" s="3">
-        <v>2.336</v>
+        <v>2.3359999999999999</v>
       </c>
       <c r="P63" s="3">
         <v>21000</v>
@@ -4919,11 +4951,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="64" ht="13.55" customHeight="1">
+    <row r="64" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>63</v>
       </c>
-      <c r="B64" t="s" s="2">
+      <c r="B64" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C64" s="3">
@@ -4936,16 +4968,16 @@
         <v>5</v>
       </c>
       <c r="F64" s="3">
-        <v>184.145</v>
+        <v>184.14500000000001</v>
       </c>
       <c r="G64" s="3">
-        <v>270.497</v>
+        <v>270.49700000000001</v>
       </c>
       <c r="H64" s="3">
-        <v>150.877</v>
+        <v>150.87700000000001</v>
       </c>
       <c r="I64" s="3">
-        <v>52.091</v>
+        <v>52.091000000000001</v>
       </c>
       <c r="J64" s="3">
         <v>213505.516</v>
@@ -4960,10 +4992,10 @@
         <v>14.753</v>
       </c>
       <c r="N64" s="3">
-        <v>5.993</v>
+        <v>5.9930000000000003</v>
       </c>
       <c r="O64" s="3">
-        <v>2.305</v>
+        <v>2.3050000000000002</v>
       </c>
       <c r="P64" s="3">
         <v>21000</v>
@@ -4972,11 +5004,11 @@
         <v>53</v>
       </c>
     </row>
-    <row r="65" ht="13.55" customHeight="1">
+    <row r="65" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>64</v>
       </c>
-      <c r="B65" t="s" s="2">
+      <c r="B65" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C65" s="3">
@@ -4989,16 +5021,16 @@
         <v>5</v>
       </c>
       <c r="F65" s="3">
-        <v>184.145</v>
+        <v>184.14500000000001</v>
       </c>
       <c r="G65" s="3">
         <v>301.07</v>
       </c>
       <c r="H65" s="3">
-        <v>180.889</v>
+        <v>180.88900000000001</v>
       </c>
       <c r="I65" s="3">
-        <v>52.091</v>
+        <v>52.091000000000001</v>
       </c>
       <c r="J65" s="3">
         <v>213505.516</v>
@@ -5013,10 +5045,10 @@
         <v>14.753</v>
       </c>
       <c r="N65" s="3">
-        <v>5.993</v>
+        <v>5.9930000000000003</v>
       </c>
       <c r="O65" s="3">
-        <v>2.305</v>
+        <v>2.3050000000000002</v>
       </c>
       <c r="P65" s="3">
         <v>21000</v>
@@ -5025,11 +5057,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="66" ht="13.55" customHeight="1">
+    <row r="66" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>65</v>
       </c>
-      <c r="B66" t="s" s="2">
+      <c r="B66" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C66" s="3">
@@ -5048,10 +5080,10 @@
         <v>207.054</v>
       </c>
       <c r="H66" s="3">
-        <v>89.97499999999999</v>
+        <v>89.974999999999994</v>
       </c>
       <c r="I66" s="3">
-        <v>52.371</v>
+        <v>52.371000000000002</v>
       </c>
       <c r="J66" s="3">
         <v>213505.516</v>
@@ -5063,13 +5095,13 @@
         <v>3</v>
       </c>
       <c r="M66" s="3">
-        <v>8.323</v>
+        <v>8.3230000000000004</v>
       </c>
       <c r="N66" s="3">
-        <v>5.549</v>
+        <v>5.5490000000000004</v>
       </c>
       <c r="O66" s="3">
-        <v>1.541</v>
+        <v>1.5409999999999999</v>
       </c>
       <c r="P66" s="3">
         <v>21000</v>
@@ -5078,11 +5110,11 @@
         <v>53</v>
       </c>
     </row>
-    <row r="67" ht="13.55" customHeight="1">
+    <row r="67" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>66</v>
       </c>
-      <c r="B67" t="s" s="2">
+      <c r="B67" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C67" s="3">
@@ -5101,10 +5133,10 @@
         <v>234.797</v>
       </c>
       <c r="H67" s="3">
-        <v>160.789</v>
+        <v>160.78899999999999</v>
       </c>
       <c r="I67" s="3">
-        <v>52.371</v>
+        <v>52.371000000000002</v>
       </c>
       <c r="J67" s="3">
         <v>213505.516</v>
@@ -5116,13 +5148,13 @@
         <v>3</v>
       </c>
       <c r="M67" s="3">
-        <v>8.323</v>
+        <v>8.3230000000000004</v>
       </c>
       <c r="N67" s="3">
-        <v>5.549</v>
+        <v>5.5490000000000004</v>
       </c>
       <c r="O67" s="3">
-        <v>1.541</v>
+        <v>1.5409999999999999</v>
       </c>
       <c r="P67" s="3">
         <v>21000</v>
@@ -5131,11 +5163,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="68" ht="13.55" customHeight="1">
+    <row r="68" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>67</v>
       </c>
-      <c r="B68" t="s" s="2">
+      <c r="B68" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C68" s="3">
@@ -5151,10 +5183,10 @@
         <v>182.928</v>
       </c>
       <c r="G68" s="3">
-        <v>145.407</v>
+        <v>145.40700000000001</v>
       </c>
       <c r="H68" s="3">
-        <v>123.019</v>
+        <v>123.01900000000001</v>
       </c>
       <c r="I68" s="3">
         <v>51.747</v>
@@ -5169,13 +5201,13 @@
         <v>3</v>
       </c>
       <c r="M68" s="3">
-        <v>13.517</v>
+        <v>13.516999999999999</v>
       </c>
       <c r="N68" s="3">
-        <v>8.207000000000001</v>
+        <v>8.2070000000000007</v>
       </c>
       <c r="O68" s="3">
-        <v>2.414</v>
+        <v>2.4140000000000001</v>
       </c>
       <c r="P68" s="3">
         <v>21000</v>
@@ -5184,11 +5216,11 @@
         <v>53</v>
       </c>
     </row>
-    <row r="69" ht="13.55" customHeight="1">
+    <row r="69" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>68</v>
       </c>
-      <c r="B69" t="s" s="2">
+      <c r="B69" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C69" s="3">
@@ -5204,7 +5236,7 @@
         <v>182.928</v>
       </c>
       <c r="G69" s="3">
-        <v>160.481</v>
+        <v>160.48099999999999</v>
       </c>
       <c r="H69" s="3">
         <v>173.941</v>
@@ -5222,13 +5254,13 @@
         <v>3</v>
       </c>
       <c r="M69" s="3">
-        <v>13.517</v>
+        <v>13.516999999999999</v>
       </c>
       <c r="N69" s="3">
-        <v>8.207000000000001</v>
+        <v>8.2070000000000007</v>
       </c>
       <c r="O69" s="3">
-        <v>2.414</v>
+        <v>2.4140000000000001</v>
       </c>
       <c r="P69" s="3">
         <v>21000</v>
@@ -5237,39 +5269,39 @@
         <v>35</v>
       </c>
     </row>
-    <row r="70" ht="13.55" customHeight="1">
+    <row r="70" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>69</v>
       </c>
-      <c r="B70" t="s" s="2">
+      <c r="B70" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C70" s="3">
         <v>1995</v>
       </c>
       <c r="D70" s="3">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="E70" s="3">
         <v>5</v>
       </c>
       <c r="F70" s="3">
-        <v>155.954</v>
+        <v>155.95400000000001</v>
       </c>
       <c r="G70" s="3">
-        <v>87.111</v>
+        <v>87.111000000000004</v>
       </c>
       <c r="H70" s="3">
         <v>49.99</v>
       </c>
       <c r="I70" s="3">
-        <v>48.528</v>
+        <v>48.527999999999999</v>
       </c>
       <c r="J70" s="3">
         <v>148226.875</v>
       </c>
       <c r="K70" s="3">
-        <v>2.667</v>
+        <v>2.6669999999999998</v>
       </c>
       <c r="L70" s="3">
         <v>3</v>
@@ -5278,7 +5310,7 @@
         <v>7.86</v>
       </c>
       <c r="N70" s="3">
-        <v>3.368</v>
+        <v>3.3679999999999999</v>
       </c>
       <c r="O70" s="3">
         <v>1.248</v>
@@ -5290,39 +5322,39 @@
         <v>35</v>
       </c>
     </row>
-    <row r="71" ht="13.55" customHeight="1">
+    <row r="71" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>70</v>
       </c>
-      <c r="B71" t="s" s="2">
+      <c r="B71" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C71" s="3">
         <v>1995</v>
       </c>
       <c r="D71" s="3">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="E71" s="3">
         <v>5</v>
       </c>
       <c r="F71" s="3">
-        <v>155.954</v>
+        <v>155.95400000000001</v>
       </c>
       <c r="G71" s="3">
-        <v>95.355</v>
+        <v>95.355000000000004</v>
       </c>
       <c r="H71" s="3">
         <v>60.34</v>
       </c>
       <c r="I71" s="3">
-        <v>48.528</v>
+        <v>48.527999999999999</v>
       </c>
       <c r="J71" s="3">
         <v>148226.875</v>
       </c>
       <c r="K71" s="3">
-        <v>2.667</v>
+        <v>2.6669999999999998</v>
       </c>
       <c r="L71" s="3">
         <v>3</v>
@@ -5331,7 +5363,7 @@
         <v>7.86</v>
       </c>
       <c r="N71" s="3">
-        <v>3.368</v>
+        <v>3.3679999999999999</v>
       </c>
       <c r="O71" s="3">
         <v>1.248</v>
@@ -5343,11 +5375,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="72" ht="13.55" customHeight="1">
+    <row r="72" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>71</v>
       </c>
-      <c r="B72" t="s" s="2">
+      <c r="B72" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C72" s="3">
@@ -5360,22 +5392,22 @@
         <v>5</v>
       </c>
       <c r="F72" s="3">
-        <v>155.954</v>
+        <v>155.95400000000001</v>
       </c>
       <c r="G72" s="3">
-        <v>75.715</v>
+        <v>75.715000000000003</v>
       </c>
       <c r="H72" s="3">
         <v>48.85</v>
       </c>
       <c r="I72" s="3">
-        <v>48.528</v>
+        <v>48.527999999999999</v>
       </c>
       <c r="J72" s="3">
         <v>148226.875</v>
       </c>
       <c r="K72" s="3">
-        <v>2.667</v>
+        <v>2.6669999999999998</v>
       </c>
       <c r="L72" s="3">
         <v>3</v>
@@ -5384,7 +5416,7 @@
         <v>7.86</v>
       </c>
       <c r="N72" s="3">
-        <v>3.368</v>
+        <v>3.3679999999999999</v>
       </c>
       <c r="O72" s="3">
         <v>1.248</v>
@@ -5396,11 +5428,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="73" ht="13.55" customHeight="1">
+    <row r="73" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>72</v>
       </c>
-      <c r="B73" t="s" s="2">
+      <c r="B73" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C73" s="3">
@@ -5413,22 +5445,22 @@
         <v>5</v>
       </c>
       <c r="F73" s="3">
-        <v>155.954</v>
+        <v>155.95400000000001</v>
       </c>
       <c r="G73" s="3">
-        <v>75.715</v>
+        <v>75.715000000000003</v>
       </c>
       <c r="H73" s="3">
         <v>48.85</v>
       </c>
       <c r="I73" s="3">
-        <v>48.528</v>
+        <v>48.527999999999999</v>
       </c>
       <c r="J73" s="3">
         <v>148226.875</v>
       </c>
       <c r="K73" s="3">
-        <v>2.667</v>
+        <v>2.6669999999999998</v>
       </c>
       <c r="L73" s="3">
         <v>3</v>
@@ -5437,7 +5469,7 @@
         <v>7.86</v>
       </c>
       <c r="N73" s="3">
-        <v>3.368</v>
+        <v>3.3679999999999999</v>
       </c>
       <c r="O73" s="3">
         <v>1.248</v>
@@ -5449,11 +5481,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="74" ht="13.55" customHeight="1">
+    <row r="74" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>73</v>
       </c>
-      <c r="B74" t="s" s="2">
+      <c r="B74" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C74" s="3">
@@ -5466,16 +5498,16 @@
         <v>6</v>
       </c>
       <c r="F74" s="3">
-        <v>183.794</v>
+        <v>183.79400000000001</v>
       </c>
       <c r="G74" s="3">
         <v>249.86</v>
       </c>
       <c r="H74" s="3">
-        <v>99.962</v>
+        <v>99.962000000000003</v>
       </c>
       <c r="I74" s="3">
-        <v>51.992</v>
+        <v>51.991999999999997</v>
       </c>
       <c r="J74" s="3">
         <v>398415.375</v>
@@ -5487,10 +5519,10 @@
         <v>3</v>
       </c>
       <c r="M74" s="3">
-        <v>7.443</v>
+        <v>7.4429999999999996</v>
       </c>
       <c r="N74" s="3">
-        <v>4.894</v>
+        <v>4.8940000000000001</v>
       </c>
       <c r="O74" s="3">
         <v>1.371</v>
@@ -5502,11 +5534,11 @@
         <v>65</v>
       </c>
     </row>
-    <row r="75" ht="13.55" customHeight="1">
+    <row r="75" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>74</v>
       </c>
-      <c r="B75" t="s" s="2">
+      <c r="B75" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C75" s="3">
@@ -5519,16 +5551,16 @@
         <v>6</v>
       </c>
       <c r="F75" s="3">
-        <v>183.794</v>
+        <v>183.79400000000001</v>
       </c>
       <c r="G75" s="3">
-        <v>455.146</v>
+        <v>455.14600000000002</v>
       </c>
       <c r="H75" s="3">
         <v>167.626</v>
       </c>
       <c r="I75" s="3">
-        <v>51.992</v>
+        <v>51.991999999999997</v>
       </c>
       <c r="J75" s="3">
         <v>398415.375</v>
@@ -5540,10 +5572,10 @@
         <v>3</v>
       </c>
       <c r="M75" s="3">
-        <v>7.443</v>
+        <v>7.4429999999999996</v>
       </c>
       <c r="N75" s="3">
-        <v>4.894</v>
+        <v>4.8940000000000001</v>
       </c>
       <c r="O75" s="3">
         <v>1.371</v>
@@ -5555,11 +5587,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="76" ht="13.55" customHeight="1">
+    <row r="76" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>75</v>
       </c>
-      <c r="B76" t="s" s="2">
+      <c r="B76" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C76" s="3">
@@ -5575,16 +5607,16 @@
         <v>166.934</v>
       </c>
       <c r="G76" s="3">
-        <v>223.425</v>
+        <v>223.42500000000001</v>
       </c>
       <c r="H76" s="3">
-        <v>130.683</v>
+        <v>130.68299999999999</v>
       </c>
       <c r="I76" s="3">
-        <v>47.222</v>
+        <v>47.222000000000001</v>
       </c>
       <c r="J76" s="3">
-        <v>338121.656</v>
+        <v>338121.65600000002</v>
       </c>
       <c r="K76" s="3">
         <v>3.5</v>
@@ -5593,13 +5625,13 @@
         <v>3</v>
       </c>
       <c r="M76" s="3">
-        <v>12.082</v>
+        <v>12.082000000000001</v>
       </c>
       <c r="N76" s="3">
-        <v>5.744</v>
+        <v>5.7439999999999998</v>
       </c>
       <c r="O76" s="3">
-        <v>1.981</v>
+        <v>1.9810000000000001</v>
       </c>
       <c r="P76" s="3">
         <v>21000</v>
@@ -5608,11 +5640,11 @@
         <v>65</v>
       </c>
     </row>
-    <row r="77" ht="13.55" customHeight="1">
+    <row r="77" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>76</v>
       </c>
-      <c r="B77" t="s" s="2">
+      <c r="B77" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C77" s="3">
@@ -5628,16 +5660,16 @@
         <v>166.934</v>
       </c>
       <c r="G77" s="3">
-        <v>400.932</v>
+        <v>400.93200000000002</v>
       </c>
       <c r="H77" s="3">
-        <v>169.658</v>
+        <v>169.65799999999999</v>
       </c>
       <c r="I77" s="3">
-        <v>47.222</v>
+        <v>47.222000000000001</v>
       </c>
       <c r="J77" s="3">
-        <v>338121.656</v>
+        <v>338121.65600000002</v>
       </c>
       <c r="K77" s="3">
         <v>3.5</v>
@@ -5646,13 +5678,13 @@
         <v>3</v>
       </c>
       <c r="M77" s="3">
-        <v>12.082</v>
+        <v>12.082000000000001</v>
       </c>
       <c r="N77" s="3">
-        <v>5.744</v>
+        <v>5.7439999999999998</v>
       </c>
       <c r="O77" s="3">
-        <v>1.981</v>
+        <v>1.9810000000000001</v>
       </c>
       <c r="P77" s="3">
         <v>21000</v>
@@ -5661,11 +5693,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="78" ht="13.55" customHeight="1">
+    <row r="78" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <v>77</v>
       </c>
-      <c r="B78" t="s" s="2">
+      <c r="B78" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C78" s="3">
@@ -5681,13 +5713,13 @@
         <v>174.14</v>
       </c>
       <c r="G78" s="3">
-        <v>273.155</v>
+        <v>273.15499999999997</v>
       </c>
       <c r="H78" s="3">
         <v>114.283</v>
       </c>
       <c r="I78" s="3">
-        <v>49.261</v>
+        <v>49.261000000000003</v>
       </c>
       <c r="J78" s="3">
         <v>213505.516</v>
@@ -5699,10 +5731,10 @@
         <v>3</v>
       </c>
       <c r="M78" s="3">
-        <v>10.037</v>
+        <v>10.037000000000001</v>
       </c>
       <c r="N78" s="3">
-        <v>4.533</v>
+        <v>4.5330000000000004</v>
       </c>
       <c r="O78" s="3">
         <v>1.619</v>
@@ -5714,11 +5746,11 @@
         <v>65</v>
       </c>
     </row>
-    <row r="79" ht="13.55" customHeight="1">
+    <row r="79" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>78</v>
       </c>
-      <c r="B79" t="s" s="2">
+      <c r="B79" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C79" s="3">
@@ -5734,13 +5766,13 @@
         <v>174.14</v>
       </c>
       <c r="G79" s="3">
-        <v>303.876</v>
+        <v>303.87599999999998</v>
       </c>
       <c r="H79" s="3">
-        <v>136.287</v>
+        <v>136.28700000000001</v>
       </c>
       <c r="I79" s="3">
-        <v>49.261</v>
+        <v>49.261000000000003</v>
       </c>
       <c r="J79" s="3">
         <v>213505.516</v>
@@ -5752,10 +5784,10 @@
         <v>3</v>
       </c>
       <c r="M79" s="3">
-        <v>10.037</v>
+        <v>10.037000000000001</v>
       </c>
       <c r="N79" s="3">
-        <v>4.533</v>
+        <v>4.5330000000000004</v>
       </c>
       <c r="O79" s="3">
         <v>1.619</v>
@@ -5767,11 +5799,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="80" ht="13.55" customHeight="1">
+    <row r="80" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
         <v>79</v>
       </c>
-      <c r="B80" t="s" s="2">
+      <c r="B80" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C80" s="3">
@@ -5784,16 +5816,16 @@
         <v>6</v>
       </c>
       <c r="F80" s="3">
-        <v>175.609</v>
+        <v>175.60900000000001</v>
       </c>
       <c r="G80" s="3">
-        <v>302.379</v>
+        <v>302.37900000000002</v>
       </c>
       <c r="H80" s="3">
-        <v>155.728</v>
+        <v>155.72800000000001</v>
       </c>
       <c r="I80" s="3">
-        <v>49.676</v>
+        <v>49.676000000000002</v>
       </c>
       <c r="J80" s="3">
         <v>213505.516</v>
@@ -5808,10 +5840,10 @@
         <v>13.315</v>
       </c>
       <c r="N80" s="3">
-        <v>7.709</v>
+        <v>7.7089999999999996</v>
       </c>
       <c r="O80" s="3">
-        <v>2.336</v>
+        <v>2.3359999999999999</v>
       </c>
       <c r="P80" s="3">
         <v>21000</v>
@@ -5820,11 +5852,11 @@
         <v>53</v>
       </c>
     </row>
-    <row r="81" ht="13.55" customHeight="1">
+    <row r="81" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>80</v>
       </c>
-      <c r="B81" t="s" s="2">
+      <c r="B81" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C81" s="3">
@@ -5837,16 +5869,16 @@
         <v>6</v>
       </c>
       <c r="F81" s="3">
-        <v>175.609</v>
+        <v>175.60900000000001</v>
       </c>
       <c r="G81" s="3">
         <v>343.971</v>
       </c>
       <c r="H81" s="3">
-        <v>206.825</v>
+        <v>206.82499999999999</v>
       </c>
       <c r="I81" s="3">
-        <v>49.676</v>
+        <v>49.676000000000002</v>
       </c>
       <c r="J81" s="3">
         <v>213505.516</v>
@@ -5861,10 +5893,10 @@
         <v>13.315</v>
       </c>
       <c r="N81" s="3">
-        <v>7.709</v>
+        <v>7.7089999999999996</v>
       </c>
       <c r="O81" s="3">
-        <v>2.336</v>
+        <v>2.3359999999999999</v>
       </c>
       <c r="P81" s="3">
         <v>21000</v>
@@ -5873,11 +5905,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="82" ht="13.55" customHeight="1">
+    <row r="82" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>81</v>
       </c>
-      <c r="B82" t="s" s="2">
+      <c r="B82" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C82" s="3">
@@ -5890,16 +5922,16 @@
         <v>6</v>
       </c>
       <c r="F82" s="3">
-        <v>184.145</v>
+        <v>184.14500000000001</v>
       </c>
       <c r="G82" s="3">
-        <v>270.497</v>
+        <v>270.49700000000001</v>
       </c>
       <c r="H82" s="3">
-        <v>150.877</v>
+        <v>150.87700000000001</v>
       </c>
       <c r="I82" s="3">
-        <v>52.091</v>
+        <v>52.091000000000001</v>
       </c>
       <c r="J82" s="3">
         <v>213505.516</v>
@@ -5914,10 +5946,10 @@
         <v>14.753</v>
       </c>
       <c r="N82" s="3">
-        <v>5.993</v>
+        <v>5.9930000000000003</v>
       </c>
       <c r="O82" s="3">
-        <v>2.305</v>
+        <v>2.3050000000000002</v>
       </c>
       <c r="P82" s="3">
         <v>21000</v>
@@ -5926,11 +5958,11 @@
         <v>53</v>
       </c>
     </row>
-    <row r="83" ht="13.55" customHeight="1">
+    <row r="83" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>82</v>
       </c>
-      <c r="B83" t="s" s="2">
+      <c r="B83" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C83" s="3">
@@ -5943,16 +5975,16 @@
         <v>6</v>
       </c>
       <c r="F83" s="3">
-        <v>184.145</v>
+        <v>184.14500000000001</v>
       </c>
       <c r="G83" s="3">
         <v>301.07</v>
       </c>
       <c r="H83" s="3">
-        <v>180.889</v>
+        <v>180.88900000000001</v>
       </c>
       <c r="I83" s="3">
-        <v>52.091</v>
+        <v>52.091000000000001</v>
       </c>
       <c r="J83" s="3">
         <v>213505.516</v>
@@ -5967,10 +5999,10 @@
         <v>14.753</v>
       </c>
       <c r="N83" s="3">
-        <v>5.993</v>
+        <v>5.9930000000000003</v>
       </c>
       <c r="O83" s="3">
-        <v>2.305</v>
+        <v>2.3050000000000002</v>
       </c>
       <c r="P83" s="3">
         <v>21000</v>
@@ -5979,11 +6011,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="84" ht="13.55" customHeight="1">
+    <row r="84" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
         <v>83</v>
       </c>
-      <c r="B84" t="s" s="2">
+      <c r="B84" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C84" s="3">
@@ -6002,10 +6034,10 @@
         <v>207.054</v>
       </c>
       <c r="H84" s="3">
-        <v>89.97499999999999</v>
+        <v>89.974999999999994</v>
       </c>
       <c r="I84" s="3">
-        <v>52.371</v>
+        <v>52.371000000000002</v>
       </c>
       <c r="J84" s="3">
         <v>213505.516</v>
@@ -6017,13 +6049,13 @@
         <v>3</v>
       </c>
       <c r="M84" s="3">
-        <v>8.323</v>
+        <v>8.3230000000000004</v>
       </c>
       <c r="N84" s="3">
-        <v>5.549</v>
+        <v>5.5490000000000004</v>
       </c>
       <c r="O84" s="3">
-        <v>1.541</v>
+        <v>1.5409999999999999</v>
       </c>
       <c r="P84" s="3">
         <v>21000</v>
@@ -6032,11 +6064,11 @@
         <v>53</v>
       </c>
     </row>
-    <row r="85" ht="13.55" customHeight="1">
+    <row r="85" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>84</v>
       </c>
-      <c r="B85" t="s" s="2">
+      <c r="B85" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C85" s="3">
@@ -6055,10 +6087,10 @@
         <v>234.797</v>
       </c>
       <c r="H85" s="3">
-        <v>160.789</v>
+        <v>160.78899999999999</v>
       </c>
       <c r="I85" s="3">
-        <v>52.371</v>
+        <v>52.371000000000002</v>
       </c>
       <c r="J85" s="3">
         <v>213505.516</v>
@@ -6070,13 +6102,13 @@
         <v>3</v>
       </c>
       <c r="M85" s="3">
-        <v>8.323</v>
+        <v>8.3230000000000004</v>
       </c>
       <c r="N85" s="3">
-        <v>5.549</v>
+        <v>5.5490000000000004</v>
       </c>
       <c r="O85" s="3">
-        <v>1.541</v>
+        <v>1.5409999999999999</v>
       </c>
       <c r="P85" s="3">
         <v>21000</v>
@@ -6085,11 +6117,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="86" ht="13.55" customHeight="1">
+    <row r="86" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>85</v>
       </c>
-      <c r="B86" t="s" s="2">
+      <c r="B86" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C86" s="3">
@@ -6105,10 +6137,10 @@
         <v>182.928</v>
       </c>
       <c r="G86" s="3">
-        <v>145.407</v>
+        <v>145.40700000000001</v>
       </c>
       <c r="H86" s="3">
-        <v>123.019</v>
+        <v>123.01900000000001</v>
       </c>
       <c r="I86" s="3">
         <v>51.747</v>
@@ -6123,13 +6155,13 @@
         <v>3</v>
       </c>
       <c r="M86" s="3">
-        <v>13.517</v>
+        <v>13.516999999999999</v>
       </c>
       <c r="N86" s="3">
-        <v>8.207000000000001</v>
+        <v>8.2070000000000007</v>
       </c>
       <c r="O86" s="3">
-        <v>2.414</v>
+        <v>2.4140000000000001</v>
       </c>
       <c r="P86" s="3">
         <v>21000</v>
@@ -6138,11 +6170,11 @@
         <v>53</v>
       </c>
     </row>
-    <row r="87" ht="13.55" customHeight="1">
+    <row r="87" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <v>86</v>
       </c>
-      <c r="B87" t="s" s="2">
+      <c r="B87" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C87" s="3">
@@ -6158,7 +6190,7 @@
         <v>182.928</v>
       </c>
       <c r="G87" s="3">
-        <v>160.481</v>
+        <v>160.48099999999999</v>
       </c>
       <c r="H87" s="3">
         <v>173.941</v>
@@ -6176,13 +6208,13 @@
         <v>3</v>
       </c>
       <c r="M87" s="3">
-        <v>13.517</v>
+        <v>13.516999999999999</v>
       </c>
       <c r="N87" s="3">
-        <v>8.207000000000001</v>
+        <v>8.2070000000000007</v>
       </c>
       <c r="O87" s="3">
-        <v>2.414</v>
+        <v>2.4140000000000001</v>
       </c>
       <c r="P87" s="3">
         <v>21000</v>
@@ -6191,39 +6223,39 @@
         <v>35</v>
       </c>
     </row>
-    <row r="88" ht="13.55" customHeight="1">
+    <row r="88" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>87</v>
       </c>
-      <c r="B88" t="s" s="2">
+      <c r="B88" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C88" s="3">
         <v>1995</v>
       </c>
       <c r="D88" s="3">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="E88" s="3">
         <v>6</v>
       </c>
       <c r="F88" s="3">
-        <v>155.954</v>
+        <v>155.95400000000001</v>
       </c>
       <c r="G88" s="3">
-        <v>87.111</v>
+        <v>87.111000000000004</v>
       </c>
       <c r="H88" s="3">
         <v>49.99</v>
       </c>
       <c r="I88" s="3">
-        <v>48.528</v>
+        <v>48.527999999999999</v>
       </c>
       <c r="J88" s="3">
         <v>148226.875</v>
       </c>
       <c r="K88" s="3">
-        <v>2.667</v>
+        <v>2.6669999999999998</v>
       </c>
       <c r="L88" s="3">
         <v>3</v>
@@ -6232,7 +6264,7 @@
         <v>7.86</v>
       </c>
       <c r="N88" s="3">
-        <v>3.368</v>
+        <v>3.3679999999999999</v>
       </c>
       <c r="O88" s="3">
         <v>1.248</v>
@@ -6244,39 +6276,39 @@
         <v>35</v>
       </c>
     </row>
-    <row r="89" ht="13.55" customHeight="1">
+    <row r="89" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>88</v>
       </c>
-      <c r="B89" t="s" s="2">
+      <c r="B89" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C89" s="3">
         <v>1995</v>
       </c>
       <c r="D89" s="3">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="E89" s="3">
         <v>6</v>
       </c>
       <c r="F89" s="3">
-        <v>155.954</v>
+        <v>155.95400000000001</v>
       </c>
       <c r="G89" s="3">
-        <v>95.355</v>
+        <v>95.355000000000004</v>
       </c>
       <c r="H89" s="3">
         <v>60.34</v>
       </c>
       <c r="I89" s="3">
-        <v>48.528</v>
+        <v>48.527999999999999</v>
       </c>
       <c r="J89" s="3">
         <v>148226.875</v>
       </c>
       <c r="K89" s="3">
-        <v>2.667</v>
+        <v>2.6669999999999998</v>
       </c>
       <c r="L89" s="3">
         <v>3</v>
@@ -6285,7 +6317,7 @@
         <v>7.86</v>
       </c>
       <c r="N89" s="3">
-        <v>3.368</v>
+        <v>3.3679999999999999</v>
       </c>
       <c r="O89" s="3">
         <v>1.248</v>
@@ -6297,11 +6329,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="90" ht="13.55" customHeight="1">
+    <row r="90" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
         <v>89</v>
       </c>
-      <c r="B90" t="s" s="2">
+      <c r="B90" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C90" s="3">
@@ -6314,22 +6346,22 @@
         <v>6</v>
       </c>
       <c r="F90" s="3">
-        <v>155.954</v>
+        <v>155.95400000000001</v>
       </c>
       <c r="G90" s="3">
-        <v>75.715</v>
+        <v>75.715000000000003</v>
       </c>
       <c r="H90" s="3">
         <v>48.85</v>
       </c>
       <c r="I90" s="3">
-        <v>48.528</v>
+        <v>48.527999999999999</v>
       </c>
       <c r="J90" s="3">
         <v>148226.875</v>
       </c>
       <c r="K90" s="3">
-        <v>2.667</v>
+        <v>2.6669999999999998</v>
       </c>
       <c r="L90" s="3">
         <v>3</v>
@@ -6338,7 +6370,7 @@
         <v>7.86</v>
       </c>
       <c r="N90" s="3">
-        <v>3.368</v>
+        <v>3.3679999999999999</v>
       </c>
       <c r="O90" s="3">
         <v>1.248</v>
@@ -6350,11 +6382,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="91" ht="13.55" customHeight="1">
+    <row r="91" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
         <v>90</v>
       </c>
-      <c r="B91" t="s" s="2">
+      <c r="B91" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C91" s="3">
@@ -6367,22 +6399,22 @@
         <v>6</v>
       </c>
       <c r="F91" s="3">
-        <v>155.954</v>
+        <v>155.95400000000001</v>
       </c>
       <c r="G91" s="3">
-        <v>75.715</v>
+        <v>75.715000000000003</v>
       </c>
       <c r="H91" s="3">
         <v>48.85</v>
       </c>
       <c r="I91" s="3">
-        <v>48.528</v>
+        <v>48.527999999999999</v>
       </c>
       <c r="J91" s="3">
         <v>148226.875</v>
       </c>
       <c r="K91" s="3">
-        <v>2.667</v>
+        <v>2.6669999999999998</v>
       </c>
       <c r="L91" s="3">
         <v>3</v>
@@ -6391,7 +6423,7 @@
         <v>7.86</v>
       </c>
       <c r="N91" s="3">
-        <v>3.368</v>
+        <v>3.3679999999999999</v>
       </c>
       <c r="O91" s="3">
         <v>1.248</v>
@@ -6404,8 +6436,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.787402" bottom="0.787402" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740200000000005" bottom="0.78740200000000005" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -6413,900 +6445,900 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="21.6719" style="4" customWidth="1"/>
-    <col min="3" max="3" width="21" style="4" customWidth="1"/>
-    <col min="4" max="9" width="10.8516" style="4" customWidth="1"/>
-    <col min="10" max="10" width="40" style="4" customWidth="1"/>
-    <col min="11" max="11" width="36.6719" style="4" customWidth="1"/>
-    <col min="12" max="12" width="36.5" style="4" customWidth="1"/>
-    <col min="13" max="13" width="21.5" style="4" customWidth="1"/>
-    <col min="14" max="15" width="10.8516" style="4" customWidth="1"/>
-    <col min="16" max="16384" width="10.8516" style="4" customWidth="1"/>
+    <col min="1" max="1" width="19.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21" style="1" customWidth="1"/>
+    <col min="4" max="9" width="10.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="40" style="1" customWidth="1"/>
+    <col min="11" max="11" width="36.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="36.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="21.5" style="1" customWidth="1"/>
+    <col min="14" max="16" width="10.83203125" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.55" customHeight="1">
-      <c r="A1" t="s" s="5">
+    <row r="1" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B1" t="s" s="5">
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="5">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s" s="5">
+      <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s" s="5">
+      <c r="E1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s" s="5">
+      <c r="F1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s" s="5">
+      <c r="G1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s" s="5">
+      <c r="H1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I1" t="s" s="5">
+      <c r="I1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J1" t="s" s="5">
+      <c r="J1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K1" t="s" s="5">
+      <c r="K1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L1" t="s" s="5">
+      <c r="L1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="M1" t="s" s="5">
+      <c r="M1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="N1" t="s" s="5">
+      <c r="N1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="6"/>
-    </row>
-    <row r="2" ht="13.55" customHeight="1">
-      <c r="A2" t="s" s="7">
+      <c r="O1" s="5"/>
+    </row>
+    <row r="2" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="7">
         <v>1880</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>1918</v>
       </c>
-      <c r="D2" s="8">
-        <v>183.794</v>
-      </c>
-      <c r="E2" s="8">
+      <c r="D2" s="7">
+        <v>183.79400000000001</v>
+      </c>
+      <c r="E2" s="7">
         <v>249.86</v>
       </c>
-      <c r="F2" s="8">
-        <v>99.962</v>
-      </c>
-      <c r="G2" s="8">
-        <v>51.992</v>
-      </c>
-      <c r="H2" s="8">
+      <c r="F2" s="7">
+        <v>99.962000000000003</v>
+      </c>
+      <c r="G2" s="7">
+        <v>51.991999999999997</v>
+      </c>
+      <c r="H2" s="7">
         <v>398415.375</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="7">
         <v>3.5</v>
       </c>
-      <c r="J2" s="8">
-        <v>7.443</v>
-      </c>
-      <c r="K2" s="8">
-        <v>4.894</v>
-      </c>
-      <c r="L2" s="8">
+      <c r="J2" s="7">
+        <v>7.4429999999999996</v>
+      </c>
+      <c r="K2" s="7">
+        <v>4.8940000000000001</v>
+      </c>
+      <c r="L2" s="7">
         <v>1.371</v>
       </c>
-      <c r="M2" s="8">
-        <v>3</v>
-      </c>
-      <c r="N2" s="9">
-        <v>147.641</v>
-      </c>
-      <c r="O2" s="10"/>
-    </row>
-    <row r="3" ht="13.55" customHeight="1">
-      <c r="A3" t="s" s="11">
+      <c r="M2" s="7">
+        <v>3</v>
+      </c>
+      <c r="N2" s="8">
+        <v>147.64099999999999</v>
+      </c>
+      <c r="O2" s="9"/>
+    </row>
+    <row r="3" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="11">
         <v>1880</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="11">
         <v>1918</v>
       </c>
-      <c r="D3" s="12">
-        <v>183.794</v>
-      </c>
-      <c r="E3" s="12">
-        <v>455.146</v>
-      </c>
-      <c r="F3" s="12">
+      <c r="D3" s="11">
+        <v>183.79400000000001</v>
+      </c>
+      <c r="E3" s="11">
+        <v>455.14600000000002</v>
+      </c>
+      <c r="F3" s="11">
         <v>167.626</v>
       </c>
-      <c r="G3" s="12">
-        <v>51.992</v>
-      </c>
-      <c r="H3" s="12">
+      <c r="G3" s="11">
+        <v>51.991999999999997</v>
+      </c>
+      <c r="H3" s="11">
         <v>398415.375</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I3" s="11">
         <v>3.5</v>
       </c>
-      <c r="J3" s="12">
-        <v>7.443</v>
-      </c>
-      <c r="K3" s="12">
-        <v>4.894</v>
-      </c>
-      <c r="L3" s="12">
+      <c r="J3" s="11">
+        <v>7.4429999999999996</v>
+      </c>
+      <c r="K3" s="11">
+        <v>4.8940000000000001</v>
+      </c>
+      <c r="L3" s="11">
         <v>1.371</v>
       </c>
-      <c r="M3" s="12">
-        <v>3</v>
-      </c>
-      <c r="N3" s="13">
+      <c r="M3" s="11">
+        <v>3</v>
+      </c>
+      <c r="N3" s="12">
         <v>281.483</v>
       </c>
-      <c r="O3" s="10"/>
-    </row>
-    <row r="4" ht="13.55" customHeight="1">
-      <c r="A4" t="s" s="14">
+      <c r="O3" s="9"/>
+    </row>
+    <row r="4" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="14">
         <v>1919</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="14">
         <v>1948</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="14">
         <v>166.934</v>
       </c>
-      <c r="E4" s="15">
-        <v>223.425</v>
-      </c>
-      <c r="F4" s="15">
-        <v>130.683</v>
-      </c>
-      <c r="G4" s="15">
-        <v>47.222</v>
-      </c>
-      <c r="H4" s="15">
-        <v>338121.656</v>
-      </c>
-      <c r="I4" s="15">
+      <c r="E4" s="14">
+        <v>223.42500000000001</v>
+      </c>
+      <c r="F4" s="14">
+        <v>130.68299999999999</v>
+      </c>
+      <c r="G4" s="14">
+        <v>47.222000000000001</v>
+      </c>
+      <c r="H4" s="14">
+        <v>338121.65600000002</v>
+      </c>
+      <c r="I4" s="14">
         <v>3.5</v>
       </c>
-      <c r="J4" s="15">
-        <v>12.082</v>
-      </c>
-      <c r="K4" s="15">
-        <v>5.744</v>
-      </c>
-      <c r="L4" s="15">
-        <v>1.981</v>
-      </c>
-      <c r="M4" s="15">
-        <v>3</v>
-      </c>
-      <c r="N4" s="16">
+      <c r="J4" s="14">
+        <v>12.082000000000001</v>
+      </c>
+      <c r="K4" s="14">
+        <v>5.7439999999999998</v>
+      </c>
+      <c r="L4" s="14">
+        <v>1.9810000000000001</v>
+      </c>
+      <c r="M4" s="14">
+        <v>3</v>
+      </c>
+      <c r="N4" s="15">
         <v>154.227</v>
       </c>
-      <c r="O4" s="10"/>
-    </row>
-    <row r="5" ht="13.55" customHeight="1">
-      <c r="A5" t="s" s="11">
+      <c r="O4" s="9"/>
+    </row>
+    <row r="5" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="11">
         <v>1919</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="11">
         <v>1948</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="11">
         <v>166.934</v>
       </c>
-      <c r="E5" s="12">
-        <v>400.932</v>
-      </c>
-      <c r="F5" s="12">
-        <v>169.658</v>
-      </c>
-      <c r="G5" s="12">
-        <v>47.222</v>
-      </c>
-      <c r="H5" s="12">
-        <v>338121.656</v>
-      </c>
-      <c r="I5" s="12">
+      <c r="E5" s="11">
+        <v>400.93200000000002</v>
+      </c>
+      <c r="F5" s="11">
+        <v>169.65799999999999</v>
+      </c>
+      <c r="G5" s="11">
+        <v>47.222000000000001</v>
+      </c>
+      <c r="H5" s="11">
+        <v>338121.65600000002</v>
+      </c>
+      <c r="I5" s="11">
         <v>3.5</v>
       </c>
-      <c r="J5" s="12">
-        <v>12.082</v>
-      </c>
-      <c r="K5" s="12">
-        <v>5.744</v>
-      </c>
-      <c r="L5" s="12">
-        <v>1.981</v>
-      </c>
-      <c r="M5" s="12">
-        <v>3</v>
-      </c>
-      <c r="N5" s="13">
-        <v>269.841</v>
-      </c>
-      <c r="O5" s="10"/>
-    </row>
-    <row r="6" ht="13.55" customHeight="1">
-      <c r="A6" t="s" s="14">
+      <c r="J5" s="11">
+        <v>12.082000000000001</v>
+      </c>
+      <c r="K5" s="11">
+        <v>5.7439999999999998</v>
+      </c>
+      <c r="L5" s="11">
+        <v>1.9810000000000001</v>
+      </c>
+      <c r="M5" s="11">
+        <v>3</v>
+      </c>
+      <c r="N5" s="12">
+        <v>269.84100000000001</v>
+      </c>
+      <c r="O5" s="9"/>
+    </row>
+    <row r="6" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="14">
         <v>1949</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="14">
         <v>1957</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="14">
         <v>174.14</v>
       </c>
-      <c r="E6" s="15">
-        <v>273.155</v>
-      </c>
-      <c r="F6" s="15">
+      <c r="E6" s="14">
+        <v>273.15499999999997</v>
+      </c>
+      <c r="F6" s="14">
         <v>114.283</v>
       </c>
-      <c r="G6" s="15">
-        <v>49.261</v>
-      </c>
-      <c r="H6" s="15">
+      <c r="G6" s="14">
+        <v>49.261000000000003</v>
+      </c>
+      <c r="H6" s="14">
         <v>213505.516</v>
       </c>
-      <c r="I6" s="15">
-        <v>3</v>
-      </c>
-      <c r="J6" s="15">
-        <v>10.037</v>
-      </c>
-      <c r="K6" s="15">
-        <v>4.533</v>
-      </c>
-      <c r="L6" s="15">
+      <c r="I6" s="14">
+        <v>3</v>
+      </c>
+      <c r="J6" s="14">
+        <v>10.037000000000001</v>
+      </c>
+      <c r="K6" s="14">
+        <v>4.5330000000000004</v>
+      </c>
+      <c r="L6" s="14">
         <v>1.619</v>
       </c>
-      <c r="M6" s="15">
-        <v>3</v>
-      </c>
-      <c r="N6" s="16">
-        <v>173.866</v>
-      </c>
-      <c r="O6" s="10"/>
-    </row>
-    <row r="7" ht="13.55" customHeight="1">
-      <c r="A7" t="s" s="11">
+      <c r="M6" s="14">
+        <v>3</v>
+      </c>
+      <c r="N6" s="15">
+        <v>173.86600000000001</v>
+      </c>
+      <c r="O6" s="9"/>
+    </row>
+    <row r="7" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="11">
         <v>1949</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="11">
         <v>1957</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="11">
         <v>174.14</v>
       </c>
-      <c r="E7" s="12">
-        <v>303.876</v>
-      </c>
-      <c r="F7" s="12">
-        <v>136.287</v>
-      </c>
-      <c r="G7" s="12">
-        <v>49.261</v>
-      </c>
-      <c r="H7" s="12">
+      <c r="E7" s="11">
+        <v>303.87599999999998</v>
+      </c>
+      <c r="F7" s="11">
+        <v>136.28700000000001</v>
+      </c>
+      <c r="G7" s="11">
+        <v>49.261000000000003</v>
+      </c>
+      <c r="H7" s="11">
         <v>213505.516</v>
       </c>
-      <c r="I7" s="12">
-        <v>3</v>
-      </c>
-      <c r="J7" s="12">
-        <v>10.037</v>
-      </c>
-      <c r="K7" s="12">
-        <v>4.533</v>
-      </c>
-      <c r="L7" s="12">
+      <c r="I7" s="11">
+        <v>3</v>
+      </c>
+      <c r="J7" s="11">
+        <v>10.037000000000001</v>
+      </c>
+      <c r="K7" s="11">
+        <v>4.5330000000000004</v>
+      </c>
+      <c r="L7" s="11">
         <v>1.619</v>
       </c>
-      <c r="M7" s="12">
-        <v>3</v>
-      </c>
-      <c r="N7" s="13">
-        <v>200.957</v>
-      </c>
-      <c r="O7" s="10"/>
-    </row>
-    <row r="8" ht="13.55" customHeight="1">
-      <c r="A8" t="s" s="14">
+      <c r="M7" s="11">
+        <v>3</v>
+      </c>
+      <c r="N7" s="12">
+        <v>200.95699999999999</v>
+      </c>
+      <c r="O7" s="9"/>
+    </row>
+    <row r="8" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="14">
         <v>1958</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="14">
         <v>1968</v>
       </c>
-      <c r="D8" s="15">
-        <v>175.609</v>
-      </c>
-      <c r="E8" s="15">
-        <v>302.379</v>
-      </c>
-      <c r="F8" s="15">
-        <v>155.728</v>
-      </c>
-      <c r="G8" s="15">
-        <v>49.676</v>
-      </c>
-      <c r="H8" s="15">
+      <c r="D8" s="14">
+        <v>175.60900000000001</v>
+      </c>
+      <c r="E8" s="14">
+        <v>302.37900000000002</v>
+      </c>
+      <c r="F8" s="14">
+        <v>155.72800000000001</v>
+      </c>
+      <c r="G8" s="14">
+        <v>49.676000000000002</v>
+      </c>
+      <c r="H8" s="14">
         <v>213505.516</v>
       </c>
-      <c r="I8" s="15">
-        <v>3</v>
-      </c>
-      <c r="J8" s="15">
+      <c r="I8" s="14">
+        <v>3</v>
+      </c>
+      <c r="J8" s="14">
         <v>13.315</v>
       </c>
-      <c r="K8" s="15">
-        <v>7.709</v>
-      </c>
-      <c r="L8" s="15">
-        <v>2.336</v>
-      </c>
-      <c r="M8" s="15">
-        <v>3</v>
-      </c>
-      <c r="N8" s="16">
-        <v>195.951</v>
-      </c>
-      <c r="O8" s="10"/>
-    </row>
-    <row r="9" ht="13.55" customHeight="1">
-      <c r="A9" t="s" s="11">
+      <c r="K8" s="14">
+        <v>7.7089999999999996</v>
+      </c>
+      <c r="L8" s="14">
+        <v>2.3359999999999999</v>
+      </c>
+      <c r="M8" s="14">
+        <v>3</v>
+      </c>
+      <c r="N8" s="15">
+        <v>195.95099999999999</v>
+      </c>
+      <c r="O8" s="9"/>
+    </row>
+    <row r="9" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="11">
         <v>1958</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="11">
         <v>1968</v>
       </c>
-      <c r="D9" s="12">
-        <v>175.609</v>
-      </c>
-      <c r="E9" s="12">
+      <c r="D9" s="11">
+        <v>175.60900000000001</v>
+      </c>
+      <c r="E9" s="11">
         <v>343.971</v>
       </c>
-      <c r="F9" s="12">
-        <v>206.825</v>
-      </c>
-      <c r="G9" s="12">
-        <v>49.676</v>
-      </c>
-      <c r="H9" s="12">
+      <c r="F9" s="11">
+        <v>206.82499999999999</v>
+      </c>
+      <c r="G9" s="11">
+        <v>49.676000000000002</v>
+      </c>
+      <c r="H9" s="11">
         <v>213505.516</v>
       </c>
-      <c r="I9" s="12">
-        <v>3</v>
-      </c>
-      <c r="J9" s="12">
+      <c r="I9" s="11">
+        <v>3</v>
+      </c>
+      <c r="J9" s="11">
         <v>13.315</v>
       </c>
-      <c r="K9" s="12">
-        <v>7.709</v>
-      </c>
-      <c r="L9" s="12">
-        <v>2.336</v>
-      </c>
-      <c r="M9" s="12">
-        <v>3</v>
-      </c>
-      <c r="N9" s="13">
-        <v>243.444</v>
-      </c>
-      <c r="O9" s="10"/>
-    </row>
-    <row r="10" ht="13.55" customHeight="1">
-      <c r="A10" t="s" s="14">
+      <c r="K9" s="11">
+        <v>7.7089999999999996</v>
+      </c>
+      <c r="L9" s="11">
+        <v>2.3359999999999999</v>
+      </c>
+      <c r="M9" s="11">
+        <v>3</v>
+      </c>
+      <c r="N9" s="12">
+        <v>243.44399999999999</v>
+      </c>
+      <c r="O9" s="9"/>
+    </row>
+    <row r="10" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="14">
         <v>1969</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="14">
         <v>1978</v>
       </c>
-      <c r="D10" s="15">
-        <v>184.145</v>
-      </c>
-      <c r="E10" s="15">
-        <v>270.497</v>
-      </c>
-      <c r="F10" s="15">
-        <v>150.877</v>
-      </c>
-      <c r="G10" s="15">
-        <v>52.091</v>
-      </c>
-      <c r="H10" s="15">
+      <c r="D10" s="14">
+        <v>184.14500000000001</v>
+      </c>
+      <c r="E10" s="14">
+        <v>270.49700000000001</v>
+      </c>
+      <c r="F10" s="14">
+        <v>150.87700000000001</v>
+      </c>
+      <c r="G10" s="14">
+        <v>52.091000000000001</v>
+      </c>
+      <c r="H10" s="14">
         <v>213505.516</v>
       </c>
-      <c r="I10" s="15">
-        <v>3</v>
-      </c>
-      <c r="J10" s="15">
+      <c r="I10" s="14">
+        <v>3</v>
+      </c>
+      <c r="J10" s="14">
         <v>14.753</v>
       </c>
-      <c r="K10" s="15">
-        <v>5.993</v>
-      </c>
-      <c r="L10" s="15">
-        <v>2.305</v>
-      </c>
-      <c r="M10" s="15">
-        <v>3</v>
-      </c>
-      <c r="N10" s="16">
-        <v>170.795</v>
-      </c>
-      <c r="O10" s="10"/>
-    </row>
-    <row r="11" ht="13.55" customHeight="1">
-      <c r="A11" t="s" s="11">
+      <c r="K10" s="14">
+        <v>5.9930000000000003</v>
+      </c>
+      <c r="L10" s="14">
+        <v>2.3050000000000002</v>
+      </c>
+      <c r="M10" s="14">
+        <v>3</v>
+      </c>
+      <c r="N10" s="15">
+        <v>170.79499999999999</v>
+      </c>
+      <c r="O10" s="9"/>
+    </row>
+    <row r="11" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="11">
         <v>1969</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="11">
         <v>1978</v>
       </c>
-      <c r="D11" s="12">
-        <v>184.145</v>
-      </c>
-      <c r="E11" s="12">
+      <c r="D11" s="11">
+        <v>184.14500000000001</v>
+      </c>
+      <c r="E11" s="11">
         <v>301.07</v>
       </c>
-      <c r="F11" s="12">
-        <v>180.889</v>
-      </c>
-      <c r="G11" s="12">
-        <v>52.091</v>
-      </c>
-      <c r="H11" s="12">
+      <c r="F11" s="11">
+        <v>180.88900000000001</v>
+      </c>
+      <c r="G11" s="11">
+        <v>52.091000000000001</v>
+      </c>
+      <c r="H11" s="11">
         <v>213505.516</v>
       </c>
-      <c r="I11" s="12">
-        <v>3</v>
-      </c>
-      <c r="J11" s="12">
+      <c r="I11" s="11">
+        <v>3</v>
+      </c>
+      <c r="J11" s="11">
         <v>14.753</v>
       </c>
-      <c r="K11" s="12">
-        <v>5.993</v>
-      </c>
-      <c r="L11" s="12">
-        <v>2.305</v>
-      </c>
-      <c r="M11" s="12">
-        <v>3</v>
-      </c>
-      <c r="N11" s="13">
+      <c r="K11" s="11">
+        <v>5.9930000000000003</v>
+      </c>
+      <c r="L11" s="11">
+        <v>2.3050000000000002</v>
+      </c>
+      <c r="M11" s="11">
+        <v>3</v>
+      </c>
+      <c r="N11" s="12">
         <v>200.227</v>
       </c>
-      <c r="O11" s="10"/>
-    </row>
-    <row r="12" ht="13.55" customHeight="1">
-      <c r="A12" t="s" s="14">
+      <c r="O11" s="9"/>
+    </row>
+    <row r="12" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="14">
         <v>1979</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="14">
         <v>1983</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="14">
         <v>185.137</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="14">
         <v>207.054</v>
       </c>
-      <c r="F12" s="15">
-        <v>89.97499999999999</v>
-      </c>
-      <c r="G12" s="15">
-        <v>52.371</v>
-      </c>
-      <c r="H12" s="15">
+      <c r="F12" s="14">
+        <v>89.974999999999994</v>
+      </c>
+      <c r="G12" s="14">
+        <v>52.371000000000002</v>
+      </c>
+      <c r="H12" s="14">
         <v>213505.516</v>
       </c>
-      <c r="I12" s="15">
-        <v>3</v>
-      </c>
-      <c r="J12" s="15">
-        <v>8.323</v>
-      </c>
-      <c r="K12" s="15">
-        <v>5.549</v>
-      </c>
-      <c r="L12" s="15">
-        <v>1.541</v>
-      </c>
-      <c r="M12" s="15">
-        <v>3</v>
-      </c>
-      <c r="N12" s="16">
+      <c r="I12" s="14">
+        <v>3</v>
+      </c>
+      <c r="J12" s="14">
+        <v>8.3230000000000004</v>
+      </c>
+      <c r="K12" s="14">
+        <v>5.5490000000000004</v>
+      </c>
+      <c r="L12" s="14">
+        <v>1.5409999999999999</v>
+      </c>
+      <c r="M12" s="14">
+        <v>3</v>
+      </c>
+      <c r="N12" s="15">
         <v>121.051</v>
       </c>
-      <c r="O12" s="10"/>
-    </row>
-    <row r="13" ht="13.55" customHeight="1">
-      <c r="A13" t="s" s="11">
+      <c r="O12" s="9"/>
+    </row>
+    <row r="13" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="11">
         <v>1979</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="11">
         <v>1983</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="11">
         <v>185.137</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="11">
         <v>234.797</v>
       </c>
-      <c r="F13" s="12">
-        <v>160.789</v>
-      </c>
-      <c r="G13" s="12">
-        <v>52.371</v>
-      </c>
-      <c r="H13" s="12">
+      <c r="F13" s="11">
+        <v>160.78899999999999</v>
+      </c>
+      <c r="G13" s="11">
+        <v>52.371000000000002</v>
+      </c>
+      <c r="H13" s="11">
         <v>213505.516</v>
       </c>
-      <c r="I13" s="12">
-        <v>3</v>
-      </c>
-      <c r="J13" s="12">
-        <v>8.323</v>
-      </c>
-      <c r="K13" s="12">
-        <v>5.549</v>
-      </c>
-      <c r="L13" s="12">
-        <v>1.541</v>
-      </c>
-      <c r="M13" s="12">
-        <v>3</v>
-      </c>
-      <c r="N13" s="13">
-        <v>168.966</v>
-      </c>
-      <c r="O13" s="10"/>
-    </row>
-    <row r="14" ht="13.55" customHeight="1">
-      <c r="A14" t="s" s="14">
+      <c r="I13" s="11">
+        <v>3</v>
+      </c>
+      <c r="J13" s="11">
+        <v>8.3230000000000004</v>
+      </c>
+      <c r="K13" s="11">
+        <v>5.5490000000000004</v>
+      </c>
+      <c r="L13" s="11">
+        <v>1.5409999999999999</v>
+      </c>
+      <c r="M13" s="11">
+        <v>3</v>
+      </c>
+      <c r="N13" s="12">
+        <v>168.96600000000001</v>
+      </c>
+      <c r="O13" s="9"/>
+    </row>
+    <row r="14" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="14">
         <v>1984</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="14">
         <v>1994</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="14">
         <v>182.928</v>
       </c>
-      <c r="E14" s="15">
-        <v>145.407</v>
-      </c>
-      <c r="F14" s="15">
-        <v>123.019</v>
-      </c>
-      <c r="G14" s="15">
+      <c r="E14" s="14">
+        <v>145.40700000000001</v>
+      </c>
+      <c r="F14" s="14">
+        <v>123.01900000000001</v>
+      </c>
+      <c r="G14" s="14">
         <v>51.747</v>
       </c>
-      <c r="H14" s="15">
+      <c r="H14" s="14">
         <v>213505.516</v>
       </c>
-      <c r="I14" s="15">
-        <v>3</v>
-      </c>
-      <c r="J14" s="15">
-        <v>13.517</v>
-      </c>
-      <c r="K14" s="15">
-        <v>8.207000000000001</v>
-      </c>
-      <c r="L14" s="15">
-        <v>2.414</v>
-      </c>
-      <c r="M14" s="15">
-        <v>3</v>
-      </c>
-      <c r="N14" s="16">
-        <v>97.078</v>
-      </c>
-      <c r="O14" s="10"/>
-    </row>
-    <row r="15" ht="13.55" customHeight="1">
-      <c r="A15" t="s" s="11">
+      <c r="I14" s="14">
+        <v>3</v>
+      </c>
+      <c r="J14" s="14">
+        <v>13.516999999999999</v>
+      </c>
+      <c r="K14" s="14">
+        <v>8.2070000000000007</v>
+      </c>
+      <c r="L14" s="14">
+        <v>2.4140000000000001</v>
+      </c>
+      <c r="M14" s="14">
+        <v>3</v>
+      </c>
+      <c r="N14" s="15">
+        <v>97.078000000000003</v>
+      </c>
+      <c r="O14" s="9"/>
+    </row>
+    <row r="15" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="11">
         <v>1984</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="11">
         <v>1994</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="11">
         <v>182.928</v>
       </c>
-      <c r="E15" s="12">
-        <v>160.481</v>
-      </c>
-      <c r="F15" s="12">
+      <c r="E15" s="11">
+        <v>160.48099999999999</v>
+      </c>
+      <c r="F15" s="11">
         <v>173.941</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="11">
         <v>51.747</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H15" s="11">
         <v>213505.516</v>
       </c>
-      <c r="I15" s="12">
-        <v>3</v>
-      </c>
-      <c r="J15" s="12">
-        <v>13.517</v>
-      </c>
-      <c r="K15" s="12">
-        <v>8.207000000000001</v>
-      </c>
-      <c r="L15" s="12">
-        <v>2.414</v>
-      </c>
-      <c r="M15" s="12">
-        <v>3</v>
-      </c>
-      <c r="N15" s="13">
+      <c r="I15" s="11">
+        <v>3</v>
+      </c>
+      <c r="J15" s="11">
+        <v>13.516999999999999</v>
+      </c>
+      <c r="K15" s="11">
+        <v>8.2070000000000007</v>
+      </c>
+      <c r="L15" s="11">
+        <v>2.4140000000000001</v>
+      </c>
+      <c r="M15" s="11">
+        <v>3</v>
+      </c>
+      <c r="N15" s="12">
         <v>128.078</v>
       </c>
-      <c r="O15" s="10"/>
-    </row>
-    <row r="16" ht="13.55" customHeight="1">
-      <c r="A16" t="s" s="14">
+      <c r="O15" s="9"/>
+    </row>
+    <row r="16" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="14">
         <v>1995</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="14">
         <v>2012</v>
       </c>
-      <c r="D16" s="15">
-        <v>155.954</v>
-      </c>
-      <c r="E16" s="15">
-        <v>87.111</v>
-      </c>
-      <c r="F16" s="15">
+      <c r="D16" s="14">
+        <v>155.95400000000001</v>
+      </c>
+      <c r="E16" s="14">
+        <v>87.111000000000004</v>
+      </c>
+      <c r="F16" s="14">
         <v>49.99</v>
       </c>
-      <c r="G16" s="15">
-        <v>48.528</v>
-      </c>
-      <c r="H16" s="15">
+      <c r="G16" s="14">
+        <v>48.527999999999999</v>
+      </c>
+      <c r="H16" s="14">
         <v>148226.875</v>
       </c>
-      <c r="I16" s="15">
-        <v>2.667</v>
-      </c>
-      <c r="J16" s="15">
+      <c r="I16" s="14">
+        <v>2.6669999999999998</v>
+      </c>
+      <c r="J16" s="14">
         <v>7.86</v>
       </c>
-      <c r="K16" s="15">
-        <v>3.368</v>
-      </c>
-      <c r="L16" s="15">
+      <c r="K16" s="14">
+        <v>3.3679999999999999</v>
+      </c>
+      <c r="L16" s="14">
         <v>1.248</v>
       </c>
-      <c r="M16" s="15">
-        <v>3</v>
-      </c>
-      <c r="N16" s="16">
-        <v>64.554</v>
-      </c>
-      <c r="O16" s="10"/>
-    </row>
-    <row r="17" ht="13.55" customHeight="1">
-      <c r="A17" t="s" s="11">
+      <c r="M16" s="14">
+        <v>3</v>
+      </c>
+      <c r="N16" s="15">
+        <v>64.554000000000002</v>
+      </c>
+      <c r="O16" s="9"/>
+    </row>
+    <row r="17" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="11">
         <v>1995</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="11">
         <v>2012</v>
       </c>
-      <c r="D17" s="12">
-        <v>155.954</v>
-      </c>
-      <c r="E17" s="12">
-        <v>95.355</v>
-      </c>
-      <c r="F17" s="12">
+      <c r="D17" s="11">
+        <v>155.95400000000001</v>
+      </c>
+      <c r="E17" s="11">
+        <v>95.355000000000004</v>
+      </c>
+      <c r="F17" s="11">
         <v>60.34</v>
       </c>
-      <c r="G17" s="12">
-        <v>48.528</v>
-      </c>
-      <c r="H17" s="12">
+      <c r="G17" s="11">
+        <v>48.527999999999999</v>
+      </c>
+      <c r="H17" s="11">
         <v>148226.875</v>
       </c>
-      <c r="I17" s="12">
-        <v>2.667</v>
-      </c>
-      <c r="J17" s="12">
+      <c r="I17" s="11">
+        <v>2.6669999999999998</v>
+      </c>
+      <c r="J17" s="11">
         <v>7.86</v>
       </c>
-      <c r="K17" s="12">
-        <v>3.368</v>
-      </c>
-      <c r="L17" s="12">
+      <c r="K17" s="11">
+        <v>3.3679999999999999</v>
+      </c>
+      <c r="L17" s="11">
         <v>1.248</v>
       </c>
-      <c r="M17" s="12">
-        <v>3</v>
-      </c>
-      <c r="N17" s="13">
-        <v>74.69199999999999</v>
-      </c>
-      <c r="O17" s="10"/>
-    </row>
-    <row r="18" ht="13.55" customHeight="1">
-      <c r="A18" t="s" s="14">
+      <c r="M17" s="11">
+        <v>3</v>
+      </c>
+      <c r="N17" s="12">
+        <v>74.691999999999993</v>
+      </c>
+      <c r="O17" s="9"/>
+    </row>
+    <row r="18" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="14">
         <v>2012</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="14">
         <v>2022</v>
       </c>
-      <c r="D18" s="15">
-        <v>155.954</v>
-      </c>
-      <c r="E18" s="15">
-        <v>75.715</v>
-      </c>
-      <c r="F18" s="15">
+      <c r="D18" s="14">
+        <v>155.95400000000001</v>
+      </c>
+      <c r="E18" s="14">
+        <v>75.715000000000003</v>
+      </c>
+      <c r="F18" s="14">
         <v>48.85</v>
       </c>
-      <c r="G18" s="15">
-        <v>48.528</v>
-      </c>
-      <c r="H18" s="15">
+      <c r="G18" s="14">
+        <v>48.527999999999999</v>
+      </c>
+      <c r="H18" s="14">
         <v>148226.875</v>
       </c>
-      <c r="I18" s="15">
-        <v>2.667</v>
-      </c>
-      <c r="J18" s="15">
+      <c r="I18" s="14">
+        <v>2.6669999999999998</v>
+      </c>
+      <c r="J18" s="14">
         <v>7.86</v>
       </c>
-      <c r="K18" s="15">
-        <v>3.368</v>
-      </c>
-      <c r="L18" s="15">
+      <c r="K18" s="14">
+        <v>3.3679999999999999</v>
+      </c>
+      <c r="L18" s="14">
         <v>1.248</v>
       </c>
-      <c r="M18" s="15">
-        <v>3</v>
-      </c>
-      <c r="N18" s="16">
-        <v>57.825</v>
-      </c>
-      <c r="O18" s="10"/>
-    </row>
-    <row r="19" ht="13.55" customHeight="1">
-      <c r="A19" t="s" s="17">
+      <c r="M18" s="14">
+        <v>3</v>
+      </c>
+      <c r="N18" s="15">
+        <v>57.825000000000003</v>
+      </c>
+      <c r="O18" s="9"/>
+    </row>
+    <row r="19" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="18">
+      <c r="B19" s="17">
         <v>2012</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C19" s="17">
         <v>2022</v>
       </c>
-      <c r="D19" s="18">
-        <v>155.954</v>
-      </c>
-      <c r="E19" s="18">
-        <v>75.715</v>
-      </c>
-      <c r="F19" s="18">
+      <c r="D19" s="17">
+        <v>155.95400000000001</v>
+      </c>
+      <c r="E19" s="17">
+        <v>75.715000000000003</v>
+      </c>
+      <c r="F19" s="17">
         <v>48.85</v>
       </c>
-      <c r="G19" s="18">
-        <v>48.528</v>
-      </c>
-      <c r="H19" s="18">
+      <c r="G19" s="17">
+        <v>48.527999999999999</v>
+      </c>
+      <c r="H19" s="17">
         <v>148226.875</v>
       </c>
-      <c r="I19" s="18">
-        <v>2.667</v>
-      </c>
-      <c r="J19" s="18">
+      <c r="I19" s="17">
+        <v>2.6669999999999998</v>
+      </c>
+      <c r="J19" s="17">
         <v>7.86</v>
       </c>
-      <c r="K19" s="18">
-        <v>3.368</v>
-      </c>
-      <c r="L19" s="18">
+      <c r="K19" s="17">
+        <v>3.3679999999999999</v>
+      </c>
+      <c r="L19" s="17">
         <v>1.248</v>
       </c>
-      <c r="M19" s="18">
-        <v>3</v>
-      </c>
-      <c r="N19" s="19">
-        <v>57.825</v>
-      </c>
-      <c r="O19" s="10"/>
-    </row>
-    <row r="20" ht="13.55" customHeight="1">
-      <c r="A20" s="20"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="21"/>
+      <c r="M19" s="17">
+        <v>3</v>
+      </c>
+      <c r="N19" s="18">
+        <v>57.825000000000003</v>
+      </c>
+      <c r="O19" s="9"/>
+    </row>
+    <row r="20" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
